--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1041100</v>
+        <v>990500</v>
       </c>
       <c r="E8" s="3">
-        <v>1012500</v>
+        <v>1005000</v>
       </c>
       <c r="F8" s="3">
-        <v>996700</v>
+        <v>977400</v>
       </c>
       <c r="G8" s="3">
-        <v>990700</v>
+        <v>962100</v>
       </c>
       <c r="H8" s="3">
-        <v>1020000</v>
+        <v>955600</v>
       </c>
       <c r="I8" s="3">
-        <v>998200</v>
+        <v>984700</v>
       </c>
       <c r="J8" s="3">
+        <v>963600</v>
+      </c>
+      <c r="K8" s="3">
         <v>970300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1008400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>926500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>925800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>905000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>926500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>934200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>598500</v>
+        <v>554500</v>
       </c>
       <c r="E9" s="3">
-        <v>613500</v>
+        <v>577700</v>
       </c>
       <c r="F9" s="3">
-        <v>597700</v>
+        <v>592300</v>
       </c>
       <c r="G9" s="3">
-        <v>577400</v>
+        <v>577000</v>
       </c>
       <c r="H9" s="3">
-        <v>609800</v>
+        <v>989000</v>
       </c>
       <c r="I9" s="3">
-        <v>579600</v>
+        <v>588600</v>
       </c>
       <c r="J9" s="3">
+        <v>559600</v>
+      </c>
+      <c r="K9" s="3">
         <v>565300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>635600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>569300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1014400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1091000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1127000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1141600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>442600</v>
+        <v>436000</v>
       </c>
       <c r="E10" s="3">
-        <v>399000</v>
+        <v>427300</v>
       </c>
       <c r="F10" s="3">
-        <v>399000</v>
+        <v>385100</v>
       </c>
       <c r="G10" s="3">
-        <v>413300</v>
+        <v>385100</v>
       </c>
       <c r="H10" s="3">
-        <v>410300</v>
+        <v>-33400</v>
       </c>
       <c r="I10" s="3">
-        <v>418600</v>
+        <v>396000</v>
       </c>
       <c r="J10" s="3">
+        <v>404000</v>
+      </c>
+      <c r="K10" s="3">
         <v>405000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>372800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>357200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-88600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-186100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-200500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-207400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -997,93 +1017,99 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-7500</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-7300</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="L14" s="3">
+        <v>310300</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>32000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="R14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
-        <v>12000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>9800</v>
-      </c>
-      <c r="K14" s="3">
-        <v>310300</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>32000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>9200</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>217600</v>
+        <v>209300</v>
       </c>
       <c r="E15" s="3">
-        <v>177700</v>
+        <v>210000</v>
       </c>
       <c r="F15" s="3">
-        <v>185900</v>
+        <v>171500</v>
       </c>
       <c r="G15" s="3">
-        <v>186700</v>
+        <v>179500</v>
       </c>
       <c r="H15" s="3">
-        <v>183700</v>
+        <v>180200</v>
       </c>
       <c r="I15" s="3">
-        <v>180700</v>
+        <v>177300</v>
       </c>
       <c r="J15" s="3">
+        <v>174400</v>
+      </c>
+      <c r="K15" s="3">
         <v>174600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>171900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>177900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>168200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>162200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>163600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>156000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>826600</v>
+        <v>788500</v>
       </c>
       <c r="E17" s="3">
-        <v>794200</v>
+        <v>797900</v>
       </c>
       <c r="F17" s="3">
-        <v>795700</v>
+        <v>766700</v>
       </c>
       <c r="G17" s="3">
-        <v>776100</v>
+        <v>768100</v>
       </c>
       <c r="H17" s="3">
-        <v>807700</v>
+        <v>749200</v>
       </c>
       <c r="I17" s="3">
-        <v>786700</v>
+        <v>779700</v>
       </c>
       <c r="J17" s="3">
+        <v>759400</v>
+      </c>
+      <c r="K17" s="3">
         <v>764800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1132700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>762800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>753100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>734500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>719100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>728300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>214500</v>
+        <v>202000</v>
       </c>
       <c r="E18" s="3">
-        <v>218300</v>
+        <v>207100</v>
       </c>
       <c r="F18" s="3">
-        <v>201000</v>
+        <v>210700</v>
       </c>
       <c r="G18" s="3">
-        <v>214500</v>
+        <v>194000</v>
       </c>
       <c r="H18" s="3">
-        <v>212300</v>
+        <v>206400</v>
       </c>
       <c r="I18" s="3">
-        <v>211500</v>
+        <v>204900</v>
       </c>
       <c r="J18" s="3">
+        <v>204200</v>
+      </c>
+      <c r="K18" s="3">
         <v>205500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-124300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>163700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>172700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>170400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>207400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>205900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,243 +1244,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2300</v>
+        <v>-13800</v>
       </c>
       <c r="E20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
-        <v>-27100</v>
-      </c>
       <c r="G20" s="3">
-        <v>-800</v>
+        <v>-26200</v>
       </c>
       <c r="H20" s="3">
-        <v>17300</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3">
-        <v>29400</v>
+        <v>16700</v>
       </c>
       <c r="J20" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-194200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>25300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>27500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>33500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-61500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>441100</v>
+        <v>406900</v>
       </c>
       <c r="E21" s="3">
-        <v>408800</v>
+        <v>425800</v>
       </c>
       <c r="F21" s="3">
-        <v>371900</v>
+        <v>394600</v>
       </c>
       <c r="G21" s="3">
-        <v>412500</v>
+        <v>359000</v>
       </c>
       <c r="H21" s="3">
-        <v>427600</v>
+        <v>397500</v>
       </c>
       <c r="I21" s="3">
-        <v>436600</v>
+        <v>412800</v>
       </c>
       <c r="J21" s="3">
+        <v>421500</v>
+      </c>
+      <c r="K21" s="3">
         <v>201000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>383300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>384800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>382500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>391000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>316500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54200</v>
+        <v>50100</v>
       </c>
       <c r="E22" s="3">
-        <v>50400</v>
+        <v>52300</v>
       </c>
       <c r="F22" s="3">
-        <v>47400</v>
+        <v>48700</v>
       </c>
       <c r="G22" s="3">
-        <v>51200</v>
+        <v>45800</v>
       </c>
       <c r="H22" s="3">
-        <v>47400</v>
+        <v>49400</v>
       </c>
       <c r="I22" s="3">
-        <v>48900</v>
+        <v>45800</v>
       </c>
       <c r="J22" s="3">
+        <v>47200</v>
+      </c>
+      <c r="K22" s="3">
         <v>45200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>47600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>49100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>53000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>158100</v>
+        <v>138100</v>
       </c>
       <c r="E23" s="3">
-        <v>169400</v>
+        <v>152600</v>
       </c>
       <c r="F23" s="3">
-        <v>126500</v>
+        <v>163500</v>
       </c>
       <c r="G23" s="3">
-        <v>162600</v>
+        <v>122100</v>
       </c>
       <c r="H23" s="3">
-        <v>182200</v>
+        <v>156200</v>
       </c>
       <c r="I23" s="3">
-        <v>192000</v>
+        <v>175900</v>
       </c>
       <c r="J23" s="3">
+        <v>185300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-33900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-161500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>151100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>154100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>158300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>93000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36100</v>
+        <v>32700</v>
       </c>
       <c r="E24" s="3">
-        <v>47400</v>
+        <v>34900</v>
       </c>
       <c r="F24" s="3">
-        <v>-45900</v>
+        <v>45800</v>
       </c>
       <c r="G24" s="3">
-        <v>45900</v>
+        <v>-44300</v>
       </c>
       <c r="H24" s="3">
-        <v>41400</v>
+        <v>44300</v>
       </c>
       <c r="I24" s="3">
-        <v>44400</v>
+        <v>40000</v>
       </c>
       <c r="J24" s="3">
+        <v>42900</v>
+      </c>
+      <c r="K24" s="3">
         <v>40700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-39400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>55800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>32000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>43000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>21500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>122000</v>
+        <v>105400</v>
       </c>
       <c r="E26" s="3">
-        <v>122000</v>
+        <v>117700</v>
       </c>
       <c r="F26" s="3">
-        <v>172400</v>
+        <v>117700</v>
       </c>
       <c r="G26" s="3">
-        <v>116700</v>
+        <v>166400</v>
       </c>
       <c r="H26" s="3">
-        <v>140800</v>
+        <v>111900</v>
       </c>
       <c r="I26" s="3">
-        <v>147500</v>
+        <v>135900</v>
       </c>
       <c r="J26" s="3">
+        <v>142400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-74500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-122100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>87100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>110900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>122100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>115200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>120400</v>
+        <v>103900</v>
       </c>
       <c r="E27" s="3">
-        <v>120400</v>
+        <v>116300</v>
       </c>
       <c r="F27" s="3">
-        <v>170100</v>
+        <v>116300</v>
       </c>
       <c r="G27" s="3">
-        <v>115200</v>
+        <v>164200</v>
       </c>
       <c r="H27" s="3">
-        <v>139300</v>
+        <v>110500</v>
       </c>
       <c r="I27" s="3">
-        <v>146000</v>
+        <v>134400</v>
       </c>
       <c r="J27" s="3">
+        <v>141000</v>
+      </c>
+      <c r="K27" s="3">
         <v>-76000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-123500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>109400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>120600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>114500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,55 +1692,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-1500</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-4500</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>247100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-23100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-2300</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2300</v>
+        <v>13800</v>
       </c>
       <c r="E32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
-        <v>27100</v>
-      </c>
       <c r="G32" s="3">
-        <v>800</v>
+        <v>26200</v>
       </c>
       <c r="H32" s="3">
-        <v>-17300</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3">
-        <v>-29400</v>
+        <v>-16700</v>
       </c>
       <c r="J32" s="3">
+        <v>-28300</v>
+      </c>
+      <c r="K32" s="3">
         <v>194200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-25300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-27500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-33500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>61500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>120400</v>
+        <v>103900</v>
       </c>
       <c r="E33" s="3">
-        <v>120400</v>
+        <v>116300</v>
       </c>
       <c r="F33" s="3">
-        <v>168600</v>
+        <v>116300</v>
       </c>
       <c r="G33" s="3">
-        <v>115200</v>
+        <v>162800</v>
       </c>
       <c r="H33" s="3">
-        <v>139300</v>
+        <v>110500</v>
       </c>
       <c r="I33" s="3">
-        <v>141500</v>
+        <v>134400</v>
       </c>
       <c r="J33" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-76000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-123500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>356500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>97500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>112200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>66800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>120400</v>
+        <v>103900</v>
       </c>
       <c r="E35" s="3">
-        <v>120400</v>
+        <v>116300</v>
       </c>
       <c r="F35" s="3">
-        <v>168600</v>
+        <v>116300</v>
       </c>
       <c r="G35" s="3">
-        <v>115200</v>
+        <v>162800</v>
       </c>
       <c r="H35" s="3">
-        <v>139300</v>
+        <v>110500</v>
       </c>
       <c r="I35" s="3">
-        <v>141500</v>
+        <v>134400</v>
       </c>
       <c r="J35" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-76000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-123500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>356500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>97500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>112200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>66800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>99400</v>
+        <v>34200</v>
       </c>
       <c r="E41" s="3">
-        <v>1088500</v>
+        <v>95900</v>
       </c>
       <c r="F41" s="3">
-        <v>1074200</v>
+        <v>1050800</v>
       </c>
       <c r="G41" s="3">
-        <v>969600</v>
+        <v>1037000</v>
       </c>
       <c r="H41" s="3">
-        <v>895100</v>
+        <v>936000</v>
       </c>
       <c r="I41" s="3">
-        <v>289100</v>
+        <v>864000</v>
       </c>
       <c r="J41" s="3">
+        <v>279000</v>
+      </c>
+      <c r="K41" s="3">
         <v>221300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>206900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>331200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>377300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>476300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>222000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,337 +2237,361 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>393000</v>
+        <v>399000</v>
       </c>
       <c r="E43" s="3">
-        <v>389200</v>
+        <v>379300</v>
       </c>
       <c r="F43" s="3">
-        <v>319900</v>
+        <v>375700</v>
       </c>
       <c r="G43" s="3">
-        <v>381700</v>
+        <v>308800</v>
       </c>
       <c r="H43" s="3">
-        <v>356100</v>
+        <v>368400</v>
       </c>
       <c r="I43" s="3">
-        <v>234900</v>
+        <v>343700</v>
       </c>
       <c r="J43" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K43" s="3">
         <v>185200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>189000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>175600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>212800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>180800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>203600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>199000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>68500</v>
+        <v>50900</v>
       </c>
       <c r="E44" s="3">
-        <v>64700</v>
+        <v>66100</v>
       </c>
       <c r="F44" s="3">
-        <v>48200</v>
+        <v>62500</v>
       </c>
       <c r="G44" s="3">
-        <v>55700</v>
+        <v>46500</v>
       </c>
       <c r="H44" s="3">
-        <v>78300</v>
+        <v>53800</v>
       </c>
       <c r="I44" s="3">
-        <v>45900</v>
+        <v>75600</v>
       </c>
       <c r="J44" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K44" s="3">
         <v>91800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>99000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>92300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>81100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>66200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>61500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>52200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115900</v>
+        <v>106800</v>
       </c>
       <c r="E45" s="3">
-        <v>125700</v>
+        <v>111900</v>
       </c>
       <c r="F45" s="3">
-        <v>132500</v>
+        <v>121400</v>
       </c>
       <c r="G45" s="3">
-        <v>131700</v>
+        <v>127900</v>
       </c>
       <c r="H45" s="3">
-        <v>140800</v>
+        <v>127200</v>
       </c>
       <c r="I45" s="3">
-        <v>205500</v>
+        <v>135900</v>
       </c>
       <c r="J45" s="3">
+        <v>198400</v>
+      </c>
+      <c r="K45" s="3">
         <v>192700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>123500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>160700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>164500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>119800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>117500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>676800</v>
+        <v>590800</v>
       </c>
       <c r="E46" s="3">
-        <v>1668200</v>
+        <v>653300</v>
       </c>
       <c r="F46" s="3">
-        <v>1574800</v>
+        <v>1610300</v>
       </c>
       <c r="G46" s="3">
-        <v>1538700</v>
+        <v>1520200</v>
       </c>
       <c r="H46" s="3">
-        <v>1470200</v>
+        <v>1485400</v>
       </c>
       <c r="I46" s="3">
-        <v>775400</v>
+        <v>1419200</v>
       </c>
       <c r="J46" s="3">
+        <v>748500</v>
+      </c>
+      <c r="K46" s="3">
         <v>691100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>666100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>722600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>832000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>541800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>861200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>590800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>80500</v>
+        <v>85700</v>
       </c>
       <c r="E47" s="3">
-        <v>67000</v>
+        <v>77800</v>
       </c>
       <c r="F47" s="3">
-        <v>84300</v>
+        <v>64700</v>
       </c>
       <c r="G47" s="3">
-        <v>562300</v>
+        <v>81400</v>
       </c>
       <c r="H47" s="3">
-        <v>572100</v>
+        <v>542800</v>
       </c>
       <c r="I47" s="3">
-        <v>554100</v>
+        <v>552300</v>
       </c>
       <c r="J47" s="3">
+        <v>534800</v>
+      </c>
+      <c r="K47" s="3">
         <v>502100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>704800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>702500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>697300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>686200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>690600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>682200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4663500</v>
+        <v>4503300</v>
       </c>
       <c r="E48" s="3">
-        <v>3675900</v>
+        <v>4501800</v>
       </c>
       <c r="F48" s="3">
-        <v>3626200</v>
+        <v>3548400</v>
       </c>
       <c r="G48" s="3">
-        <v>3573500</v>
+        <v>3500500</v>
       </c>
       <c r="H48" s="3">
-        <v>3550900</v>
+        <v>3449600</v>
       </c>
       <c r="I48" s="3">
-        <v>3539600</v>
+        <v>3427800</v>
       </c>
       <c r="J48" s="3">
+        <v>3416900</v>
+      </c>
+      <c r="K48" s="3">
         <v>3400400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3331100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3304300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3232800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3520900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3593000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3566900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6212000</v>
+        <v>5998800</v>
       </c>
       <c r="E49" s="3">
-        <v>6217300</v>
+        <v>5996600</v>
       </c>
       <c r="F49" s="3">
-        <v>6197000</v>
+        <v>6001700</v>
       </c>
       <c r="G49" s="3">
-        <v>5833400</v>
+        <v>5982100</v>
       </c>
       <c r="H49" s="3">
-        <v>5843900</v>
+        <v>5631100</v>
       </c>
       <c r="I49" s="3">
-        <v>5843200</v>
+        <v>5641300</v>
       </c>
       <c r="J49" s="3">
+        <v>5640600</v>
+      </c>
+      <c r="K49" s="3">
         <v>5819100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5747500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5740800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5741600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6504400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6745800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6763500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>155100</v>
+        <v>149700</v>
       </c>
       <c r="E52" s="3">
-        <v>149800</v>
+        <v>149700</v>
       </c>
       <c r="F52" s="3">
-        <v>161100</v>
+        <v>144600</v>
       </c>
       <c r="G52" s="3">
-        <v>133200</v>
+        <v>155500</v>
       </c>
       <c r="H52" s="3">
-        <v>143800</v>
+        <v>128600</v>
       </c>
       <c r="I52" s="3">
-        <v>151300</v>
+        <v>138800</v>
       </c>
       <c r="J52" s="3">
+        <v>146100</v>
+      </c>
+      <c r="K52" s="3">
         <v>226600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>224000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>192800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>198700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>217400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>220500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11787900</v>
+        <v>11328400</v>
       </c>
       <c r="E54" s="3">
-        <v>11778200</v>
+        <v>11379200</v>
       </c>
       <c r="F54" s="3">
-        <v>11643400</v>
+        <v>11369800</v>
       </c>
       <c r="G54" s="3">
-        <v>11641100</v>
+        <v>11239700</v>
       </c>
       <c r="H54" s="3">
-        <v>11580900</v>
+        <v>11237500</v>
       </c>
       <c r="I54" s="3">
-        <v>10863500</v>
+        <v>11179400</v>
       </c>
       <c r="J54" s="3">
+        <v>10486900</v>
+      </c>
+      <c r="K54" s="3">
         <v>10639200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10673500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10665300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10696500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11451900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12108100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11823800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,93 +2879,97 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>688100</v>
+        <v>628600</v>
       </c>
       <c r="E57" s="3">
-        <v>764100</v>
+        <v>664200</v>
       </c>
       <c r="F57" s="3">
-        <v>684300</v>
+        <v>737600</v>
       </c>
       <c r="G57" s="3">
-        <v>700800</v>
+        <v>660600</v>
       </c>
       <c r="H57" s="3">
-        <v>644400</v>
+        <v>676500</v>
       </c>
       <c r="I57" s="3">
-        <v>730200</v>
+        <v>622000</v>
       </c>
       <c r="J57" s="3">
+        <v>704900</v>
+      </c>
+      <c r="K57" s="3">
         <v>623300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>636300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>668300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>679500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>651200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>706000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>670700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>176200</v>
+        <v>268900</v>
       </c>
       <c r="E58" s="3">
-        <v>971900</v>
+        <v>170000</v>
       </c>
       <c r="F58" s="3">
-        <v>971900</v>
+        <v>938200</v>
       </c>
       <c r="G58" s="3">
-        <v>971900</v>
+        <v>938200</v>
       </c>
       <c r="H58" s="3">
-        <v>971900</v>
+        <v>938200</v>
       </c>
       <c r="I58" s="3">
-        <v>30900</v>
+        <v>938200</v>
       </c>
       <c r="J58" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K58" s="3">
         <v>800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>700</v>
       </c>
       <c r="L58" s="3">
         <v>700</v>
       </c>
       <c r="M58" s="3">
+        <v>700</v>
+      </c>
+      <c r="N58" s="3">
         <v>1500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8900</v>
-      </c>
-      <c r="O58" s="3">
-        <v>316500</v>
       </c>
       <c r="P58" s="3">
         <v>316500</v>
@@ -2843,196 +2977,211 @@
       <c r="Q58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>353100</v>
+        <v>263800</v>
       </c>
       <c r="E59" s="3">
-        <v>398200</v>
+        <v>340800</v>
       </c>
       <c r="F59" s="3">
-        <v>414800</v>
+        <v>384400</v>
       </c>
       <c r="G59" s="3">
-        <v>426100</v>
+        <v>400400</v>
       </c>
       <c r="H59" s="3">
-        <v>462200</v>
+        <v>411300</v>
       </c>
       <c r="I59" s="3">
-        <v>621100</v>
+        <v>446200</v>
       </c>
       <c r="J59" s="3">
+        <v>599500</v>
+      </c>
+      <c r="K59" s="3">
         <v>441900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>422000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>280600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>355000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>349000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>334900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>371800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1217300</v>
+        <v>1161300</v>
       </c>
       <c r="E60" s="3">
-        <v>2134200</v>
+        <v>1175100</v>
       </c>
       <c r="F60" s="3">
-        <v>2070900</v>
+        <v>2060200</v>
       </c>
       <c r="G60" s="3">
-        <v>2098800</v>
+        <v>1999100</v>
       </c>
       <c r="H60" s="3">
-        <v>2078500</v>
+        <v>2026000</v>
       </c>
       <c r="I60" s="3">
-        <v>1215800</v>
+        <v>2006400</v>
       </c>
       <c r="J60" s="3">
+        <v>1173600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1066000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1059000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>949600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1035900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1009100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1357500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1359000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3952900</v>
+        <v>3808600</v>
       </c>
       <c r="E61" s="3">
-        <v>3054100</v>
+        <v>3815800</v>
       </c>
       <c r="F61" s="3">
-        <v>3053300</v>
+        <v>2948200</v>
       </c>
       <c r="G61" s="3">
-        <v>3052600</v>
+        <v>2947500</v>
       </c>
       <c r="H61" s="3">
-        <v>3051800</v>
+        <v>2946700</v>
       </c>
       <c r="I61" s="3">
+        <v>2946000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3132000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3244500</v>
       </c>
-      <c r="J61" s="3">
-        <v>3244500</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3207500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3199400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3198600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4134800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4252900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4030900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1885000</v>
+        <v>1843600</v>
       </c>
       <c r="E62" s="3">
-        <v>1858600</v>
+        <v>1819600</v>
       </c>
       <c r="F62" s="3">
-        <v>1825500</v>
+        <v>1794200</v>
       </c>
       <c r="G62" s="3">
-        <v>1876000</v>
+        <v>1762200</v>
       </c>
       <c r="H62" s="3">
-        <v>1882000</v>
+        <v>1810900</v>
       </c>
       <c r="I62" s="3">
-        <v>1909100</v>
+        <v>1816700</v>
       </c>
       <c r="J62" s="3">
+        <v>1842900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1940700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1934200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1913400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1882100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1964700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2037300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2028900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7055100</v>
+        <v>6813400</v>
       </c>
       <c r="E66" s="3">
-        <v>7049100</v>
+        <v>6810500</v>
       </c>
       <c r="F66" s="3">
-        <v>6952000</v>
+        <v>6804700</v>
       </c>
       <c r="G66" s="3">
-        <v>7028000</v>
+        <v>6711000</v>
       </c>
       <c r="H66" s="3">
-        <v>7013000</v>
+        <v>6784400</v>
       </c>
       <c r="I66" s="3">
-        <v>6370100</v>
+        <v>6769800</v>
       </c>
       <c r="J66" s="3">
+        <v>6149300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6251900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6201500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6063100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6117400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7109400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7648500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7419600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,34 +3497,37 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>212900</v>
+      </c>
+      <c r="K70" s="3">
         <v>220600</v>
-      </c>
-      <c r="E70" s="3">
-        <v>220600</v>
-      </c>
-      <c r="F70" s="3">
-        <v>220600</v>
-      </c>
-      <c r="G70" s="3">
-        <v>220600</v>
-      </c>
-      <c r="H70" s="3">
-        <v>220600</v>
-      </c>
-      <c r="I70" s="3">
-        <v>220600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>220600</v>
-      </c>
-      <c r="K70" s="3">
-        <v>218100</v>
       </c>
       <c r="L70" s="3">
         <v>218100</v>
@@ -3371,7 +3539,7 @@
         <v>218100</v>
       </c>
       <c r="O70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="P70" s="3">
         <v>225100</v>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1289500</v>
+        <v>1215800</v>
       </c>
       <c r="E72" s="3">
-        <v>1313600</v>
+        <v>1244800</v>
       </c>
       <c r="F72" s="3">
-        <v>1309100</v>
+        <v>1268100</v>
       </c>
       <c r="G72" s="3">
-        <v>1254100</v>
+        <v>1263700</v>
       </c>
       <c r="H72" s="3">
-        <v>1252600</v>
+        <v>1210700</v>
       </c>
       <c r="I72" s="3">
-        <v>1218800</v>
+        <v>1209200</v>
       </c>
       <c r="J72" s="3">
+        <v>1176500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1181900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1348500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1583700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1610500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="O72" s="3">
-        <v>1420500</v>
       </c>
       <c r="P72" s="3">
         <v>1420500</v>
       </c>
       <c r="Q72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="R72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4512200</v>
+        <v>4302000</v>
       </c>
       <c r="E76" s="3">
-        <v>4508500</v>
+        <v>4355800</v>
       </c>
       <c r="F76" s="3">
-        <v>4470800</v>
+        <v>4352100</v>
       </c>
       <c r="G76" s="3">
-        <v>4392500</v>
+        <v>4315800</v>
       </c>
       <c r="H76" s="3">
-        <v>4347400</v>
+        <v>4240200</v>
       </c>
       <c r="I76" s="3">
-        <v>4272800</v>
+        <v>4196600</v>
       </c>
       <c r="J76" s="3">
+        <v>4124700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4166700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4253900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4384100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4361100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4124400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4234500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4179200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>120400</v>
+        <v>103900</v>
       </c>
       <c r="E81" s="3">
-        <v>120400</v>
+        <v>116300</v>
       </c>
       <c r="F81" s="3">
-        <v>168600</v>
+        <v>116300</v>
       </c>
       <c r="G81" s="3">
-        <v>115200</v>
+        <v>162800</v>
       </c>
       <c r="H81" s="3">
-        <v>139300</v>
+        <v>110500</v>
       </c>
       <c r="I81" s="3">
-        <v>141500</v>
+        <v>134400</v>
       </c>
       <c r="J81" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-76000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-123500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>356500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>97500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>112200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>66800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>228800</v>
+        <v>218700</v>
       </c>
       <c r="E83" s="3">
-        <v>189000</v>
+        <v>220900</v>
       </c>
       <c r="F83" s="3">
-        <v>198000</v>
+        <v>182400</v>
       </c>
       <c r="G83" s="3">
-        <v>198700</v>
+        <v>191100</v>
       </c>
       <c r="H83" s="3">
-        <v>198000</v>
+        <v>191800</v>
       </c>
       <c r="I83" s="3">
-        <v>195700</v>
+        <v>191100</v>
       </c>
       <c r="J83" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K83" s="3">
         <v>189700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>183800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>194200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>113100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>202400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>204300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>196700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>255200</v>
+        <v>262300</v>
       </c>
       <c r="E89" s="3">
-        <v>327500</v>
+        <v>246300</v>
       </c>
       <c r="F89" s="3">
-        <v>314700</v>
+        <v>316100</v>
       </c>
       <c r="G89" s="3">
-        <v>286100</v>
+        <v>303800</v>
       </c>
       <c r="H89" s="3">
-        <v>252200</v>
+        <v>276100</v>
       </c>
       <c r="I89" s="3">
-        <v>329700</v>
+        <v>243400</v>
       </c>
       <c r="J89" s="3">
+        <v>318300</v>
+      </c>
+      <c r="K89" s="3">
         <v>259700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>150300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>272400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>265700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>325200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>341900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>202000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-7500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-9000</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-471700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-434000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-233400</v>
+        <v>-213600</v>
       </c>
       <c r="E94" s="3">
-        <v>-240100</v>
+        <v>-225300</v>
       </c>
       <c r="F94" s="3">
-        <v>-141500</v>
+        <v>-231800</v>
       </c>
       <c r="G94" s="3">
-        <v>-185900</v>
+        <v>-146800</v>
       </c>
       <c r="H94" s="3">
-        <v>-285300</v>
+        <v>-169300</v>
       </c>
       <c r="I94" s="3">
-        <v>-238600</v>
+        <v>-275400</v>
       </c>
       <c r="J94" s="3">
+        <v>-230400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-163400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-215800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-260500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>810400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-294700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-263500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-231200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,55 +4614,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-87300</v>
+        <v>-111200</v>
       </c>
       <c r="E96" s="3">
+        <v>-84300</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-70500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-72300</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-71400</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-73700</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-70700</v>
+      </c>
+      <c r="P96" s="3">
         <v>-73000</v>
       </c>
-      <c r="F96" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="Q96" s="3">
         <v>-73800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-73800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-72300</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-70000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-71400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-73700</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-70700</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-73000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-73800</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1011000</v>
+        <v>-110500</v>
       </c>
       <c r="E100" s="3">
-        <v>-73000</v>
+        <v>-975900</v>
       </c>
       <c r="F100" s="3">
-        <v>-68500</v>
+        <v>-70500</v>
       </c>
       <c r="G100" s="3">
-        <v>-58700</v>
+        <v>-66100</v>
       </c>
       <c r="H100" s="3">
-        <v>672200</v>
+        <v>-56700</v>
       </c>
       <c r="I100" s="3">
-        <v>-36100</v>
+        <v>648900</v>
       </c>
       <c r="J100" s="3">
+        <v>-34900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-71500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-59500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-57300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-828300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-362400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>176700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4649,11 +4898,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -4663,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-989200</v>
+        <v>-61800</v>
       </c>
       <c r="E102" s="3">
-        <v>14300</v>
+        <v>-954900</v>
       </c>
       <c r="F102" s="3">
-        <v>104600</v>
+        <v>13800</v>
       </c>
       <c r="G102" s="3">
-        <v>74500</v>
+        <v>101000</v>
       </c>
       <c r="H102" s="3">
-        <v>606000</v>
+        <v>71900</v>
       </c>
       <c r="I102" s="3">
-        <v>67800</v>
+        <v>585000</v>
       </c>
       <c r="J102" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K102" s="3">
         <v>12000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-124300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-46100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>247100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-331200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>254300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-89100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>990500</v>
+        <v>998600</v>
       </c>
       <c r="E8" s="3">
-        <v>1005000</v>
+        <v>1037400</v>
       </c>
       <c r="F8" s="3">
-        <v>977400</v>
+        <v>1052600</v>
       </c>
       <c r="G8" s="3">
-        <v>962100</v>
+        <v>1023700</v>
       </c>
       <c r="H8" s="3">
-        <v>955600</v>
+        <v>1007700</v>
       </c>
       <c r="I8" s="3">
-        <v>984700</v>
+        <v>1000800</v>
       </c>
       <c r="J8" s="3">
+        <v>1031300</v>
+      </c>
+      <c r="K8" s="3">
         <v>963600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>970300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1008400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>926500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>925800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>905000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>926500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>934200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>554500</v>
+        <v>535000</v>
       </c>
       <c r="E9" s="3">
-        <v>577700</v>
+        <v>580700</v>
       </c>
       <c r="F9" s="3">
-        <v>592300</v>
+        <v>605100</v>
       </c>
       <c r="G9" s="3">
-        <v>577000</v>
+        <v>620300</v>
       </c>
       <c r="H9" s="3">
-        <v>989000</v>
+        <v>604300</v>
       </c>
       <c r="I9" s="3">
-        <v>588600</v>
+        <v>1035800</v>
       </c>
       <c r="J9" s="3">
+        <v>616500</v>
+      </c>
+      <c r="K9" s="3">
         <v>559600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>565300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>635600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>569300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1014400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1091000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1127000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1141600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>436000</v>
+        <v>463500</v>
       </c>
       <c r="E10" s="3">
-        <v>427300</v>
+        <v>456700</v>
       </c>
       <c r="F10" s="3">
-        <v>385100</v>
+        <v>447500</v>
       </c>
       <c r="G10" s="3">
-        <v>385100</v>
+        <v>403400</v>
       </c>
       <c r="H10" s="3">
-        <v>-33400</v>
+        <v>403400</v>
       </c>
       <c r="I10" s="3">
-        <v>396000</v>
+        <v>-35000</v>
       </c>
       <c r="J10" s="3">
+        <v>414800</v>
+      </c>
+      <c r="K10" s="3">
         <v>404000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>405000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>372800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>357200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-88600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-186100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-200500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-207400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10700</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>-7300</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-7600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>800</v>
+      </c>
+      <c r="K14" s="3">
         <v>11600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>9800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>310300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>32000</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>9200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>209300</v>
+        <v>220700</v>
       </c>
       <c r="E15" s="3">
-        <v>210000</v>
+        <v>219200</v>
       </c>
       <c r="F15" s="3">
-        <v>171500</v>
+        <v>220000</v>
       </c>
       <c r="G15" s="3">
-        <v>179500</v>
+        <v>179600</v>
       </c>
       <c r="H15" s="3">
-        <v>180200</v>
+        <v>188000</v>
       </c>
       <c r="I15" s="3">
-        <v>177300</v>
+        <v>188800</v>
       </c>
       <c r="J15" s="3">
+        <v>185700</v>
+      </c>
+      <c r="K15" s="3">
         <v>174400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>174600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>171900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>177900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>168200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>162200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>163600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>156000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>788500</v>
+        <v>775600</v>
       </c>
       <c r="E17" s="3">
-        <v>797900</v>
+        <v>809000</v>
       </c>
       <c r="F17" s="3">
-        <v>766700</v>
+        <v>835700</v>
       </c>
       <c r="G17" s="3">
-        <v>768100</v>
+        <v>802900</v>
       </c>
       <c r="H17" s="3">
-        <v>749200</v>
+        <v>804500</v>
       </c>
       <c r="I17" s="3">
-        <v>779700</v>
+        <v>784700</v>
       </c>
       <c r="J17" s="3">
+        <v>816600</v>
+      </c>
+      <c r="K17" s="3">
         <v>759400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>764800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1132700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>762800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>753100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>734500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>719100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>728300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>202000</v>
+        <v>223000</v>
       </c>
       <c r="E18" s="3">
-        <v>207100</v>
+        <v>228300</v>
       </c>
       <c r="F18" s="3">
-        <v>210700</v>
+        <v>216900</v>
       </c>
       <c r="G18" s="3">
-        <v>194000</v>
+        <v>220700</v>
       </c>
       <c r="H18" s="3">
-        <v>206400</v>
+        <v>203200</v>
       </c>
       <c r="I18" s="3">
-        <v>204900</v>
+        <v>216100</v>
       </c>
       <c r="J18" s="3">
+        <v>214600</v>
+      </c>
+      <c r="K18" s="3">
         <v>204200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>205500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-124300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>163700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>172700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>170400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>207400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>205900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-13800</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
-        <v>-2200</v>
+        <v>-14500</v>
       </c>
       <c r="F20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
-        <v>-26200</v>
-      </c>
       <c r="H20" s="3">
-        <v>-700</v>
+        <v>-27400</v>
       </c>
       <c r="I20" s="3">
-        <v>16700</v>
+        <v>-800</v>
       </c>
       <c r="J20" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K20" s="3">
         <v>28300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-194200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>27500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>33500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-61500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>406900</v>
+        <v>458200</v>
       </c>
       <c r="E21" s="3">
-        <v>425800</v>
+        <v>443000</v>
       </c>
       <c r="F21" s="3">
-        <v>394600</v>
+        <v>446000</v>
       </c>
       <c r="G21" s="3">
-        <v>359000</v>
+        <v>413300</v>
       </c>
       <c r="H21" s="3">
-        <v>397500</v>
+        <v>376000</v>
       </c>
       <c r="I21" s="3">
-        <v>412800</v>
+        <v>416300</v>
       </c>
       <c r="J21" s="3">
+        <v>432300</v>
+      </c>
+      <c r="K21" s="3">
         <v>421500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>201000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>70000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>383300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>384800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>382500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>391000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>316500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50100</v>
+        <v>51000</v>
       </c>
       <c r="E22" s="3">
-        <v>52300</v>
+        <v>52500</v>
       </c>
       <c r="F22" s="3">
-        <v>48700</v>
+        <v>54800</v>
       </c>
       <c r="G22" s="3">
-        <v>45800</v>
+        <v>51000</v>
       </c>
       <c r="H22" s="3">
-        <v>49400</v>
+        <v>47900</v>
       </c>
       <c r="I22" s="3">
-        <v>45800</v>
+        <v>51800</v>
       </c>
       <c r="J22" s="3">
+        <v>47900</v>
+      </c>
+      <c r="K22" s="3">
         <v>47200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>45200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>47600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>49100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>49900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>53000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>138100</v>
+        <v>177300</v>
       </c>
       <c r="E23" s="3">
-        <v>152600</v>
+        <v>161400</v>
       </c>
       <c r="F23" s="3">
-        <v>163500</v>
+        <v>159800</v>
       </c>
       <c r="G23" s="3">
-        <v>122100</v>
+        <v>171200</v>
       </c>
       <c r="H23" s="3">
-        <v>156200</v>
+        <v>127900</v>
       </c>
       <c r="I23" s="3">
-        <v>175900</v>
+        <v>163600</v>
       </c>
       <c r="J23" s="3">
+        <v>184200</v>
+      </c>
+      <c r="K23" s="3">
         <v>185300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-33900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-161500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>142900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>151100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>154100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>158300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>93000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>32700</v>
+        <v>37300</v>
       </c>
       <c r="E24" s="3">
-        <v>34900</v>
+        <v>34200</v>
       </c>
       <c r="F24" s="3">
-        <v>45800</v>
+        <v>36500</v>
       </c>
       <c r="G24" s="3">
-        <v>-44300</v>
+        <v>47900</v>
       </c>
       <c r="H24" s="3">
-        <v>44300</v>
+        <v>-46400</v>
       </c>
       <c r="I24" s="3">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="J24" s="3">
+        <v>41900</v>
+      </c>
+      <c r="K24" s="3">
         <v>42900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-39400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>55800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>32000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>43000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>21500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>105400</v>
+        <v>140000</v>
       </c>
       <c r="E26" s="3">
-        <v>117700</v>
+        <v>127100</v>
       </c>
       <c r="F26" s="3">
-        <v>117700</v>
+        <v>123300</v>
       </c>
       <c r="G26" s="3">
-        <v>166400</v>
+        <v>123300</v>
       </c>
       <c r="H26" s="3">
-        <v>111900</v>
+        <v>174300</v>
       </c>
       <c r="I26" s="3">
-        <v>135900</v>
+        <v>117200</v>
       </c>
       <c r="J26" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K26" s="3">
         <v>142400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-74500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-122100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>87100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>110900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>122100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>115200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>71400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>103900</v>
+        <v>137800</v>
       </c>
       <c r="E27" s="3">
-        <v>116300</v>
+        <v>125600</v>
       </c>
       <c r="F27" s="3">
-        <v>116300</v>
+        <v>121800</v>
       </c>
       <c r="G27" s="3">
-        <v>164200</v>
+        <v>121800</v>
       </c>
       <c r="H27" s="3">
-        <v>110500</v>
+        <v>172000</v>
       </c>
       <c r="I27" s="3">
-        <v>134400</v>
+        <v>115700</v>
       </c>
       <c r="J27" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K27" s="3">
         <v>141000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-76000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-123500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>109400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>120600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>114500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1706,47 +1767,50 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-1500</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-4400</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-4500</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>247100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-23100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-3100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>13800</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
-        <v>2200</v>
+        <v>14500</v>
       </c>
       <c r="F32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
-        <v>26200</v>
-      </c>
       <c r="H32" s="3">
-        <v>700</v>
+        <v>27400</v>
       </c>
       <c r="I32" s="3">
-        <v>-16700</v>
+        <v>800</v>
       </c>
       <c r="J32" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-28300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>194200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-27500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-33500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>61500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>103900</v>
+        <v>137800</v>
       </c>
       <c r="E33" s="3">
-        <v>116300</v>
+        <v>125600</v>
       </c>
       <c r="F33" s="3">
-        <v>116300</v>
+        <v>121800</v>
       </c>
       <c r="G33" s="3">
-        <v>162800</v>
+        <v>121800</v>
       </c>
       <c r="H33" s="3">
-        <v>110500</v>
+        <v>170500</v>
       </c>
       <c r="I33" s="3">
-        <v>134400</v>
+        <v>115700</v>
       </c>
       <c r="J33" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K33" s="3">
         <v>136600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-76000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-123500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>356500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>97500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>112200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>66800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>103900</v>
+        <v>137800</v>
       </c>
       <c r="E35" s="3">
-        <v>116300</v>
+        <v>125600</v>
       </c>
       <c r="F35" s="3">
-        <v>116300</v>
+        <v>121800</v>
       </c>
       <c r="G35" s="3">
-        <v>162800</v>
+        <v>121800</v>
       </c>
       <c r="H35" s="3">
-        <v>110500</v>
+        <v>170500</v>
       </c>
       <c r="I35" s="3">
-        <v>134400</v>
+        <v>115700</v>
       </c>
       <c r="J35" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K35" s="3">
         <v>136600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-76000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-123500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>356500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>97500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>112200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>66800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>34200</v>
+        <v>495500</v>
       </c>
       <c r="E41" s="3">
-        <v>95900</v>
+        <v>35800</v>
       </c>
       <c r="F41" s="3">
-        <v>1050800</v>
+        <v>100500</v>
       </c>
       <c r="G41" s="3">
-        <v>1037000</v>
+        <v>1100500</v>
       </c>
       <c r="H41" s="3">
-        <v>936000</v>
+        <v>1086100</v>
       </c>
       <c r="I41" s="3">
-        <v>864000</v>
+        <v>980300</v>
       </c>
       <c r="J41" s="3">
+        <v>904900</v>
+      </c>
+      <c r="K41" s="3">
         <v>279000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>221300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>206900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>331200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>377300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>476300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>222000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,358 +2330,382 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>399000</v>
+        <v>392000</v>
       </c>
       <c r="E43" s="3">
-        <v>379300</v>
+        <v>417800</v>
       </c>
       <c r="F43" s="3">
-        <v>375700</v>
+        <v>397300</v>
       </c>
       <c r="G43" s="3">
-        <v>308800</v>
+        <v>393500</v>
       </c>
       <c r="H43" s="3">
-        <v>368400</v>
+        <v>323500</v>
       </c>
       <c r="I43" s="3">
-        <v>343700</v>
+        <v>385900</v>
       </c>
       <c r="J43" s="3">
+        <v>360000</v>
+      </c>
+      <c r="K43" s="3">
         <v>226700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>185200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>189000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>175600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>212800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>180800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>203600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>199000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>50900</v>
+        <v>62400</v>
       </c>
       <c r="E44" s="3">
-        <v>66100</v>
+        <v>53300</v>
       </c>
       <c r="F44" s="3">
-        <v>62500</v>
+        <v>69300</v>
       </c>
       <c r="G44" s="3">
-        <v>46500</v>
+        <v>65500</v>
       </c>
       <c r="H44" s="3">
-        <v>53800</v>
+        <v>48700</v>
       </c>
       <c r="I44" s="3">
-        <v>75600</v>
+        <v>56300</v>
       </c>
       <c r="J44" s="3">
+        <v>79200</v>
+      </c>
+      <c r="K44" s="3">
         <v>44300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>91800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>99000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>92300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>81100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>66200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>61500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>52200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106800</v>
+        <v>111100</v>
       </c>
       <c r="E45" s="3">
         <v>111900</v>
       </c>
       <c r="F45" s="3">
-        <v>121400</v>
+        <v>117200</v>
       </c>
       <c r="G45" s="3">
-        <v>127900</v>
+        <v>127100</v>
       </c>
       <c r="H45" s="3">
-        <v>127200</v>
+        <v>134000</v>
       </c>
       <c r="I45" s="3">
-        <v>135900</v>
+        <v>133200</v>
       </c>
       <c r="J45" s="3">
+        <v>142300</v>
+      </c>
+      <c r="K45" s="3">
         <v>198400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>192700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>123500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>160700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>164500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>119800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>117500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1061000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>618800</v>
+      </c>
+      <c r="F46" s="3">
+        <v>684200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>1686600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1592200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1555700</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1486400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>748500</v>
+      </c>
+      <c r="L46" s="3">
+        <v>691100</v>
+      </c>
+      <c r="M46" s="3">
+        <v>666100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>722600</v>
+      </c>
+      <c r="O46" s="3">
+        <v>832000</v>
+      </c>
+      <c r="P46" s="3">
+        <v>541800</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>861200</v>
+      </c>
+      <c r="R46" s="3">
         <v>590800</v>
       </c>
-      <c r="E46" s="3">
-        <v>653300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1610300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1520200</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1485400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1419200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>748500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>691100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>666100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>722600</v>
-      </c>
-      <c r="N46" s="3">
-        <v>832000</v>
-      </c>
-      <c r="O46" s="3">
-        <v>541800</v>
-      </c>
-      <c r="P46" s="3">
-        <v>861200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>590800</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>85700</v>
+        <v>75300</v>
       </c>
       <c r="E47" s="3">
-        <v>77800</v>
+        <v>89800</v>
       </c>
       <c r="F47" s="3">
-        <v>64700</v>
+        <v>81400</v>
       </c>
       <c r="G47" s="3">
-        <v>81400</v>
+        <v>67700</v>
       </c>
       <c r="H47" s="3">
-        <v>542800</v>
+        <v>85200</v>
       </c>
       <c r="I47" s="3">
-        <v>552300</v>
+        <v>568500</v>
       </c>
       <c r="J47" s="3">
+        <v>578400</v>
+      </c>
+      <c r="K47" s="3">
         <v>534800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>502100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>704800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>702500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>697300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>686200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>690600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>682200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4503300</v>
+        <v>4692900</v>
       </c>
       <c r="E48" s="3">
-        <v>4501800</v>
+        <v>4716500</v>
       </c>
       <c r="F48" s="3">
-        <v>3548400</v>
+        <v>4715000</v>
       </c>
       <c r="G48" s="3">
-        <v>3500500</v>
+        <v>3716400</v>
       </c>
       <c r="H48" s="3">
-        <v>3449600</v>
+        <v>3666200</v>
       </c>
       <c r="I48" s="3">
-        <v>3427800</v>
+        <v>3612900</v>
       </c>
       <c r="J48" s="3">
+        <v>3590100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3416900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3331100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3304300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3232800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3520900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3593000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3566900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5998800</v>
+        <v>6283600</v>
       </c>
       <c r="E49" s="3">
-        <v>5996600</v>
+        <v>6282800</v>
       </c>
       <c r="F49" s="3">
-        <v>6001700</v>
+        <v>6280500</v>
       </c>
       <c r="G49" s="3">
-        <v>5982100</v>
+        <v>6285800</v>
       </c>
       <c r="H49" s="3">
-        <v>5631100</v>
+        <v>6265300</v>
       </c>
       <c r="I49" s="3">
-        <v>5641300</v>
+        <v>5897700</v>
       </c>
       <c r="J49" s="3">
+        <v>5908300</v>
+      </c>
+      <c r="K49" s="3">
         <v>5640600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5819100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5747500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5740800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5741600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6504400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6745800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>6763500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>149700</v>
+        <v>134700</v>
       </c>
       <c r="E52" s="3">
-        <v>149700</v>
+        <v>156800</v>
       </c>
       <c r="F52" s="3">
-        <v>144600</v>
+        <v>156800</v>
       </c>
       <c r="G52" s="3">
-        <v>155500</v>
+        <v>151500</v>
       </c>
       <c r="H52" s="3">
-        <v>128600</v>
+        <v>162900</v>
       </c>
       <c r="I52" s="3">
-        <v>138800</v>
+        <v>134700</v>
       </c>
       <c r="J52" s="3">
+        <v>145400</v>
+      </c>
+      <c r="K52" s="3">
         <v>146100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>226600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>224000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>195000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>192800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>198700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>217400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>220500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11328400</v>
+        <v>12247500</v>
       </c>
       <c r="E54" s="3">
-        <v>11379200</v>
+        <v>11864600</v>
       </c>
       <c r="F54" s="3">
-        <v>11369800</v>
+        <v>11917900</v>
       </c>
       <c r="G54" s="3">
-        <v>11239700</v>
+        <v>11908000</v>
       </c>
       <c r="H54" s="3">
-        <v>11237500</v>
+        <v>11771800</v>
       </c>
       <c r="I54" s="3">
-        <v>11179400</v>
+        <v>11769500</v>
       </c>
       <c r="J54" s="3">
+        <v>11708600</v>
+      </c>
+      <c r="K54" s="3">
         <v>10486900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10639200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10673500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10665300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10696500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11451900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12108100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11823800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,99 +3010,103 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>628600</v>
+        <v>682700</v>
       </c>
       <c r="E57" s="3">
-        <v>664200</v>
+        <v>658300</v>
       </c>
       <c r="F57" s="3">
-        <v>737600</v>
+        <v>695600</v>
       </c>
       <c r="G57" s="3">
-        <v>660600</v>
+        <v>772500</v>
       </c>
       <c r="H57" s="3">
-        <v>676500</v>
+        <v>691800</v>
       </c>
       <c r="I57" s="3">
-        <v>622000</v>
+        <v>708600</v>
       </c>
       <c r="J57" s="3">
+        <v>651500</v>
+      </c>
+      <c r="K57" s="3">
         <v>704900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>623300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>636300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>668300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>679500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>651200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>706000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>670700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>268900</v>
+        <v>276300</v>
       </c>
       <c r="E58" s="3">
-        <v>170000</v>
+        <v>281600</v>
       </c>
       <c r="F58" s="3">
-        <v>938200</v>
+        <v>178100</v>
       </c>
       <c r="G58" s="3">
-        <v>938200</v>
+        <v>982600</v>
       </c>
       <c r="H58" s="3">
-        <v>938200</v>
+        <v>982600</v>
       </c>
       <c r="I58" s="3">
-        <v>938200</v>
+        <v>982600</v>
       </c>
       <c r="J58" s="3">
+        <v>982600</v>
+      </c>
+      <c r="K58" s="3">
         <v>29800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>700</v>
       </c>
       <c r="M58" s="3">
         <v>700</v>
       </c>
       <c r="N58" s="3">
+        <v>700</v>
+      </c>
+      <c r="O58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>316500</v>
       </c>
       <c r="Q58" s="3">
         <v>316500</v>
@@ -2980,208 +3114,223 @@
       <c r="R58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>263800</v>
+        <v>261100</v>
       </c>
       <c r="E59" s="3">
-        <v>340800</v>
+        <v>276300</v>
       </c>
       <c r="F59" s="3">
-        <v>384400</v>
+        <v>357000</v>
       </c>
       <c r="G59" s="3">
-        <v>400400</v>
+        <v>402600</v>
       </c>
       <c r="H59" s="3">
-        <v>411300</v>
+        <v>419400</v>
       </c>
       <c r="I59" s="3">
-        <v>446200</v>
+        <v>430800</v>
       </c>
       <c r="J59" s="3">
+        <v>467300</v>
+      </c>
+      <c r="K59" s="3">
         <v>599500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>441900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>422000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>280600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>355000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>349000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>334900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>371800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1161300</v>
+        <v>1220000</v>
       </c>
       <c r="E60" s="3">
-        <v>1175100</v>
+        <v>1216200</v>
       </c>
       <c r="F60" s="3">
-        <v>2060200</v>
+        <v>1230700</v>
       </c>
       <c r="G60" s="3">
-        <v>1999100</v>
+        <v>2157700</v>
       </c>
       <c r="H60" s="3">
-        <v>2026000</v>
+        <v>2093800</v>
       </c>
       <c r="I60" s="3">
-        <v>2006400</v>
+        <v>2121900</v>
       </c>
       <c r="J60" s="3">
+        <v>2101400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1173600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1066000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1059000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>949600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1035900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1009100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1357500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1359000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3808600</v>
+        <v>4348900</v>
       </c>
       <c r="E61" s="3">
-        <v>3815800</v>
+        <v>3988900</v>
       </c>
       <c r="F61" s="3">
-        <v>2948200</v>
+        <v>3996500</v>
       </c>
       <c r="G61" s="3">
-        <v>2947500</v>
+        <v>3087700</v>
       </c>
       <c r="H61" s="3">
-        <v>2946700</v>
+        <v>3087000</v>
       </c>
       <c r="I61" s="3">
-        <v>2946000</v>
+        <v>3086200</v>
       </c>
       <c r="J61" s="3">
+        <v>3085500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3132000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3244500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3207500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3199400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3198600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4134800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4252900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4030900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1843600</v>
+        <v>1922500</v>
       </c>
       <c r="E62" s="3">
-        <v>1819600</v>
+        <v>1930900</v>
       </c>
       <c r="F62" s="3">
-        <v>1794200</v>
+        <v>1905800</v>
       </c>
       <c r="G62" s="3">
-        <v>1762200</v>
+        <v>1879100</v>
       </c>
       <c r="H62" s="3">
-        <v>1810900</v>
+        <v>1845600</v>
       </c>
       <c r="I62" s="3">
-        <v>1816700</v>
+        <v>1896600</v>
       </c>
       <c r="J62" s="3">
+        <v>1902700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1842900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1940700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1934200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1913400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1882100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1964700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2037300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2028900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6813400</v>
+        <v>7491400</v>
       </c>
       <c r="E66" s="3">
-        <v>6810500</v>
+        <v>7136000</v>
       </c>
       <c r="F66" s="3">
-        <v>6804700</v>
+        <v>7132900</v>
       </c>
       <c r="G66" s="3">
-        <v>6711000</v>
+        <v>7126800</v>
       </c>
       <c r="H66" s="3">
-        <v>6784400</v>
+        <v>7028700</v>
       </c>
       <c r="I66" s="3">
-        <v>6769800</v>
+        <v>7105500</v>
       </c>
       <c r="J66" s="3">
+        <v>7090300</v>
+      </c>
+      <c r="K66" s="3">
         <v>6149300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6251900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6201500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6063100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6117400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7109400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7648500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7419600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,37 +3665,40 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="E70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K70" s="3">
         <v>212900</v>
       </c>
-      <c r="E70" s="3">
-        <v>212900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>212900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>212900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>212900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>212900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>212900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>220600</v>
-      </c>
-      <c r="L70" s="3">
-        <v>218100</v>
       </c>
       <c r="M70" s="3">
         <v>218100</v>
@@ -3542,7 +3710,7 @@
         <v>218100</v>
       </c>
       <c r="P70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="Q70" s="3">
         <v>225100</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1215800</v>
+        <v>1280200</v>
       </c>
       <c r="E72" s="3">
-        <v>1244800</v>
+        <v>1273300</v>
       </c>
       <c r="F72" s="3">
-        <v>1268100</v>
+        <v>1303700</v>
       </c>
       <c r="G72" s="3">
-        <v>1263700</v>
+        <v>1328100</v>
       </c>
       <c r="H72" s="3">
-        <v>1210700</v>
+        <v>1323500</v>
       </c>
       <c r="I72" s="3">
-        <v>1209200</v>
+        <v>1268000</v>
       </c>
       <c r="J72" s="3">
+        <v>1266500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1176500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1181900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1348500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1583700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1610500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>1420500</v>
       </c>
       <c r="Q72" s="3">
         <v>1420500</v>
       </c>
       <c r="R72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="S72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4302000</v>
+        <v>4533100</v>
       </c>
       <c r="E76" s="3">
-        <v>4355800</v>
+        <v>4505700</v>
       </c>
       <c r="F76" s="3">
-        <v>4352100</v>
+        <v>4562000</v>
       </c>
       <c r="G76" s="3">
-        <v>4315800</v>
+        <v>4558200</v>
       </c>
       <c r="H76" s="3">
-        <v>4240200</v>
+        <v>4520100</v>
       </c>
       <c r="I76" s="3">
-        <v>4196600</v>
+        <v>4441000</v>
       </c>
       <c r="J76" s="3">
+        <v>4395300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4124700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4166700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4253900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4384100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4361100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4124400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4234500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4179200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>103900</v>
+        <v>137800</v>
       </c>
       <c r="E81" s="3">
-        <v>116300</v>
+        <v>125600</v>
       </c>
       <c r="F81" s="3">
-        <v>116300</v>
+        <v>121800</v>
       </c>
       <c r="G81" s="3">
-        <v>162800</v>
+        <v>121800</v>
       </c>
       <c r="H81" s="3">
-        <v>110500</v>
+        <v>170500</v>
       </c>
       <c r="I81" s="3">
-        <v>134400</v>
+        <v>115700</v>
       </c>
       <c r="J81" s="3">
+        <v>140800</v>
+      </c>
+      <c r="K81" s="3">
         <v>136600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-76000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-123500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>356500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>97500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>112200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>66800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>218700</v>
+        <v>229800</v>
       </c>
       <c r="E83" s="3">
-        <v>220900</v>
+        <v>229100</v>
       </c>
       <c r="F83" s="3">
-        <v>182400</v>
+        <v>231400</v>
       </c>
       <c r="G83" s="3">
-        <v>191100</v>
+        <v>191000</v>
       </c>
       <c r="H83" s="3">
-        <v>191800</v>
+        <v>200200</v>
       </c>
       <c r="I83" s="3">
-        <v>191100</v>
+        <v>200900</v>
       </c>
       <c r="J83" s="3">
+        <v>200200</v>
+      </c>
+      <c r="K83" s="3">
         <v>188900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>189700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>183800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>194200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>113100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>202400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>204300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>196700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>262300</v>
+        <v>447500</v>
       </c>
       <c r="E89" s="3">
-        <v>246300</v>
+        <v>274800</v>
       </c>
       <c r="F89" s="3">
-        <v>316100</v>
+        <v>258000</v>
       </c>
       <c r="G89" s="3">
-        <v>303800</v>
+        <v>331100</v>
       </c>
       <c r="H89" s="3">
-        <v>276100</v>
+        <v>318100</v>
       </c>
       <c r="I89" s="3">
-        <v>243400</v>
+        <v>289200</v>
       </c>
       <c r="J89" s="3">
+        <v>255000</v>
+      </c>
+      <c r="K89" s="3">
         <v>318300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>259700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>150300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>272400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>265700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>325200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>341900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>202000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5100</v>
+        <v>-3800</v>
       </c>
       <c r="E91" s="3">
-        <v>-8000</v>
+        <v>-5300</v>
       </c>
       <c r="F91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-6500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-471700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-434000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-213600</v>
+        <v>-198600</v>
       </c>
       <c r="E94" s="3">
-        <v>-225300</v>
+        <v>-223800</v>
       </c>
       <c r="F94" s="3">
-        <v>-231800</v>
+        <v>-235900</v>
       </c>
       <c r="G94" s="3">
-        <v>-146800</v>
+        <v>-242800</v>
       </c>
       <c r="H94" s="3">
-        <v>-169300</v>
+        <v>-153700</v>
       </c>
       <c r="I94" s="3">
-        <v>-275400</v>
+        <v>-177300</v>
       </c>
       <c r="J94" s="3">
+        <v>-288500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-230400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-163400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-215800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-260500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>810400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-294700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-263500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-231200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-111200</v>
+        <v>-115700</v>
       </c>
       <c r="E96" s="3">
-        <v>-84300</v>
+        <v>-116400</v>
       </c>
       <c r="F96" s="3">
-        <v>-70500</v>
+        <v>-88300</v>
       </c>
       <c r="G96" s="3">
-        <v>-70500</v>
+        <v>-73800</v>
       </c>
       <c r="H96" s="3">
-        <v>-70500</v>
+        <v>-73800</v>
       </c>
       <c r="I96" s="3">
+        <v>-73800</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-71200</v>
       </c>
-      <c r="J96" s="3">
-        <v>-71200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-72300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-71400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-73700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-70700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73800</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-110500</v>
+        <v>210800</v>
       </c>
       <c r="E100" s="3">
-        <v>-975900</v>
+        <v>-115700</v>
       </c>
       <c r="F100" s="3">
-        <v>-70500</v>
+        <v>-1022100</v>
       </c>
       <c r="G100" s="3">
-        <v>-66100</v>
+        <v>-73800</v>
       </c>
       <c r="H100" s="3">
-        <v>-56700</v>
+        <v>-69300</v>
       </c>
       <c r="I100" s="3">
-        <v>648900</v>
+        <v>-59400</v>
       </c>
       <c r="J100" s="3">
+        <v>679700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-34900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-71500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-59500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-57300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-828300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-362400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>176700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4901,11 +5150,11 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-61800</v>
+        <v>459700</v>
       </c>
       <c r="E102" s="3">
-        <v>-954900</v>
+        <v>-64700</v>
       </c>
       <c r="F102" s="3">
-        <v>13800</v>
+        <v>-1000100</v>
       </c>
       <c r="G102" s="3">
-        <v>101000</v>
+        <v>14500</v>
       </c>
       <c r="H102" s="3">
-        <v>71900</v>
+        <v>105800</v>
       </c>
       <c r="I102" s="3">
-        <v>585000</v>
+        <v>75300</v>
       </c>
       <c r="J102" s="3">
+        <v>612700</v>
+      </c>
+      <c r="K102" s="3">
         <v>65400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>12000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-124300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-46100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>247100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-331200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>254300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-89100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -748,25 +748,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>998600</v>
+        <v>1010000</v>
       </c>
       <c r="E8" s="3">
-        <v>1037400</v>
+        <v>1049300</v>
       </c>
       <c r="F8" s="3">
-        <v>1052600</v>
+        <v>1064700</v>
       </c>
       <c r="G8" s="3">
-        <v>1023700</v>
+        <v>1035400</v>
       </c>
       <c r="H8" s="3">
-        <v>1007700</v>
+        <v>1019200</v>
       </c>
       <c r="I8" s="3">
-        <v>1000800</v>
+        <v>1012300</v>
       </c>
       <c r="J8" s="3">
-        <v>1031300</v>
+        <v>1043100</v>
       </c>
       <c r="K8" s="3">
         <v>963600</v>
@@ -801,25 +801,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>535000</v>
+        <v>541200</v>
       </c>
       <c r="E9" s="3">
-        <v>580700</v>
+        <v>587400</v>
       </c>
       <c r="F9" s="3">
-        <v>605100</v>
+        <v>612000</v>
       </c>
       <c r="G9" s="3">
-        <v>620300</v>
+        <v>627400</v>
       </c>
       <c r="H9" s="3">
-        <v>604300</v>
+        <v>611200</v>
       </c>
       <c r="I9" s="3">
-        <v>1035800</v>
+        <v>1047700</v>
       </c>
       <c r="J9" s="3">
-        <v>616500</v>
+        <v>623600</v>
       </c>
       <c r="K9" s="3">
         <v>559600</v>
@@ -854,25 +854,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>463500</v>
+        <v>468800</v>
       </c>
       <c r="E10" s="3">
-        <v>456700</v>
+        <v>461900</v>
       </c>
       <c r="F10" s="3">
-        <v>447500</v>
+        <v>452700</v>
       </c>
       <c r="G10" s="3">
-        <v>403400</v>
+        <v>408000</v>
       </c>
       <c r="H10" s="3">
-        <v>403400</v>
+        <v>408000</v>
       </c>
       <c r="I10" s="3">
-        <v>-35000</v>
+        <v>-35400</v>
       </c>
       <c r="J10" s="3">
-        <v>414800</v>
+        <v>419600</v>
       </c>
       <c r="K10" s="3">
         <v>404000</v>
@@ -1034,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1087,25 +1087,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>220700</v>
+        <v>223200</v>
       </c>
       <c r="E15" s="3">
-        <v>219200</v>
+        <v>221700</v>
       </c>
       <c r="F15" s="3">
-        <v>220000</v>
+        <v>222500</v>
       </c>
       <c r="G15" s="3">
-        <v>179600</v>
+        <v>181700</v>
       </c>
       <c r="H15" s="3">
-        <v>188000</v>
+        <v>190100</v>
       </c>
       <c r="I15" s="3">
-        <v>188800</v>
+        <v>190900</v>
       </c>
       <c r="J15" s="3">
-        <v>185700</v>
+        <v>187800</v>
       </c>
       <c r="K15" s="3">
         <v>174400</v>
@@ -1158,25 +1158,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>775600</v>
+        <v>784400</v>
       </c>
       <c r="E17" s="3">
-        <v>809000</v>
+        <v>818300</v>
       </c>
       <c r="F17" s="3">
-        <v>835700</v>
+        <v>845300</v>
       </c>
       <c r="G17" s="3">
-        <v>802900</v>
+        <v>812200</v>
       </c>
       <c r="H17" s="3">
-        <v>804500</v>
+        <v>813700</v>
       </c>
       <c r="I17" s="3">
-        <v>784700</v>
+        <v>793700</v>
       </c>
       <c r="J17" s="3">
-        <v>816600</v>
+        <v>826000</v>
       </c>
       <c r="K17" s="3">
         <v>759400</v>
@@ -1211,25 +1211,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="E18" s="3">
-        <v>228300</v>
+        <v>230900</v>
       </c>
       <c r="F18" s="3">
-        <v>216900</v>
+        <v>219400</v>
       </c>
       <c r="G18" s="3">
-        <v>220700</v>
+        <v>223200</v>
       </c>
       <c r="H18" s="3">
-        <v>203200</v>
+        <v>205500</v>
       </c>
       <c r="I18" s="3">
-        <v>216100</v>
+        <v>218600</v>
       </c>
       <c r="J18" s="3">
-        <v>214600</v>
+        <v>217100</v>
       </c>
       <c r="K18" s="3">
         <v>204200</v>
@@ -1285,10 +1285,10 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E20" s="3">
-        <v>-14500</v>
+        <v>-14600</v>
       </c>
       <c r="F20" s="3">
         <v>-2300</v>
@@ -1297,13 +1297,13 @@
         <v>1500</v>
       </c>
       <c r="H20" s="3">
-        <v>-27400</v>
+        <v>-27700</v>
       </c>
       <c r="I20" s="3">
         <v>-800</v>
       </c>
       <c r="J20" s="3">
-        <v>17500</v>
+        <v>17700</v>
       </c>
       <c r="K20" s="3">
         <v>28300</v>
@@ -1338,25 +1338,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>458200</v>
+        <v>463400</v>
       </c>
       <c r="E21" s="3">
-        <v>443000</v>
+        <v>448000</v>
       </c>
       <c r="F21" s="3">
-        <v>446000</v>
+        <v>451100</v>
       </c>
       <c r="G21" s="3">
-        <v>413300</v>
+        <v>418000</v>
       </c>
       <c r="H21" s="3">
-        <v>376000</v>
+        <v>380300</v>
       </c>
       <c r="I21" s="3">
-        <v>416300</v>
+        <v>421100</v>
       </c>
       <c r="J21" s="3">
-        <v>432300</v>
+        <v>437300</v>
       </c>
       <c r="K21" s="3">
         <v>421500</v>
@@ -1391,25 +1391,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51000</v>
+        <v>51600</v>
       </c>
       <c r="E22" s="3">
-        <v>52500</v>
+        <v>53100</v>
       </c>
       <c r="F22" s="3">
-        <v>54800</v>
+        <v>55400</v>
       </c>
       <c r="G22" s="3">
-        <v>51000</v>
+        <v>51600</v>
       </c>
       <c r="H22" s="3">
-        <v>47900</v>
+        <v>48500</v>
       </c>
       <c r="I22" s="3">
-        <v>51800</v>
+        <v>52300</v>
       </c>
       <c r="J22" s="3">
-        <v>47900</v>
+        <v>48500</v>
       </c>
       <c r="K22" s="3">
         <v>47200</v>
@@ -1444,25 +1444,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>177300</v>
+        <v>179400</v>
       </c>
       <c r="E23" s="3">
-        <v>161400</v>
+        <v>163200</v>
       </c>
       <c r="F23" s="3">
-        <v>159800</v>
+        <v>161700</v>
       </c>
       <c r="G23" s="3">
-        <v>171200</v>
+        <v>173200</v>
       </c>
       <c r="H23" s="3">
-        <v>127900</v>
+        <v>129300</v>
       </c>
       <c r="I23" s="3">
-        <v>163600</v>
+        <v>165500</v>
       </c>
       <c r="J23" s="3">
-        <v>184200</v>
+        <v>186300</v>
       </c>
       <c r="K23" s="3">
         <v>185300</v>
@@ -1497,25 +1497,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37300</v>
+        <v>37700</v>
       </c>
       <c r="E24" s="3">
-        <v>34200</v>
+        <v>34600</v>
       </c>
       <c r="F24" s="3">
-        <v>36500</v>
+        <v>37000</v>
       </c>
       <c r="G24" s="3">
-        <v>47900</v>
+        <v>48500</v>
       </c>
       <c r="H24" s="3">
-        <v>-46400</v>
+        <v>-47000</v>
       </c>
       <c r="I24" s="3">
-        <v>46400</v>
+        <v>47000</v>
       </c>
       <c r="J24" s="3">
-        <v>41900</v>
+        <v>42300</v>
       </c>
       <c r="K24" s="3">
         <v>42900</v>
@@ -1603,25 +1603,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>140000</v>
+        <v>141600</v>
       </c>
       <c r="E26" s="3">
-        <v>127100</v>
+        <v>128600</v>
       </c>
       <c r="F26" s="3">
-        <v>123300</v>
+        <v>124700</v>
       </c>
       <c r="G26" s="3">
-        <v>123300</v>
+        <v>124700</v>
       </c>
       <c r="H26" s="3">
-        <v>174300</v>
+        <v>176300</v>
       </c>
       <c r="I26" s="3">
-        <v>117200</v>
+        <v>118600</v>
       </c>
       <c r="J26" s="3">
-        <v>142300</v>
+        <v>144000</v>
       </c>
       <c r="K26" s="3">
         <v>142400</v>
@@ -1656,25 +1656,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>137800</v>
+        <v>139300</v>
       </c>
       <c r="E27" s="3">
-        <v>125600</v>
+        <v>127000</v>
       </c>
       <c r="F27" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="G27" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="H27" s="3">
-        <v>172000</v>
+        <v>174000</v>
       </c>
       <c r="I27" s="3">
-        <v>115700</v>
+        <v>117000</v>
       </c>
       <c r="J27" s="3">
-        <v>140800</v>
+        <v>142400</v>
       </c>
       <c r="K27" s="3">
         <v>141000</v>
@@ -1921,10 +1921,10 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="E32" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="F32" s="3">
         <v>2300</v>
@@ -1933,13 +1933,13 @@
         <v>-1500</v>
       </c>
       <c r="H32" s="3">
-        <v>27400</v>
+        <v>27700</v>
       </c>
       <c r="I32" s="3">
         <v>800</v>
       </c>
       <c r="J32" s="3">
-        <v>-17500</v>
+        <v>-17700</v>
       </c>
       <c r="K32" s="3">
         <v>-28300</v>
@@ -1974,25 +1974,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>137800</v>
+        <v>139300</v>
       </c>
       <c r="E33" s="3">
-        <v>125600</v>
+        <v>127000</v>
       </c>
       <c r="F33" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="G33" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="H33" s="3">
-        <v>170500</v>
+        <v>172400</v>
       </c>
       <c r="I33" s="3">
-        <v>115700</v>
+        <v>117000</v>
       </c>
       <c r="J33" s="3">
-        <v>140800</v>
+        <v>142400</v>
       </c>
       <c r="K33" s="3">
         <v>136600</v>
@@ -2080,25 +2080,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>137800</v>
+        <v>139300</v>
       </c>
       <c r="E35" s="3">
-        <v>125600</v>
+        <v>127000</v>
       </c>
       <c r="F35" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="G35" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="H35" s="3">
-        <v>170500</v>
+        <v>172400</v>
       </c>
       <c r="I35" s="3">
-        <v>115700</v>
+        <v>117000</v>
       </c>
       <c r="J35" s="3">
-        <v>140800</v>
+        <v>142400</v>
       </c>
       <c r="K35" s="3">
         <v>136600</v>
@@ -2233,25 +2233,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>495500</v>
+        <v>501200</v>
       </c>
       <c r="E41" s="3">
-        <v>35800</v>
+        <v>36200</v>
       </c>
       <c r="F41" s="3">
-        <v>100500</v>
+        <v>101600</v>
       </c>
       <c r="G41" s="3">
-        <v>1100500</v>
+        <v>1113200</v>
       </c>
       <c r="H41" s="3">
-        <v>1086100</v>
+        <v>1098500</v>
       </c>
       <c r="I41" s="3">
-        <v>980300</v>
+        <v>991500</v>
       </c>
       <c r="J41" s="3">
-        <v>904900</v>
+        <v>915300</v>
       </c>
       <c r="K41" s="3">
         <v>279000</v>
@@ -2339,25 +2339,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>392000</v>
+        <v>396500</v>
       </c>
       <c r="E43" s="3">
-        <v>417800</v>
+        <v>422600</v>
       </c>
       <c r="F43" s="3">
-        <v>397300</v>
+        <v>401800</v>
       </c>
       <c r="G43" s="3">
-        <v>393500</v>
+        <v>398000</v>
       </c>
       <c r="H43" s="3">
-        <v>323500</v>
+        <v>327200</v>
       </c>
       <c r="I43" s="3">
-        <v>385900</v>
+        <v>390300</v>
       </c>
       <c r="J43" s="3">
-        <v>360000</v>
+        <v>364100</v>
       </c>
       <c r="K43" s="3">
         <v>226700</v>
@@ -2392,25 +2392,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>62400</v>
+        <v>63100</v>
       </c>
       <c r="E44" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="F44" s="3">
-        <v>69300</v>
+        <v>70100</v>
       </c>
       <c r="G44" s="3">
-        <v>65500</v>
+        <v>66200</v>
       </c>
       <c r="H44" s="3">
-        <v>48700</v>
+        <v>49300</v>
       </c>
       <c r="I44" s="3">
-        <v>56300</v>
+        <v>57000</v>
       </c>
       <c r="J44" s="3">
-        <v>79200</v>
+        <v>80100</v>
       </c>
       <c r="K44" s="3">
         <v>44300</v>
@@ -2445,25 +2445,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>111100</v>
+        <v>112400</v>
       </c>
       <c r="E45" s="3">
-        <v>111900</v>
+        <v>113200</v>
       </c>
       <c r="F45" s="3">
-        <v>117200</v>
+        <v>118600</v>
       </c>
       <c r="G45" s="3">
-        <v>127100</v>
+        <v>128600</v>
       </c>
       <c r="H45" s="3">
-        <v>134000</v>
+        <v>135500</v>
       </c>
       <c r="I45" s="3">
-        <v>133200</v>
+        <v>134700</v>
       </c>
       <c r="J45" s="3">
-        <v>142300</v>
+        <v>144000</v>
       </c>
       <c r="K45" s="3">
         <v>198400</v>
@@ -2498,25 +2498,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1061000</v>
+        <v>1073100</v>
       </c>
       <c r="E46" s="3">
-        <v>618800</v>
+        <v>625900</v>
       </c>
       <c r="F46" s="3">
-        <v>684200</v>
+        <v>692100</v>
       </c>
       <c r="G46" s="3">
-        <v>1686600</v>
+        <v>1705900</v>
       </c>
       <c r="H46" s="3">
-        <v>1592200</v>
+        <v>1610500</v>
       </c>
       <c r="I46" s="3">
-        <v>1555700</v>
+        <v>1573500</v>
       </c>
       <c r="J46" s="3">
-        <v>1486400</v>
+        <v>1503500</v>
       </c>
       <c r="K46" s="3">
         <v>748500</v>
@@ -2551,25 +2551,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>75300</v>
+        <v>76200</v>
       </c>
       <c r="E47" s="3">
-        <v>89800</v>
+        <v>90800</v>
       </c>
       <c r="F47" s="3">
-        <v>81400</v>
+        <v>82400</v>
       </c>
       <c r="G47" s="3">
-        <v>67700</v>
+        <v>68500</v>
       </c>
       <c r="H47" s="3">
-        <v>85200</v>
+        <v>86200</v>
       </c>
       <c r="I47" s="3">
-        <v>568500</v>
+        <v>575100</v>
       </c>
       <c r="J47" s="3">
-        <v>578400</v>
+        <v>585100</v>
       </c>
       <c r="K47" s="3">
         <v>534800</v>
@@ -2604,25 +2604,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4692900</v>
+        <v>4746700</v>
       </c>
       <c r="E48" s="3">
-        <v>4716500</v>
+        <v>4770600</v>
       </c>
       <c r="F48" s="3">
-        <v>4715000</v>
+        <v>4769000</v>
       </c>
       <c r="G48" s="3">
-        <v>3716400</v>
+        <v>3759000</v>
       </c>
       <c r="H48" s="3">
-        <v>3666200</v>
+        <v>3708200</v>
       </c>
       <c r="I48" s="3">
-        <v>3612900</v>
+        <v>3654300</v>
       </c>
       <c r="J48" s="3">
-        <v>3590100</v>
+        <v>3631200</v>
       </c>
       <c r="K48" s="3">
         <v>3416900</v>
@@ -2657,25 +2657,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6283600</v>
+        <v>6355600</v>
       </c>
       <c r="E49" s="3">
-        <v>6282800</v>
+        <v>6354900</v>
       </c>
       <c r="F49" s="3">
-        <v>6280500</v>
+        <v>6352600</v>
       </c>
       <c r="G49" s="3">
-        <v>6285800</v>
+        <v>6357900</v>
       </c>
       <c r="H49" s="3">
-        <v>6265300</v>
+        <v>6337200</v>
       </c>
       <c r="I49" s="3">
-        <v>5897700</v>
+        <v>5965300</v>
       </c>
       <c r="J49" s="3">
-        <v>5908300</v>
+        <v>5976100</v>
       </c>
       <c r="K49" s="3">
         <v>5640600</v>
@@ -2816,25 +2816,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>134700</v>
+        <v>136300</v>
       </c>
       <c r="E52" s="3">
-        <v>156800</v>
+        <v>158600</v>
       </c>
       <c r="F52" s="3">
-        <v>156800</v>
+        <v>158600</v>
       </c>
       <c r="G52" s="3">
-        <v>151500</v>
+        <v>153200</v>
       </c>
       <c r="H52" s="3">
-        <v>162900</v>
+        <v>164700</v>
       </c>
       <c r="I52" s="3">
-        <v>134700</v>
+        <v>136300</v>
       </c>
       <c r="J52" s="3">
-        <v>145400</v>
+        <v>147000</v>
       </c>
       <c r="K52" s="3">
         <v>146100</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12247500</v>
+        <v>12387900</v>
       </c>
       <c r="E54" s="3">
-        <v>11864600</v>
+        <v>12000700</v>
       </c>
       <c r="F54" s="3">
-        <v>11917900</v>
+        <v>12054600</v>
       </c>
       <c r="G54" s="3">
-        <v>11908000</v>
+        <v>12044600</v>
       </c>
       <c r="H54" s="3">
-        <v>11771800</v>
+        <v>11906800</v>
       </c>
       <c r="I54" s="3">
-        <v>11769500</v>
+        <v>11904500</v>
       </c>
       <c r="J54" s="3">
-        <v>11708600</v>
+        <v>11842900</v>
       </c>
       <c r="K54" s="3">
         <v>10486900</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>682700</v>
+        <v>690500</v>
       </c>
       <c r="E57" s="3">
-        <v>658300</v>
+        <v>665900</v>
       </c>
       <c r="F57" s="3">
-        <v>695600</v>
+        <v>703600</v>
       </c>
       <c r="G57" s="3">
-        <v>772500</v>
+        <v>781400</v>
       </c>
       <c r="H57" s="3">
-        <v>691800</v>
+        <v>699800</v>
       </c>
       <c r="I57" s="3">
-        <v>708600</v>
+        <v>716700</v>
       </c>
       <c r="J57" s="3">
-        <v>651500</v>
+        <v>659000</v>
       </c>
       <c r="K57" s="3">
         <v>704900</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>276300</v>
+        <v>279400</v>
       </c>
       <c r="E58" s="3">
-        <v>281600</v>
+        <v>284800</v>
       </c>
       <c r="F58" s="3">
-        <v>178100</v>
+        <v>180100</v>
       </c>
       <c r="G58" s="3">
-        <v>982600</v>
+        <v>993800</v>
       </c>
       <c r="H58" s="3">
-        <v>982600</v>
+        <v>993800</v>
       </c>
       <c r="I58" s="3">
-        <v>982600</v>
+        <v>993800</v>
       </c>
       <c r="J58" s="3">
-        <v>982600</v>
+        <v>993800</v>
       </c>
       <c r="K58" s="3">
         <v>29800</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>261100</v>
+        <v>264000</v>
       </c>
       <c r="E59" s="3">
-        <v>276300</v>
+        <v>279400</v>
       </c>
       <c r="F59" s="3">
-        <v>357000</v>
+        <v>361000</v>
       </c>
       <c r="G59" s="3">
-        <v>402600</v>
+        <v>407200</v>
       </c>
       <c r="H59" s="3">
-        <v>419400</v>
+        <v>424200</v>
       </c>
       <c r="I59" s="3">
-        <v>430800</v>
+        <v>435700</v>
       </c>
       <c r="J59" s="3">
-        <v>467300</v>
+        <v>472700</v>
       </c>
       <c r="K59" s="3">
         <v>599500</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1220000</v>
+        <v>1234000</v>
       </c>
       <c r="E60" s="3">
-        <v>1216200</v>
+        <v>1230200</v>
       </c>
       <c r="F60" s="3">
-        <v>1230700</v>
+        <v>1244800</v>
       </c>
       <c r="G60" s="3">
-        <v>2157700</v>
+        <v>2182400</v>
       </c>
       <c r="H60" s="3">
-        <v>2093800</v>
+        <v>2117800</v>
       </c>
       <c r="I60" s="3">
-        <v>2121900</v>
+        <v>2146300</v>
       </c>
       <c r="J60" s="3">
-        <v>2101400</v>
+        <v>2125500</v>
       </c>
       <c r="K60" s="3">
         <v>1173600</v>
@@ -3229,25 +3229,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4348900</v>
+        <v>4398800</v>
       </c>
       <c r="E61" s="3">
-        <v>3988900</v>
+        <v>4034600</v>
       </c>
       <c r="F61" s="3">
-        <v>3996500</v>
+        <v>4042300</v>
       </c>
       <c r="G61" s="3">
-        <v>3087700</v>
+        <v>3123200</v>
       </c>
       <c r="H61" s="3">
-        <v>3087000</v>
+        <v>3122400</v>
       </c>
       <c r="I61" s="3">
-        <v>3086200</v>
+        <v>3121600</v>
       </c>
       <c r="J61" s="3">
-        <v>3085500</v>
+        <v>3120900</v>
       </c>
       <c r="K61" s="3">
         <v>3132000</v>
@@ -3282,25 +3282,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1922500</v>
+        <v>1944600</v>
       </c>
       <c r="E62" s="3">
-        <v>1930900</v>
+        <v>1953000</v>
       </c>
       <c r="F62" s="3">
-        <v>1905800</v>
+        <v>1927600</v>
       </c>
       <c r="G62" s="3">
-        <v>1879100</v>
+        <v>1900700</v>
       </c>
       <c r="H62" s="3">
-        <v>1845600</v>
+        <v>1866800</v>
       </c>
       <c r="I62" s="3">
-        <v>1896600</v>
+        <v>1918400</v>
       </c>
       <c r="J62" s="3">
-        <v>1902700</v>
+        <v>1924600</v>
       </c>
       <c r="K62" s="3">
         <v>1842900</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7491400</v>
+        <v>7577300</v>
       </c>
       <c r="E66" s="3">
-        <v>7136000</v>
+        <v>7217800</v>
       </c>
       <c r="F66" s="3">
-        <v>7132900</v>
+        <v>7214800</v>
       </c>
       <c r="G66" s="3">
-        <v>7126800</v>
+        <v>7208600</v>
       </c>
       <c r="H66" s="3">
-        <v>7028700</v>
+        <v>7109300</v>
       </c>
       <c r="I66" s="3">
-        <v>7105500</v>
+        <v>7187000</v>
       </c>
       <c r="J66" s="3">
-        <v>7090300</v>
+        <v>7171600</v>
       </c>
       <c r="K66" s="3">
         <v>6149300</v>
@@ -3674,25 +3674,25 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="E70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="F70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="G70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="H70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="I70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="J70" s="3">
-        <v>223000</v>
+        <v>225600</v>
       </c>
       <c r="K70" s="3">
         <v>212900</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1280200</v>
+        <v>1294800</v>
       </c>
       <c r="E72" s="3">
-        <v>1273300</v>
+        <v>1287900</v>
       </c>
       <c r="F72" s="3">
-        <v>1303700</v>
+        <v>1318700</v>
       </c>
       <c r="G72" s="3">
-        <v>1328100</v>
+        <v>1343300</v>
       </c>
       <c r="H72" s="3">
-        <v>1323500</v>
+        <v>1338700</v>
       </c>
       <c r="I72" s="3">
-        <v>1268000</v>
+        <v>1282500</v>
       </c>
       <c r="J72" s="3">
-        <v>1266500</v>
+        <v>1281000</v>
       </c>
       <c r="K72" s="3">
         <v>1176500</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4533100</v>
+        <v>4585000</v>
       </c>
       <c r="E76" s="3">
-        <v>4505700</v>
+        <v>4557300</v>
       </c>
       <c r="F76" s="3">
-        <v>4562000</v>
+        <v>4614300</v>
       </c>
       <c r="G76" s="3">
-        <v>4558200</v>
+        <v>4610500</v>
       </c>
       <c r="H76" s="3">
-        <v>4520100</v>
+        <v>4572000</v>
       </c>
       <c r="I76" s="3">
-        <v>4441000</v>
+        <v>4491900</v>
       </c>
       <c r="J76" s="3">
-        <v>4395300</v>
+        <v>4445700</v>
       </c>
       <c r="K76" s="3">
         <v>4124700</v>
@@ -4156,25 +4156,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>137800</v>
+        <v>139300</v>
       </c>
       <c r="E81" s="3">
-        <v>125600</v>
+        <v>127000</v>
       </c>
       <c r="F81" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="G81" s="3">
-        <v>121800</v>
+        <v>123200</v>
       </c>
       <c r="H81" s="3">
-        <v>170500</v>
+        <v>172400</v>
       </c>
       <c r="I81" s="3">
-        <v>115700</v>
+        <v>117000</v>
       </c>
       <c r="J81" s="3">
-        <v>140800</v>
+        <v>142400</v>
       </c>
       <c r="K81" s="3">
         <v>136600</v>
@@ -4230,25 +4230,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>229800</v>
+        <v>232500</v>
       </c>
       <c r="E83" s="3">
-        <v>229100</v>
+        <v>231700</v>
       </c>
       <c r="F83" s="3">
-        <v>231400</v>
+        <v>234000</v>
       </c>
       <c r="G83" s="3">
-        <v>191000</v>
+        <v>193200</v>
       </c>
       <c r="H83" s="3">
-        <v>200200</v>
+        <v>202500</v>
       </c>
       <c r="I83" s="3">
-        <v>200900</v>
+        <v>203200</v>
       </c>
       <c r="J83" s="3">
-        <v>200200</v>
+        <v>202500</v>
       </c>
       <c r="K83" s="3">
         <v>188900</v>
@@ -4548,25 +4548,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>447500</v>
+        <v>452700</v>
       </c>
       <c r="E89" s="3">
-        <v>274800</v>
+        <v>277900</v>
       </c>
       <c r="F89" s="3">
-        <v>258000</v>
+        <v>261000</v>
       </c>
       <c r="G89" s="3">
-        <v>331100</v>
+        <v>334900</v>
       </c>
       <c r="H89" s="3">
-        <v>318100</v>
+        <v>321800</v>
       </c>
       <c r="I89" s="3">
-        <v>289200</v>
+        <v>292500</v>
       </c>
       <c r="J89" s="3">
-        <v>255000</v>
+        <v>257900</v>
       </c>
       <c r="K89" s="3">
         <v>318300</v>
@@ -4625,22 +4625,22 @@
         <v>-3800</v>
       </c>
       <c r="E91" s="3">
-        <v>-5300</v>
+        <v>-5400</v>
       </c>
       <c r="F91" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="G91" s="3">
-        <v>-9100</v>
+        <v>-9200</v>
       </c>
       <c r="H91" s="3">
-        <v>-8400</v>
+        <v>-8500</v>
       </c>
       <c r="I91" s="3">
-        <v>-7600</v>
+        <v>-7700</v>
       </c>
       <c r="J91" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="K91" s="3">
         <v>-8700</v>
@@ -4781,25 +4781,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-198600</v>
+        <v>-200900</v>
       </c>
       <c r="E94" s="3">
-        <v>-223800</v>
+        <v>-226300</v>
       </c>
       <c r="F94" s="3">
-        <v>-235900</v>
+        <v>-238600</v>
       </c>
       <c r="G94" s="3">
-        <v>-242800</v>
+        <v>-245600</v>
       </c>
       <c r="H94" s="3">
-        <v>-153700</v>
+        <v>-155500</v>
       </c>
       <c r="I94" s="3">
-        <v>-177300</v>
+        <v>-179400</v>
       </c>
       <c r="J94" s="3">
-        <v>-288500</v>
+        <v>-291800</v>
       </c>
       <c r="K94" s="3">
         <v>-230400</v>
@@ -4855,25 +4855,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115700</v>
+        <v>-117000</v>
       </c>
       <c r="E96" s="3">
-        <v>-116400</v>
+        <v>-117800</v>
       </c>
       <c r="F96" s="3">
-        <v>-88300</v>
+        <v>-89300</v>
       </c>
       <c r="G96" s="3">
-        <v>-73800</v>
+        <v>-74700</v>
       </c>
       <c r="H96" s="3">
-        <v>-73800</v>
+        <v>-74700</v>
       </c>
       <c r="I96" s="3">
-        <v>-73800</v>
+        <v>-74700</v>
       </c>
       <c r="J96" s="3">
-        <v>-74600</v>
+        <v>-75400</v>
       </c>
       <c r="K96" s="3">
         <v>-71200</v>
@@ -5067,25 +5067,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>210800</v>
+        <v>213200</v>
       </c>
       <c r="E100" s="3">
-        <v>-115700</v>
+        <v>-117000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1022100</v>
+        <v>-1033900</v>
       </c>
       <c r="G100" s="3">
-        <v>-73800</v>
+        <v>-74700</v>
       </c>
       <c r="H100" s="3">
-        <v>-69300</v>
+        <v>-70100</v>
       </c>
       <c r="I100" s="3">
-        <v>-59400</v>
+        <v>-60000</v>
       </c>
       <c r="J100" s="3">
-        <v>679700</v>
+        <v>687400</v>
       </c>
       <c r="K100" s="3">
         <v>-34900</v>
@@ -5173,25 +5173,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>459700</v>
+        <v>465000</v>
       </c>
       <c r="E102" s="3">
-        <v>-64700</v>
+        <v>-65400</v>
       </c>
       <c r="F102" s="3">
-        <v>-1000100</v>
+        <v>-1011500</v>
       </c>
       <c r="G102" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="H102" s="3">
-        <v>105800</v>
+        <v>107000</v>
       </c>
       <c r="I102" s="3">
-        <v>75300</v>
+        <v>76200</v>
       </c>
       <c r="J102" s="3">
-        <v>612700</v>
+        <v>619700</v>
       </c>
       <c r="K102" s="3">
         <v>65400</v>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1010000</v>
+        <v>1086400</v>
       </c>
       <c r="E8" s="3">
-        <v>1049300</v>
+        <v>1069800</v>
       </c>
       <c r="F8" s="3">
-        <v>1064700</v>
+        <v>1040400</v>
       </c>
       <c r="G8" s="3">
-        <v>1035400</v>
+        <v>1080900</v>
       </c>
       <c r="H8" s="3">
-        <v>1019200</v>
+        <v>1096700</v>
       </c>
       <c r="I8" s="3">
+        <v>1066600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1012300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1043100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>963600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>970300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1008400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>926500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>925800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>905000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>926500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>934200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>541200</v>
+        <v>605100</v>
       </c>
       <c r="E9" s="3">
-        <v>587400</v>
+        <v>598700</v>
       </c>
       <c r="F9" s="3">
-        <v>612000</v>
+        <v>557500</v>
       </c>
       <c r="G9" s="3">
-        <v>627400</v>
+        <v>605100</v>
       </c>
       <c r="H9" s="3">
-        <v>611200</v>
+        <v>630500</v>
       </c>
       <c r="I9" s="3">
+        <v>646300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>629700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1047700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>623600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>559600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>565300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>635600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>569300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1014400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1091000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1127000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1141600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>468800</v>
+        <v>481400</v>
       </c>
       <c r="E10" s="3">
-        <v>461900</v>
+        <v>471100</v>
       </c>
       <c r="F10" s="3">
-        <v>452700</v>
+        <v>482900</v>
       </c>
       <c r="G10" s="3">
-        <v>408000</v>
+        <v>475800</v>
       </c>
       <c r="H10" s="3">
-        <v>408000</v>
+        <v>466300</v>
       </c>
       <c r="I10" s="3">
+        <v>420300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>420300</v>
+      </c>
+      <c r="K10" s="3">
         <v>-35400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>419600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>404000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>405000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>372800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>357200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-88600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-186100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-200500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>-207400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1061,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>10800</v>
+        <v>9500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="G14" s="3">
-        <v>-7700</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-7900</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>11600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>9800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>310300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>32000</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>9200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>223200</v>
+        <v>233900</v>
       </c>
       <c r="E15" s="3">
-        <v>221700</v>
+        <v>238700</v>
       </c>
       <c r="F15" s="3">
-        <v>222500</v>
+        <v>230000</v>
       </c>
       <c r="G15" s="3">
-        <v>181700</v>
+        <v>228400</v>
       </c>
       <c r="H15" s="3">
-        <v>190100</v>
+        <v>229200</v>
       </c>
       <c r="I15" s="3">
+        <v>187200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>195900</v>
+      </c>
+      <c r="K15" s="3">
         <v>190900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>187800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>174400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>174600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>171900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>177900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>168200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>162200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>163600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>156000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>784400</v>
+        <v>856500</v>
       </c>
       <c r="E17" s="3">
-        <v>818300</v>
+        <v>846200</v>
       </c>
       <c r="F17" s="3">
-        <v>845300</v>
+        <v>808100</v>
       </c>
       <c r="G17" s="3">
-        <v>812200</v>
+        <v>843000</v>
       </c>
       <c r="H17" s="3">
-        <v>813700</v>
+        <v>870700</v>
       </c>
       <c r="I17" s="3">
+        <v>836600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>838200</v>
+      </c>
+      <c r="K17" s="3">
         <v>793700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>826000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>759400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>764800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1132700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>762800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>753100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>734500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>719100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>728300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>225600</v>
+        <v>230000</v>
       </c>
       <c r="E18" s="3">
-        <v>230900</v>
+        <v>223600</v>
       </c>
       <c r="F18" s="3">
-        <v>219400</v>
+        <v>232400</v>
       </c>
       <c r="G18" s="3">
-        <v>223200</v>
+        <v>237900</v>
       </c>
       <c r="H18" s="3">
+        <v>226000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>230000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>211700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>218600</v>
+      </c>
+      <c r="L18" s="3">
+        <v>217100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>204200</v>
+      </c>
+      <c r="N18" s="3">
         <v>205500</v>
       </c>
-      <c r="I18" s="3">
-        <v>218600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>217100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>204200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>205500</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-124300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>163700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>172700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>170400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>207400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>205900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1344,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-14600</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3">
-        <v>-2300</v>
+        <v>5600</v>
       </c>
       <c r="G20" s="3">
-        <v>1500</v>
+        <v>-15100</v>
       </c>
       <c r="H20" s="3">
-        <v>-27700</v>
+        <v>-2400</v>
       </c>
       <c r="I20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>17700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>28300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-194200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>10400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>25300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>27500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>33500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-61500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>463400</v>
+        <v>471100</v>
       </c>
       <c r="E21" s="3">
-        <v>448000</v>
+        <v>471100</v>
       </c>
       <c r="F21" s="3">
-        <v>451100</v>
+        <v>477400</v>
       </c>
       <c r="G21" s="3">
-        <v>418000</v>
+        <v>461500</v>
       </c>
       <c r="H21" s="3">
-        <v>380300</v>
+        <v>464700</v>
       </c>
       <c r="I21" s="3">
+        <v>430600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>391800</v>
+      </c>
+      <c r="K21" s="3">
         <v>421100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>437300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>421500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>201000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>70000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>383300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>384800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>382500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>391000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>316500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51600</v>
+        <v>53100</v>
       </c>
       <c r="E22" s="3">
+        <v>54700</v>
+      </c>
+      <c r="F22" s="3">
         <v>53100</v>
       </c>
-      <c r="F22" s="3">
-        <v>55400</v>
-      </c>
       <c r="G22" s="3">
-        <v>51600</v>
+        <v>54700</v>
       </c>
       <c r="H22" s="3">
+        <v>57100</v>
+      </c>
+      <c r="I22" s="3">
+        <v>53100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K22" s="3">
+        <v>52300</v>
+      </c>
+      <c r="L22" s="3">
         <v>48500</v>
       </c>
-      <c r="I22" s="3">
-        <v>52300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>48500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>47200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>45200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>47600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>46100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>49100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>49900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>53000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>51500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>179400</v>
+        <v>175300</v>
       </c>
       <c r="E23" s="3">
-        <v>163200</v>
+        <v>168100</v>
       </c>
       <c r="F23" s="3">
-        <v>161700</v>
+        <v>184800</v>
       </c>
       <c r="G23" s="3">
-        <v>173200</v>
+        <v>168100</v>
       </c>
       <c r="H23" s="3">
-        <v>129300</v>
+        <v>166500</v>
       </c>
       <c r="I23" s="3">
+        <v>178400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>133200</v>
+      </c>
+      <c r="K23" s="3">
         <v>165500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>186300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>185300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-33900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-161500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>142900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>151100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>154100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>158300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>93000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>37700</v>
+        <v>46000</v>
       </c>
       <c r="E24" s="3">
-        <v>34600</v>
+        <v>29300</v>
       </c>
       <c r="F24" s="3">
-        <v>37000</v>
+        <v>38900</v>
       </c>
       <c r="G24" s="3">
-        <v>48500</v>
+        <v>35700</v>
       </c>
       <c r="H24" s="3">
-        <v>-47000</v>
+        <v>38100</v>
       </c>
       <c r="I24" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-48400</v>
+      </c>
+      <c r="K24" s="3">
         <v>47000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>42300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>42900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>40700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-39400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>55800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>40200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>32000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>43000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>21500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>141600</v>
+        <v>129300</v>
       </c>
       <c r="E26" s="3">
-        <v>128600</v>
+        <v>138800</v>
       </c>
       <c r="F26" s="3">
-        <v>124700</v>
+        <v>145900</v>
       </c>
       <c r="G26" s="3">
-        <v>124700</v>
+        <v>132400</v>
       </c>
       <c r="H26" s="3">
-        <v>176300</v>
+        <v>128500</v>
       </c>
       <c r="I26" s="3">
+        <v>128500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>181600</v>
+      </c>
+      <c r="K26" s="3">
         <v>118600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>144000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>142400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-74500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-122100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>87100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>110900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>122100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>115200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>71400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>139300</v>
+        <v>127700</v>
       </c>
       <c r="E27" s="3">
-        <v>127000</v>
+        <v>137200</v>
       </c>
       <c r="F27" s="3">
-        <v>123200</v>
+        <v>143500</v>
       </c>
       <c r="G27" s="3">
-        <v>123200</v>
+        <v>130800</v>
       </c>
       <c r="H27" s="3">
-        <v>174000</v>
+        <v>126900</v>
       </c>
       <c r="I27" s="3">
+        <v>126900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K27" s="3">
         <v>117000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>142400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>141000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-76000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-123500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>85600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>109400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>120600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>114500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>69900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1774,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1783,34 +1904,40 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-4400</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-4500</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>247100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-23100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>-2300</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-3100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
-        <v>14600</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3">
-        <v>2300</v>
+        <v>-5600</v>
       </c>
       <c r="G32" s="3">
-        <v>-1500</v>
+        <v>15100</v>
       </c>
       <c r="H32" s="3">
-        <v>27700</v>
+        <v>2400</v>
       </c>
       <c r="I32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-17700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-28300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>194200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-10400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-25300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-27500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>61500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>139300</v>
+        <v>127700</v>
       </c>
       <c r="E33" s="3">
-        <v>127000</v>
+        <v>137200</v>
       </c>
       <c r="F33" s="3">
-        <v>123200</v>
+        <v>143500</v>
       </c>
       <c r="G33" s="3">
-        <v>123200</v>
+        <v>130800</v>
       </c>
       <c r="H33" s="3">
-        <v>172400</v>
+        <v>126900</v>
       </c>
       <c r="I33" s="3">
+        <v>126900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K33" s="3">
         <v>117000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>142400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>136600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-76000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-123500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>81100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>356500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>97500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>112200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>66800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>139300</v>
+        <v>127700</v>
       </c>
       <c r="E35" s="3">
-        <v>127000</v>
+        <v>137200</v>
       </c>
       <c r="F35" s="3">
-        <v>123200</v>
+        <v>143500</v>
       </c>
       <c r="G35" s="3">
-        <v>123200</v>
+        <v>130800</v>
       </c>
       <c r="H35" s="3">
-        <v>172400</v>
+        <v>126900</v>
       </c>
       <c r="I35" s="3">
+        <v>126900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K35" s="3">
         <v>117000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>142400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>136600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-76000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-123500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>81100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>356500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>97500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>112200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>66800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>501200</v>
+        <v>452800</v>
       </c>
       <c r="E41" s="3">
-        <v>36200</v>
+        <v>605100</v>
       </c>
       <c r="F41" s="3">
-        <v>101600</v>
+        <v>516300</v>
       </c>
       <c r="G41" s="3">
-        <v>1113200</v>
+        <v>37300</v>
       </c>
       <c r="H41" s="3">
-        <v>1098500</v>
+        <v>104700</v>
       </c>
       <c r="I41" s="3">
+        <v>1146700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1131600</v>
+      </c>
+      <c r="K41" s="3">
         <v>991500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>915300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>279000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>221300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>206900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>331200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>377300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>130200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>476300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>222000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2512,427 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>396500</v>
+        <v>429000</v>
       </c>
       <c r="E43" s="3">
-        <v>422600</v>
+        <v>417900</v>
       </c>
       <c r="F43" s="3">
-        <v>401800</v>
+        <v>408400</v>
       </c>
       <c r="G43" s="3">
-        <v>398000</v>
+        <v>435400</v>
       </c>
       <c r="H43" s="3">
-        <v>327200</v>
+        <v>414000</v>
       </c>
       <c r="I43" s="3">
+        <v>410000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>337000</v>
+      </c>
+      <c r="K43" s="3">
         <v>390300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>364100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>226700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>185200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>189000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>175600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>212800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>180800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>203600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>199000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>63100</v>
+        <v>51500</v>
       </c>
       <c r="E44" s="3">
-        <v>53900</v>
+        <v>47600</v>
       </c>
       <c r="F44" s="3">
-        <v>70100</v>
+        <v>65000</v>
       </c>
       <c r="G44" s="3">
+        <v>55500</v>
+      </c>
+      <c r="H44" s="3">
+        <v>72200</v>
+      </c>
+      <c r="I44" s="3">
+        <v>68200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>50800</v>
+      </c>
+      <c r="K44" s="3">
+        <v>57000</v>
+      </c>
+      <c r="L44" s="3">
+        <v>80100</v>
+      </c>
+      <c r="M44" s="3">
+        <v>44300</v>
+      </c>
+      <c r="N44" s="3">
+        <v>91800</v>
+      </c>
+      <c r="O44" s="3">
+        <v>99000</v>
+      </c>
+      <c r="P44" s="3">
+        <v>92300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>81100</v>
+      </c>
+      <c r="R44" s="3">
         <v>66200</v>
       </c>
-      <c r="H44" s="3">
-        <v>49300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>57000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>80100</v>
-      </c>
-      <c r="K44" s="3">
-        <v>44300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>91800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>99000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>92300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>81100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>66200</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>61500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>52200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>112400</v>
+        <v>132400</v>
       </c>
       <c r="E45" s="3">
-        <v>113200</v>
+        <v>119000</v>
       </c>
       <c r="F45" s="3">
-        <v>118600</v>
+        <v>115800</v>
       </c>
       <c r="G45" s="3">
-        <v>128600</v>
+        <v>116600</v>
       </c>
       <c r="H45" s="3">
-        <v>135500</v>
+        <v>122100</v>
       </c>
       <c r="I45" s="3">
+        <v>132400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K45" s="3">
         <v>134700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>144000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>198400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>192700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>171200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>123500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>160700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>164500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>119800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>117500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1073100</v>
+        <v>1065800</v>
       </c>
       <c r="E46" s="3">
-        <v>625900</v>
+        <v>1189500</v>
       </c>
       <c r="F46" s="3">
-        <v>692100</v>
+        <v>1105500</v>
       </c>
       <c r="G46" s="3">
-        <v>1705900</v>
+        <v>644700</v>
       </c>
       <c r="H46" s="3">
-        <v>1610500</v>
+        <v>712900</v>
       </c>
       <c r="I46" s="3">
+        <v>1757300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1659000</v>
+      </c>
+      <c r="K46" s="3">
         <v>1573500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1503500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>748500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>691100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>666100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>722600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>832000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>541800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>861200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>590800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76200</v>
+        <v>64200</v>
       </c>
       <c r="E47" s="3">
-        <v>90800</v>
+        <v>65000</v>
       </c>
       <c r="F47" s="3">
-        <v>82400</v>
+        <v>78500</v>
       </c>
       <c r="G47" s="3">
-        <v>68500</v>
+        <v>93600</v>
       </c>
       <c r="H47" s="3">
-        <v>86200</v>
+        <v>84900</v>
       </c>
       <c r="I47" s="3">
+        <v>70600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>88800</v>
+      </c>
+      <c r="K47" s="3">
         <v>575100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>585100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>534800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>502100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>704800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>702500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>697300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>686200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>690600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>682200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4746700</v>
+        <v>4862000</v>
       </c>
       <c r="E48" s="3">
-        <v>4770600</v>
+        <v>4870700</v>
       </c>
       <c r="F48" s="3">
-        <v>4769000</v>
+        <v>4889800</v>
       </c>
       <c r="G48" s="3">
-        <v>3759000</v>
+        <v>4914300</v>
       </c>
       <c r="H48" s="3">
-        <v>3708200</v>
+        <v>4912800</v>
       </c>
       <c r="I48" s="3">
+        <v>3872300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3820000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3654300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3631200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3416900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3400400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3331100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3304300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3232800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3520900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3593000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3566900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6355600</v>
+        <v>6572500</v>
       </c>
       <c r="E49" s="3">
-        <v>6354900</v>
+        <v>6563800</v>
       </c>
       <c r="F49" s="3">
-        <v>6352600</v>
+        <v>6547200</v>
       </c>
       <c r="G49" s="3">
-        <v>6357900</v>
+        <v>6546400</v>
       </c>
       <c r="H49" s="3">
-        <v>6337200</v>
+        <v>6544000</v>
       </c>
       <c r="I49" s="3">
+        <v>6549600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6528100</v>
+      </c>
+      <c r="K49" s="3">
         <v>5965300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>5976100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>5640600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5819100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5747500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5740800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>5741600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6504400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>6745800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>6763500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>130100</v>
+      </c>
+      <c r="F52" s="3">
+        <v>140400</v>
+      </c>
+      <c r="G52" s="3">
+        <v>163400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>163400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>157800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>169700</v>
+      </c>
+      <c r="K52" s="3">
         <v>136300</v>
       </c>
-      <c r="E52" s="3">
-        <v>158600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>158600</v>
-      </c>
-      <c r="G52" s="3">
-        <v>153200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>164700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>136300</v>
-      </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>147000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>146100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>226600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>224000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>195000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>192800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>198700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>217400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>220500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12387900</v>
+        <v>12696300</v>
       </c>
       <c r="E54" s="3">
-        <v>12000700</v>
+        <v>12819200</v>
       </c>
       <c r="F54" s="3">
-        <v>12054600</v>
+        <v>12761300</v>
       </c>
       <c r="G54" s="3">
-        <v>12044600</v>
+        <v>12362400</v>
       </c>
       <c r="H54" s="3">
-        <v>11906800</v>
+        <v>12417900</v>
       </c>
       <c r="I54" s="3">
+        <v>12407600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>12265600</v>
+      </c>
+      <c r="K54" s="3">
         <v>11904500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11842900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>10486900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10639200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>10673500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>10665300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>10696500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11451900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12108100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11823800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>690500</v>
+        <v>707400</v>
       </c>
       <c r="E57" s="3">
-        <v>665900</v>
+        <v>792200</v>
       </c>
       <c r="F57" s="3">
-        <v>703600</v>
+        <v>711300</v>
       </c>
       <c r="G57" s="3">
-        <v>781400</v>
+        <v>686000</v>
       </c>
       <c r="H57" s="3">
-        <v>699800</v>
+        <v>724800</v>
       </c>
       <c r="I57" s="3">
+        <v>804900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>720900</v>
+      </c>
+      <c r="K57" s="3">
         <v>716700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>659000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>704900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>623300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>636300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>668300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>679500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>651200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>706000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>670700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>279400</v>
+        <v>245800</v>
       </c>
       <c r="E58" s="3">
-        <v>284800</v>
+        <v>249000</v>
       </c>
       <c r="F58" s="3">
-        <v>180100</v>
+        <v>287900</v>
       </c>
       <c r="G58" s="3">
+        <v>293400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>185600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1023800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1023800</v>
+      </c>
+      <c r="K58" s="3">
         <v>993800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="L58" s="3">
         <v>993800</v>
       </c>
-      <c r="I58" s="3">
-        <v>993800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>993800</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>29800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>8900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>316500</v>
-      </c>
-      <c r="R58" s="3">
-        <v>316500</v>
       </c>
       <c r="S58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>316500</v>
+      </c>
+      <c r="U58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>264000</v>
+        <v>260900</v>
       </c>
       <c r="E59" s="3">
-        <v>279400</v>
+        <v>297400</v>
       </c>
       <c r="F59" s="3">
-        <v>361000</v>
+        <v>272000</v>
       </c>
       <c r="G59" s="3">
-        <v>407200</v>
+        <v>287900</v>
       </c>
       <c r="H59" s="3">
-        <v>424200</v>
+        <v>371900</v>
       </c>
       <c r="I59" s="3">
+        <v>419500</v>
+      </c>
+      <c r="J59" s="3">
+        <v>437000</v>
+      </c>
+      <c r="K59" s="3">
         <v>435700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>472700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>599500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>441900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>422000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>280600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>355000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>349000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>334900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>371800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1234000</v>
+        <v>1214100</v>
       </c>
       <c r="E60" s="3">
-        <v>1230200</v>
+        <v>1338600</v>
       </c>
       <c r="F60" s="3">
-        <v>1244800</v>
+        <v>1271200</v>
       </c>
       <c r="G60" s="3">
-        <v>2182400</v>
+        <v>1267200</v>
       </c>
       <c r="H60" s="3">
-        <v>2117800</v>
+        <v>1282300</v>
       </c>
       <c r="I60" s="3">
+        <v>2248200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2181600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2146300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2125500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1173600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1066000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1059000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>949600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1035900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1009100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1357500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1359000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4398800</v>
+        <v>4559900</v>
       </c>
       <c r="E61" s="3">
-        <v>4034600</v>
+        <v>4523400</v>
       </c>
       <c r="F61" s="3">
-        <v>4042300</v>
+        <v>4531300</v>
       </c>
       <c r="G61" s="3">
-        <v>3123200</v>
+        <v>4156200</v>
       </c>
       <c r="H61" s="3">
-        <v>3122400</v>
+        <v>4164100</v>
       </c>
       <c r="I61" s="3">
+        <v>3217300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3216500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3121600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3120900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3132000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3244500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3207500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3199400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3198600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4134800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4252900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>4030900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1944600</v>
+        <v>2033300</v>
       </c>
       <c r="E62" s="3">
-        <v>1953000</v>
+        <v>2014300</v>
       </c>
       <c r="F62" s="3">
-        <v>1927600</v>
+        <v>2003200</v>
       </c>
       <c r="G62" s="3">
-        <v>1900700</v>
+        <v>2011900</v>
       </c>
       <c r="H62" s="3">
-        <v>1866800</v>
+        <v>1985700</v>
       </c>
       <c r="I62" s="3">
+        <v>1958000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1923100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1918400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1924600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1842900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1940700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1934200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1913400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1882100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1964700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>2037300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>2028900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7577300</v>
+        <v>7807300</v>
       </c>
       <c r="E66" s="3">
-        <v>7217800</v>
+        <v>7876300</v>
       </c>
       <c r="F66" s="3">
-        <v>7214800</v>
+        <v>7805700</v>
       </c>
       <c r="G66" s="3">
-        <v>7208600</v>
+        <v>7435400</v>
       </c>
       <c r="H66" s="3">
-        <v>7109300</v>
+        <v>7432200</v>
       </c>
       <c r="I66" s="3">
+        <v>7425800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7323500</v>
+      </c>
+      <c r="K66" s="3">
         <v>7187000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7171600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6149300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6251900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6201500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6063100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6117400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7109400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7648500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7419600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,43 +3997,49 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="H70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>232400</v>
+      </c>
+      <c r="K70" s="3">
         <v>225600</v>
       </c>
-      <c r="E70" s="3">
+      <c r="L70" s="3">
         <v>225600</v>
       </c>
-      <c r="F70" s="3">
-        <v>225600</v>
-      </c>
-      <c r="G70" s="3">
-        <v>225600</v>
-      </c>
-      <c r="H70" s="3">
-        <v>225600</v>
-      </c>
-      <c r="I70" s="3">
-        <v>225600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>225600</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>212900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>220600</v>
-      </c>
-      <c r="M70" s="3">
-        <v>218100</v>
-      </c>
-      <c r="N70" s="3">
-        <v>218100</v>
       </c>
       <c r="O70" s="3">
         <v>218100</v>
@@ -3713,16 +4048,22 @@
         <v>218100</v>
       </c>
       <c r="Q70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="R70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="S70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>225100</v>
+      </c>
+      <c r="U70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1294800</v>
+        <v>1323600</v>
       </c>
       <c r="E72" s="3">
-        <v>1287900</v>
+        <v>1350500</v>
       </c>
       <c r="F72" s="3">
-        <v>1318700</v>
+        <v>1333900</v>
       </c>
       <c r="G72" s="3">
-        <v>1343300</v>
+        <v>1326700</v>
       </c>
       <c r="H72" s="3">
-        <v>1338700</v>
+        <v>1358400</v>
       </c>
       <c r="I72" s="3">
+        <v>1383800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1379100</v>
+      </c>
+      <c r="K72" s="3">
         <v>1282500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1281000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1176500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1181900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1348500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1583700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1610500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1364100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1420500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1420500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4585000</v>
+        <v>4656600</v>
       </c>
       <c r="E76" s="3">
-        <v>4557300</v>
+        <v>4710500</v>
       </c>
       <c r="F76" s="3">
-        <v>4614300</v>
+        <v>4723200</v>
       </c>
       <c r="G76" s="3">
-        <v>4610500</v>
+        <v>4694700</v>
       </c>
       <c r="H76" s="3">
-        <v>4572000</v>
+        <v>4753400</v>
       </c>
       <c r="I76" s="3">
+        <v>4749400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4709700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4491900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4445700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4124700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4166700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4253900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4384100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4361100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4124400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4234500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4179200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>139300</v>
+        <v>127700</v>
       </c>
       <c r="E81" s="3">
-        <v>127000</v>
+        <v>137200</v>
       </c>
       <c r="F81" s="3">
-        <v>123200</v>
+        <v>143500</v>
       </c>
       <c r="G81" s="3">
-        <v>123200</v>
+        <v>130800</v>
       </c>
       <c r="H81" s="3">
-        <v>172400</v>
+        <v>126900</v>
       </c>
       <c r="I81" s="3">
+        <v>126900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K81" s="3">
         <v>117000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>142400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>136600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-76000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-123500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>81100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>356500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>97500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>112200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>66800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>232500</v>
+        <v>242700</v>
       </c>
       <c r="E83" s="3">
-        <v>231700</v>
+        <v>248200</v>
       </c>
       <c r="F83" s="3">
-        <v>234000</v>
+        <v>239500</v>
       </c>
       <c r="G83" s="3">
-        <v>193200</v>
+        <v>238700</v>
       </c>
       <c r="H83" s="3">
+        <v>241100</v>
+      </c>
+      <c r="I83" s="3">
+        <v>199000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>208600</v>
+      </c>
+      <c r="K83" s="3">
+        <v>203200</v>
+      </c>
+      <c r="L83" s="3">
         <v>202500</v>
       </c>
-      <c r="I83" s="3">
-        <v>203200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>202500</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>188900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>189700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>183800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>194200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>113100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>202400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>204300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>196700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>452700</v>
+        <v>237900</v>
       </c>
       <c r="E89" s="3">
-        <v>277900</v>
+        <v>501200</v>
       </c>
       <c r="F89" s="3">
-        <v>261000</v>
+        <v>466300</v>
       </c>
       <c r="G89" s="3">
-        <v>334900</v>
+        <v>286300</v>
       </c>
       <c r="H89" s="3">
-        <v>321800</v>
+        <v>268800</v>
       </c>
       <c r="I89" s="3">
+        <v>345000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>331500</v>
+      </c>
+      <c r="K89" s="3">
         <v>292500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>257900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>318300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>259700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>150300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>272400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>265700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>325200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>341900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>202000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3800</v>
+        <v>-5600</v>
       </c>
       <c r="E91" s="3">
-        <v>-5400</v>
+        <v>-6300</v>
       </c>
       <c r="F91" s="3">
-        <v>-8500</v>
+        <v>-4000</v>
       </c>
       <c r="G91" s="3">
-        <v>-9200</v>
+        <v>-5600</v>
       </c>
       <c r="H91" s="3">
-        <v>-8500</v>
+        <v>-8700</v>
       </c>
       <c r="I91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-7700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-6900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-11900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-471700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-434000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200900</v>
+        <v>-184000</v>
       </c>
       <c r="E94" s="3">
-        <v>-226300</v>
+        <v>-229200</v>
       </c>
       <c r="F94" s="3">
-        <v>-238600</v>
+        <v>-207000</v>
       </c>
       <c r="G94" s="3">
-        <v>-245600</v>
+        <v>-233100</v>
       </c>
       <c r="H94" s="3">
-        <v>-155500</v>
+        <v>-245800</v>
       </c>
       <c r="I94" s="3">
+        <v>-253000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-160200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-179400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-291800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-230400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-163400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-215800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-260500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>810400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-294700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-263500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-231200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5314,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-117000</v>
+        <v>-120500</v>
       </c>
       <c r="E96" s="3">
-        <v>-117800</v>
+        <v>-120500</v>
       </c>
       <c r="F96" s="3">
-        <v>-89300</v>
+        <v>-120500</v>
       </c>
       <c r="G96" s="3">
+        <v>-121300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-74700</v>
       </c>
-      <c r="H96" s="3">
-        <v>-74700</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-74700</v>
-      </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-75400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-71200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-72300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-70000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-71400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-73700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-70700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-73000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-73800</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5546,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>213200</v>
+        <v>-206200</v>
       </c>
       <c r="E100" s="3">
-        <v>-117000</v>
+        <v>-183200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1033900</v>
+        <v>219700</v>
       </c>
       <c r="G100" s="3">
-        <v>-74700</v>
+        <v>-120500</v>
       </c>
       <c r="H100" s="3">
-        <v>-70100</v>
+        <v>-1065000</v>
       </c>
       <c r="I100" s="3">
+        <v>-76900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-72200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-60000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>687400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-34900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-71500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-59500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-57300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-828300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-362400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>176700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-59900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5153,71 +5650,83 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>465000</v>
+        <v>-152300</v>
       </c>
       <c r="E102" s="3">
-        <v>-65400</v>
+        <v>88800</v>
       </c>
       <c r="F102" s="3">
-        <v>-1011500</v>
+        <v>479000</v>
       </c>
       <c r="G102" s="3">
-        <v>14600</v>
+        <v>-67400</v>
       </c>
       <c r="H102" s="3">
-        <v>107000</v>
+        <v>-1042000</v>
       </c>
       <c r="I102" s="3">
+        <v>15100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K102" s="3">
         <v>76200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>619700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>65400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>12000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-124300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-46100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>247100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-331200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>254300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-89100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1086400</v>
+        <v>1149900</v>
       </c>
       <c r="E8" s="3">
-        <v>1069800</v>
+        <v>1135800</v>
       </c>
       <c r="F8" s="3">
-        <v>1040400</v>
+        <v>1118400</v>
       </c>
       <c r="G8" s="3">
-        <v>1080900</v>
+        <v>1087700</v>
       </c>
       <c r="H8" s="3">
-        <v>1096700</v>
+        <v>1130000</v>
       </c>
       <c r="I8" s="3">
-        <v>1066600</v>
+        <v>1146600</v>
       </c>
       <c r="J8" s="3">
+        <v>1115100</v>
+      </c>
+      <c r="K8" s="3">
         <v>1050000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1012300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1043100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>963600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>970300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1008400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>926500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>925800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>905000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>926500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>934200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>605100</v>
+        <v>621800</v>
       </c>
       <c r="E9" s="3">
-        <v>598700</v>
+        <v>632600</v>
       </c>
       <c r="F9" s="3">
-        <v>557500</v>
+        <v>625900</v>
       </c>
       <c r="G9" s="3">
-        <v>605100</v>
+        <v>582800</v>
       </c>
       <c r="H9" s="3">
-        <v>630500</v>
+        <v>632600</v>
       </c>
       <c r="I9" s="3">
-        <v>646300</v>
+        <v>659100</v>
       </c>
       <c r="J9" s="3">
+        <v>675700</v>
+      </c>
+      <c r="K9" s="3">
         <v>629700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1047700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>623600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>559600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>565300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>635600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>569300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1014400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1091000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1127000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1141600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>481400</v>
+        <v>528100</v>
       </c>
       <c r="E10" s="3">
-        <v>471100</v>
+        <v>503200</v>
       </c>
       <c r="F10" s="3">
-        <v>482900</v>
+        <v>492500</v>
       </c>
       <c r="G10" s="3">
-        <v>475800</v>
+        <v>504900</v>
       </c>
       <c r="H10" s="3">
-        <v>466300</v>
+        <v>497400</v>
       </c>
       <c r="I10" s="3">
+        <v>487500</v>
+      </c>
+      <c r="J10" s="3">
+        <v>439400</v>
+      </c>
+      <c r="K10" s="3">
         <v>420300</v>
       </c>
-      <c r="J10" s="3">
-        <v>420300</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-35400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>419600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>404000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>405000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>372800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>357200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-88600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-186100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-200500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-207400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9500</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>9900</v>
       </c>
       <c r="F14" s="3">
-        <v>11100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>11600</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>-7900</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-8300</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>11600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>9800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>310300</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>32000</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>9200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>233900</v>
+        <v>243700</v>
       </c>
       <c r="E15" s="3">
-        <v>238700</v>
+        <v>244600</v>
       </c>
       <c r="F15" s="3">
-        <v>230000</v>
+        <v>249500</v>
       </c>
       <c r="G15" s="3">
-        <v>228400</v>
+        <v>240400</v>
       </c>
       <c r="H15" s="3">
-        <v>229200</v>
+        <v>238800</v>
       </c>
       <c r="I15" s="3">
-        <v>187200</v>
+        <v>239600</v>
       </c>
       <c r="J15" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K15" s="3">
         <v>195900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>190900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>187800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>174400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>174600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>171900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>177900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>168200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>162200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>163600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>156000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>856500</v>
+        <v>873800</v>
       </c>
       <c r="E17" s="3">
-        <v>846200</v>
+        <v>895400</v>
       </c>
       <c r="F17" s="3">
-        <v>808100</v>
+        <v>884600</v>
       </c>
       <c r="G17" s="3">
-        <v>843000</v>
+        <v>844800</v>
       </c>
       <c r="H17" s="3">
-        <v>870700</v>
+        <v>881300</v>
       </c>
       <c r="I17" s="3">
-        <v>836600</v>
+        <v>910300</v>
       </c>
       <c r="J17" s="3">
+        <v>874600</v>
+      </c>
+      <c r="K17" s="3">
         <v>838200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>793700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>826000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>759400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>764800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1132700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>762800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>753100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>734500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>719100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>728300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>230000</v>
+        <v>276100</v>
       </c>
       <c r="E18" s="3">
-        <v>223600</v>
+        <v>240400</v>
       </c>
       <c r="F18" s="3">
-        <v>232400</v>
+        <v>233800</v>
       </c>
       <c r="G18" s="3">
-        <v>237900</v>
+        <v>242900</v>
       </c>
       <c r="H18" s="3">
-        <v>226000</v>
+        <v>248700</v>
       </c>
       <c r="I18" s="3">
-        <v>230000</v>
+        <v>236300</v>
       </c>
       <c r="J18" s="3">
+        <v>240400</v>
+      </c>
+      <c r="K18" s="3">
         <v>211700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>217100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>204200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>205500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-124300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>163700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>172700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>170400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>207400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>205900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1600</v>
+        <v>21600</v>
       </c>
       <c r="E20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
-        <v>5600</v>
-      </c>
       <c r="G20" s="3">
-        <v>-15100</v>
+        <v>5800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2400</v>
+        <v>-15800</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>-2500</v>
       </c>
       <c r="J20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>28300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-194200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>27500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>33500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-61500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>471100</v>
+        <v>548800</v>
       </c>
       <c r="E21" s="3">
-        <v>471100</v>
+        <v>492500</v>
       </c>
       <c r="F21" s="3">
-        <v>477400</v>
+        <v>492500</v>
       </c>
       <c r="G21" s="3">
-        <v>461500</v>
+        <v>499100</v>
       </c>
       <c r="H21" s="3">
-        <v>464700</v>
+        <v>482500</v>
       </c>
       <c r="I21" s="3">
-        <v>430600</v>
+        <v>485800</v>
       </c>
       <c r="J21" s="3">
+        <v>450200</v>
+      </c>
+      <c r="K21" s="3">
         <v>391800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>421100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>437300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>421500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>201000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>70000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>383300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>384800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>382500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>391000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>316500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53100</v>
+        <v>55500</v>
       </c>
       <c r="E22" s="3">
-        <v>54700</v>
+        <v>55500</v>
       </c>
       <c r="F22" s="3">
-        <v>53100</v>
+        <v>57200</v>
       </c>
       <c r="G22" s="3">
-        <v>54700</v>
+        <v>55500</v>
       </c>
       <c r="H22" s="3">
-        <v>57100</v>
+        <v>57200</v>
       </c>
       <c r="I22" s="3">
-        <v>53100</v>
+        <v>59700</v>
       </c>
       <c r="J22" s="3">
+        <v>55500</v>
+      </c>
+      <c r="K22" s="3">
         <v>50000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>48500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>45200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>49100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>53000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>51500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>175300</v>
+        <v>242100</v>
       </c>
       <c r="E23" s="3">
-        <v>168100</v>
+        <v>183200</v>
       </c>
       <c r="F23" s="3">
-        <v>184800</v>
+        <v>175800</v>
       </c>
       <c r="G23" s="3">
-        <v>168100</v>
+        <v>193200</v>
       </c>
       <c r="H23" s="3">
-        <v>166500</v>
+        <v>175800</v>
       </c>
       <c r="I23" s="3">
-        <v>178400</v>
+        <v>174100</v>
       </c>
       <c r="J23" s="3">
+        <v>186500</v>
+      </c>
+      <c r="K23" s="3">
         <v>133200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>165500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>186300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-33900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-161500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>142900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>151100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>154100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>158300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>93000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46000</v>
+        <v>62200</v>
       </c>
       <c r="E24" s="3">
-        <v>29300</v>
+        <v>48100</v>
       </c>
       <c r="F24" s="3">
-        <v>38900</v>
+        <v>30700</v>
       </c>
       <c r="G24" s="3">
-        <v>35700</v>
+        <v>40600</v>
       </c>
       <c r="H24" s="3">
-        <v>38100</v>
+        <v>37300</v>
       </c>
       <c r="I24" s="3">
-        <v>50000</v>
+        <v>39800</v>
       </c>
       <c r="J24" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-48400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>47000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>42300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>55800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>32000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>43000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>21500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>129300</v>
+        <v>179900</v>
       </c>
       <c r="E26" s="3">
-        <v>138800</v>
+        <v>135100</v>
       </c>
       <c r="F26" s="3">
-        <v>145900</v>
+        <v>145100</v>
       </c>
       <c r="G26" s="3">
-        <v>132400</v>
+        <v>152500</v>
       </c>
       <c r="H26" s="3">
-        <v>128500</v>
+        <v>138500</v>
       </c>
       <c r="I26" s="3">
-        <v>128500</v>
+        <v>134300</v>
       </c>
       <c r="J26" s="3">
+        <v>134300</v>
+      </c>
+      <c r="K26" s="3">
         <v>181600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>118600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>144000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>142400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-74500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-122100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>87100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>110900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>122100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>115200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>71400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>127700</v>
+        <v>178200</v>
       </c>
       <c r="E27" s="3">
-        <v>137200</v>
+        <v>133500</v>
       </c>
       <c r="F27" s="3">
-        <v>143500</v>
+        <v>143400</v>
       </c>
       <c r="G27" s="3">
-        <v>130800</v>
+        <v>150100</v>
       </c>
       <c r="H27" s="3">
-        <v>126900</v>
+        <v>136800</v>
       </c>
       <c r="I27" s="3">
-        <v>126900</v>
+        <v>132600</v>
       </c>
       <c r="J27" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K27" s="3">
         <v>177600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>117000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>142400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>141000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-76000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-123500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>109400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>120600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>114500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>69900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1891,8 +1952,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1910,34 +1971,37 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-4400</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-4500</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>247100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-23100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-2300</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-3100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1600</v>
+        <v>-21600</v>
       </c>
       <c r="E32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
-        <v>-5600</v>
-      </c>
       <c r="G32" s="3">
-        <v>15100</v>
+        <v>-5800</v>
       </c>
       <c r="H32" s="3">
-        <v>2400</v>
+        <v>15800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>2500</v>
       </c>
       <c r="J32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K32" s="3">
         <v>28500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-28300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>194200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-27500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-33500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>61500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>127700</v>
+        <v>178200</v>
       </c>
       <c r="E33" s="3">
-        <v>137200</v>
+        <v>133500</v>
       </c>
       <c r="F33" s="3">
-        <v>143500</v>
+        <v>143400</v>
       </c>
       <c r="G33" s="3">
-        <v>130800</v>
+        <v>150100</v>
       </c>
       <c r="H33" s="3">
-        <v>126900</v>
+        <v>136800</v>
       </c>
       <c r="I33" s="3">
-        <v>126900</v>
+        <v>132600</v>
       </c>
       <c r="J33" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K33" s="3">
         <v>177600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>142400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>136600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-76000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-123500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>356500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>97500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>112200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>66800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>127700</v>
+        <v>178200</v>
       </c>
       <c r="E35" s="3">
-        <v>137200</v>
+        <v>133500</v>
       </c>
       <c r="F35" s="3">
-        <v>143500</v>
+        <v>143400</v>
       </c>
       <c r="G35" s="3">
-        <v>130800</v>
+        <v>150100</v>
       </c>
       <c r="H35" s="3">
-        <v>126900</v>
+        <v>136800</v>
       </c>
       <c r="I35" s="3">
-        <v>126900</v>
+        <v>132600</v>
       </c>
       <c r="J35" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K35" s="3">
         <v>177600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>142400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>136600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-76000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-123500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>356500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>97500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>112200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>66800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>452800</v>
+        <v>321700</v>
       </c>
       <c r="E41" s="3">
-        <v>605100</v>
+        <v>473400</v>
       </c>
       <c r="F41" s="3">
-        <v>516300</v>
+        <v>632600</v>
       </c>
       <c r="G41" s="3">
-        <v>37300</v>
+        <v>539700</v>
       </c>
       <c r="H41" s="3">
-        <v>104700</v>
+        <v>39000</v>
       </c>
       <c r="I41" s="3">
-        <v>1146700</v>
+        <v>109400</v>
       </c>
       <c r="J41" s="3">
+        <v>1198800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1131600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>991500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>915300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>279000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>221300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>206900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>331200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>377300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>476300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>222000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,421 +2608,445 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>429000</v>
+        <v>524000</v>
       </c>
       <c r="E43" s="3">
-        <v>417900</v>
+        <v>448500</v>
       </c>
       <c r="F43" s="3">
-        <v>408400</v>
+        <v>436900</v>
       </c>
       <c r="G43" s="3">
-        <v>435400</v>
+        <v>427000</v>
       </c>
       <c r="H43" s="3">
-        <v>414000</v>
+        <v>455100</v>
       </c>
       <c r="I43" s="3">
-        <v>410000</v>
+        <v>432800</v>
       </c>
       <c r="J43" s="3">
+        <v>428600</v>
+      </c>
+      <c r="K43" s="3">
         <v>337000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>390300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>364100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>226700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>185200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>189000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>175600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>212800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>180800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>203600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>199000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>51500</v>
+        <v>58000</v>
       </c>
       <c r="E44" s="3">
-        <v>47600</v>
+        <v>53900</v>
       </c>
       <c r="F44" s="3">
-        <v>65000</v>
+        <v>49700</v>
       </c>
       <c r="G44" s="3">
-        <v>55500</v>
+        <v>68000</v>
       </c>
       <c r="H44" s="3">
-        <v>72200</v>
+        <v>58000</v>
       </c>
       <c r="I44" s="3">
-        <v>68200</v>
+        <v>75400</v>
       </c>
       <c r="J44" s="3">
+        <v>71300</v>
+      </c>
+      <c r="K44" s="3">
         <v>50800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>57000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>80100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>44300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>91800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>99000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>92300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>81100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>66200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>61500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>52200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>132400</v>
+        <v>129300</v>
       </c>
       <c r="E45" s="3">
-        <v>119000</v>
+        <v>138500</v>
       </c>
       <c r="F45" s="3">
-        <v>115800</v>
+        <v>124400</v>
       </c>
       <c r="G45" s="3">
-        <v>116600</v>
+        <v>121000</v>
       </c>
       <c r="H45" s="3">
-        <v>122100</v>
+        <v>121900</v>
       </c>
       <c r="I45" s="3">
-        <v>132400</v>
+        <v>127700</v>
       </c>
       <c r="J45" s="3">
+        <v>138500</v>
+      </c>
+      <c r="K45" s="3">
         <v>139600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>134700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>144000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>198400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>192700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>171200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>123500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>160700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>164500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>119800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>117500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1065800</v>
+        <v>1033000</v>
       </c>
       <c r="E46" s="3">
-        <v>1189500</v>
+        <v>1114200</v>
       </c>
       <c r="F46" s="3">
-        <v>1105500</v>
+        <v>1243600</v>
       </c>
       <c r="G46" s="3">
-        <v>644700</v>
+        <v>1155700</v>
       </c>
       <c r="H46" s="3">
-        <v>712900</v>
+        <v>674000</v>
       </c>
       <c r="I46" s="3">
-        <v>1757300</v>
+        <v>745300</v>
       </c>
       <c r="J46" s="3">
+        <v>1837200</v>
+      </c>
+      <c r="K46" s="3">
         <v>1659000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1573500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1503500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>748500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>691100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>666100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>722600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>832000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>541800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>861200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>590800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>64200</v>
+        <v>87100</v>
       </c>
       <c r="E47" s="3">
-        <v>65000</v>
+        <v>67200</v>
       </c>
       <c r="F47" s="3">
-        <v>78500</v>
+        <v>68000</v>
       </c>
       <c r="G47" s="3">
-        <v>93600</v>
+        <v>82100</v>
       </c>
       <c r="H47" s="3">
-        <v>84900</v>
+        <v>97800</v>
       </c>
       <c r="I47" s="3">
-        <v>70600</v>
+        <v>88700</v>
       </c>
       <c r="J47" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K47" s="3">
         <v>88800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>575100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>585100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>534800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>502100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>704800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>702500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>697300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>686200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>690600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>682200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4862000</v>
+        <v>5049700</v>
       </c>
       <c r="E48" s="3">
-        <v>4870700</v>
+        <v>5082900</v>
       </c>
       <c r="F48" s="3">
-        <v>4889800</v>
+        <v>5092000</v>
       </c>
       <c r="G48" s="3">
-        <v>4914300</v>
+        <v>5111900</v>
       </c>
       <c r="H48" s="3">
-        <v>4912800</v>
+        <v>5137600</v>
       </c>
       <c r="I48" s="3">
-        <v>3872300</v>
+        <v>5136000</v>
       </c>
       <c r="J48" s="3">
+        <v>4048300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3820000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3654300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3631200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3416900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3331100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3304300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3232800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3520900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3593000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3566900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6572500</v>
+        <v>6868700</v>
       </c>
       <c r="E49" s="3">
-        <v>6563800</v>
+        <v>6871200</v>
       </c>
       <c r="F49" s="3">
-        <v>6547200</v>
+        <v>6862000</v>
       </c>
       <c r="G49" s="3">
-        <v>6546400</v>
+        <v>6844600</v>
       </c>
       <c r="H49" s="3">
-        <v>6544000</v>
+        <v>6843800</v>
       </c>
       <c r="I49" s="3">
-        <v>6549600</v>
+        <v>6841300</v>
       </c>
       <c r="J49" s="3">
+        <v>6847100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6528100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5965300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5976100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5640600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5819100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5747500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5740800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5741600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6504400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6745800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6763500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>131600</v>
+        <v>133500</v>
       </c>
       <c r="E52" s="3">
-        <v>130100</v>
+        <v>137600</v>
       </c>
       <c r="F52" s="3">
-        <v>140400</v>
+        <v>136000</v>
       </c>
       <c r="G52" s="3">
-        <v>163400</v>
+        <v>146700</v>
       </c>
       <c r="H52" s="3">
-        <v>163400</v>
+        <v>170800</v>
       </c>
       <c r="I52" s="3">
-        <v>157800</v>
+        <v>170800</v>
       </c>
       <c r="J52" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K52" s="3">
         <v>169700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>136300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>147000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>146100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>226600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>224000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>195000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>192800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>198700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>217400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>220500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12696300</v>
+        <v>13171900</v>
       </c>
       <c r="E54" s="3">
-        <v>12819200</v>
+        <v>13273100</v>
       </c>
       <c r="F54" s="3">
-        <v>12761300</v>
+        <v>13401600</v>
       </c>
       <c r="G54" s="3">
-        <v>12362400</v>
+        <v>13341100</v>
       </c>
       <c r="H54" s="3">
-        <v>12417900</v>
+        <v>12924100</v>
       </c>
       <c r="I54" s="3">
-        <v>12407600</v>
+        <v>12982100</v>
       </c>
       <c r="J54" s="3">
+        <v>12971300</v>
+      </c>
+      <c r="K54" s="3">
         <v>12265600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11904500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11842900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10486900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10639200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10673500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10665300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10696500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11451900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12108100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11823800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,117 +3402,121 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>707400</v>
+        <v>775200</v>
       </c>
       <c r="E57" s="3">
-        <v>792200</v>
+        <v>739500</v>
       </c>
       <c r="F57" s="3">
-        <v>711300</v>
+        <v>828200</v>
       </c>
       <c r="G57" s="3">
-        <v>686000</v>
+        <v>743700</v>
       </c>
       <c r="H57" s="3">
-        <v>724800</v>
+        <v>717100</v>
       </c>
       <c r="I57" s="3">
-        <v>804900</v>
+        <v>757800</v>
       </c>
       <c r="J57" s="3">
+        <v>841500</v>
+      </c>
+      <c r="K57" s="3">
         <v>720900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>716700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>659000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>704900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>623300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>636300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>668300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>679500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>651200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>706000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>670700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>245800</v>
+        <v>256200</v>
       </c>
       <c r="E58" s="3">
-        <v>249000</v>
+        <v>257000</v>
       </c>
       <c r="F58" s="3">
-        <v>287900</v>
+        <v>260300</v>
       </c>
       <c r="G58" s="3">
-        <v>293400</v>
+        <v>300900</v>
       </c>
       <c r="H58" s="3">
-        <v>185600</v>
+        <v>306700</v>
       </c>
       <c r="I58" s="3">
+        <v>194000</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1070300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1023800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1023800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>993800</v>
       </c>
       <c r="L58" s="3">
         <v>993800</v>
       </c>
       <c r="M58" s="3">
+        <v>993800</v>
+      </c>
+      <c r="N58" s="3">
         <v>29800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>700</v>
       </c>
       <c r="P58" s="3">
         <v>700</v>
       </c>
       <c r="Q58" s="3">
+        <v>700</v>
+      </c>
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>8900</v>
-      </c>
-      <c r="S58" s="3">
-        <v>316500</v>
       </c>
       <c r="T58" s="3">
         <v>316500</v>
@@ -3390,244 +3524,259 @@
       <c r="U58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>260900</v>
+        <v>257000</v>
       </c>
       <c r="E59" s="3">
-        <v>297400</v>
+        <v>272800</v>
       </c>
       <c r="F59" s="3">
-        <v>272000</v>
+        <v>310900</v>
       </c>
       <c r="G59" s="3">
-        <v>287900</v>
+        <v>284400</v>
       </c>
       <c r="H59" s="3">
-        <v>371900</v>
+        <v>300900</v>
       </c>
       <c r="I59" s="3">
-        <v>419500</v>
+        <v>388800</v>
       </c>
       <c r="J59" s="3">
+        <v>438600</v>
+      </c>
+      <c r="K59" s="3">
         <v>437000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>435700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>472700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>599500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>441900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>422000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>280600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>355000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>349000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>334900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>371800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1214100</v>
+        <v>1288300</v>
       </c>
       <c r="E60" s="3">
-        <v>1338600</v>
+        <v>1269300</v>
       </c>
       <c r="F60" s="3">
-        <v>1271200</v>
+        <v>1399400</v>
       </c>
       <c r="G60" s="3">
-        <v>1267200</v>
+        <v>1329000</v>
       </c>
       <c r="H60" s="3">
-        <v>1282300</v>
+        <v>1324800</v>
       </c>
       <c r="I60" s="3">
-        <v>2248200</v>
+        <v>1340600</v>
       </c>
       <c r="J60" s="3">
+        <v>2350400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2181600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2146300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2125500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1173600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1066000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1059000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>949600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1035900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1009100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1357500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1359000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4559900</v>
+        <v>4750500</v>
       </c>
       <c r="E61" s="3">
-        <v>4523400</v>
+        <v>4767000</v>
       </c>
       <c r="F61" s="3">
-        <v>4531300</v>
+        <v>4728900</v>
       </c>
       <c r="G61" s="3">
-        <v>4156200</v>
+        <v>4737200</v>
       </c>
       <c r="H61" s="3">
-        <v>4164100</v>
+        <v>4345100</v>
       </c>
       <c r="I61" s="3">
-        <v>3217300</v>
+        <v>4353300</v>
       </c>
       <c r="J61" s="3">
+        <v>3363500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3216500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3121600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3120900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3132000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3244500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3207500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3199400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3198600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4134800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4252900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4030900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2033300</v>
+        <v>2128200</v>
       </c>
       <c r="E62" s="3">
-        <v>2014300</v>
+        <v>2125700</v>
       </c>
       <c r="F62" s="3">
-        <v>2003200</v>
+        <v>2105800</v>
       </c>
       <c r="G62" s="3">
-        <v>2011900</v>
+        <v>2094200</v>
       </c>
       <c r="H62" s="3">
-        <v>1985700</v>
+        <v>2103300</v>
       </c>
       <c r="I62" s="3">
-        <v>1958000</v>
+        <v>2075900</v>
       </c>
       <c r="J62" s="3">
+        <v>2046900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1923100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1918400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1924600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1842900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1940700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1934200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1913400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1882100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1964700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2037300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2028900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7807300</v>
+        <v>8167000</v>
       </c>
       <c r="E66" s="3">
-        <v>7876300</v>
+        <v>8162000</v>
       </c>
       <c r="F66" s="3">
-        <v>7805700</v>
+        <v>8234100</v>
       </c>
       <c r="G66" s="3">
-        <v>7435400</v>
+        <v>8160300</v>
       </c>
       <c r="H66" s="3">
-        <v>7432200</v>
+        <v>7773200</v>
       </c>
       <c r="I66" s="3">
-        <v>7425800</v>
+        <v>7769900</v>
       </c>
       <c r="J66" s="3">
+        <v>7763200</v>
+      </c>
+      <c r="K66" s="3">
         <v>7323500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7187000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7171600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6149300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6251900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6201500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6063100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6117400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7109400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7648500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7419600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,46 +4168,49 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="E70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="F70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>242900</v>
+      </c>
+      <c r="K70" s="3">
         <v>232400</v>
-      </c>
-      <c r="E70" s="3">
-        <v>232400</v>
-      </c>
-      <c r="F70" s="3">
-        <v>232400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>232400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>232400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>232400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>232400</v>
-      </c>
-      <c r="K70" s="3">
-        <v>225600</v>
       </c>
       <c r="L70" s="3">
         <v>225600</v>
       </c>
       <c r="M70" s="3">
+        <v>225600</v>
+      </c>
+      <c r="N70" s="3">
         <v>212900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>220600</v>
-      </c>
-      <c r="O70" s="3">
-        <v>218100</v>
       </c>
       <c r="P70" s="3">
         <v>218100</v>
@@ -4054,7 +4222,7 @@
         <v>218100</v>
       </c>
       <c r="S70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="T70" s="3">
         <v>225100</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1323600</v>
+        <v>1325700</v>
       </c>
       <c r="E72" s="3">
-        <v>1350500</v>
+        <v>1383700</v>
       </c>
       <c r="F72" s="3">
-        <v>1333900</v>
+        <v>1411900</v>
       </c>
       <c r="G72" s="3">
-        <v>1326700</v>
+        <v>1394500</v>
       </c>
       <c r="H72" s="3">
-        <v>1358400</v>
+        <v>1387000</v>
       </c>
       <c r="I72" s="3">
-        <v>1383800</v>
+        <v>1420200</v>
       </c>
       <c r="J72" s="3">
+        <v>1446700</v>
+      </c>
+      <c r="K72" s="3">
         <v>1379100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1282500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1281000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1176500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1181900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1348500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1583700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1610500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>1420500</v>
       </c>
       <c r="T72" s="3">
         <v>1420500</v>
       </c>
       <c r="U72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="V72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4656600</v>
+        <v>4762100</v>
       </c>
       <c r="E76" s="3">
-        <v>4710500</v>
+        <v>4868200</v>
       </c>
       <c r="F76" s="3">
-        <v>4723200</v>
+        <v>4924600</v>
       </c>
       <c r="G76" s="3">
-        <v>4694700</v>
+        <v>4937800</v>
       </c>
       <c r="H76" s="3">
-        <v>4753400</v>
+        <v>4908000</v>
       </c>
       <c r="I76" s="3">
-        <v>4749400</v>
+        <v>4969300</v>
       </c>
       <c r="J76" s="3">
+        <v>4965200</v>
+      </c>
+      <c r="K76" s="3">
         <v>4709700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4491900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4445700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4124700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4166700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4253900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4384100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4361100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4124400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4234500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4179200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>127700</v>
+        <v>178200</v>
       </c>
       <c r="E81" s="3">
-        <v>137200</v>
+        <v>133500</v>
       </c>
       <c r="F81" s="3">
-        <v>143500</v>
+        <v>143400</v>
       </c>
       <c r="G81" s="3">
-        <v>130800</v>
+        <v>150100</v>
       </c>
       <c r="H81" s="3">
-        <v>126900</v>
+        <v>136800</v>
       </c>
       <c r="I81" s="3">
-        <v>126900</v>
+        <v>132600</v>
       </c>
       <c r="J81" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K81" s="3">
         <v>177600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>142400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>136600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-76000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-123500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>356500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>97500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>112200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>66800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>242700</v>
+        <v>251200</v>
       </c>
       <c r="E83" s="3">
-        <v>248200</v>
+        <v>253700</v>
       </c>
       <c r="F83" s="3">
-        <v>239500</v>
+        <v>259500</v>
       </c>
       <c r="G83" s="3">
-        <v>238700</v>
+        <v>250400</v>
       </c>
       <c r="H83" s="3">
-        <v>241100</v>
+        <v>249500</v>
       </c>
       <c r="I83" s="3">
-        <v>199000</v>
+        <v>252000</v>
       </c>
       <c r="J83" s="3">
+        <v>208100</v>
+      </c>
+      <c r="K83" s="3">
         <v>208600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>203200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>202500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>188900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>189700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>183800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>194200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>113100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>202400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>204300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>196700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>237900</v>
+        <v>392100</v>
       </c>
       <c r="E89" s="3">
-        <v>501200</v>
+        <v>248700</v>
       </c>
       <c r="F89" s="3">
-        <v>466300</v>
+        <v>524000</v>
       </c>
       <c r="G89" s="3">
-        <v>286300</v>
+        <v>487500</v>
       </c>
       <c r="H89" s="3">
-        <v>268800</v>
+        <v>299300</v>
       </c>
       <c r="I89" s="3">
-        <v>345000</v>
+        <v>281000</v>
       </c>
       <c r="J89" s="3">
+        <v>360600</v>
+      </c>
+      <c r="K89" s="3">
         <v>331500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>292500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>257900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>318300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>259700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>150300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>272400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>265700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>325200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>341900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>202000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5600</v>
+        <v>-4100</v>
       </c>
       <c r="E91" s="3">
-        <v>-6300</v>
+        <v>-5800</v>
       </c>
       <c r="F91" s="3">
-        <v>-4000</v>
+        <v>-6600</v>
       </c>
       <c r="G91" s="3">
-        <v>-5600</v>
+        <v>-4100</v>
       </c>
       <c r="H91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8700</v>
       </c>
-      <c r="I91" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="N91" s="3">
         <v>-8700</v>
       </c>
-      <c r="K91" s="3">
-        <v>-7700</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-471700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-434000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-184000</v>
+        <v>-210600</v>
       </c>
       <c r="E94" s="3">
-        <v>-229200</v>
+        <v>-192300</v>
       </c>
       <c r="F94" s="3">
-        <v>-207000</v>
+        <v>-239600</v>
       </c>
       <c r="G94" s="3">
-        <v>-233100</v>
+        <v>-216400</v>
       </c>
       <c r="H94" s="3">
-        <v>-245800</v>
+        <v>-243700</v>
       </c>
       <c r="I94" s="3">
-        <v>-253000</v>
+        <v>-257000</v>
       </c>
       <c r="J94" s="3">
+        <v>-264500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-160200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-179400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-291800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-230400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-163400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-215800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-260500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>810400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-294700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-263500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-231200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-120500</v>
+        <v>-123500</v>
       </c>
       <c r="E96" s="3">
-        <v>-120500</v>
+        <v>-126000</v>
       </c>
       <c r="F96" s="3">
-        <v>-120500</v>
+        <v>-126000</v>
       </c>
       <c r="G96" s="3">
-        <v>-121300</v>
+        <v>-126000</v>
       </c>
       <c r="H96" s="3">
-        <v>-92000</v>
+        <v>-126800</v>
       </c>
       <c r="I96" s="3">
+        <v>-96200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-76900</v>
       </c>
-      <c r="J96" s="3">
-        <v>-76900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-74700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-75400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-71200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-72300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-70000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-71400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-73700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-73000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-73800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-206200</v>
+        <v>-333300</v>
       </c>
       <c r="E100" s="3">
-        <v>-183200</v>
+        <v>-215600</v>
       </c>
       <c r="F100" s="3">
-        <v>219700</v>
+        <v>-191500</v>
       </c>
       <c r="G100" s="3">
-        <v>-120500</v>
+        <v>229600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1065000</v>
+        <v>-126000</v>
       </c>
       <c r="I100" s="3">
-        <v>-76900</v>
+        <v>-1113400</v>
       </c>
       <c r="J100" s="3">
+        <v>-80400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-72200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>687400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-71500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-59500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-57300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-828300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-362400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>176700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-59900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5656,11 +5905,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-152300</v>
+        <v>-151700</v>
       </c>
       <c r="E102" s="3">
-        <v>88800</v>
+        <v>-159200</v>
       </c>
       <c r="F102" s="3">
-        <v>479000</v>
+        <v>92900</v>
       </c>
       <c r="G102" s="3">
-        <v>-67400</v>
+        <v>500700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1042000</v>
+        <v>-70500</v>
       </c>
       <c r="I102" s="3">
-        <v>15100</v>
+        <v>-1089400</v>
       </c>
       <c r="J102" s="3">
+        <v>15800</v>
+      </c>
+      <c r="K102" s="3">
         <v>110200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>76200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>619700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>65400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>12000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-124300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-46100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>247100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-331200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>254300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-89100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1149900</v>
+        <v>1072000</v>
       </c>
       <c r="E8" s="3">
-        <v>1135800</v>
+        <v>1081400</v>
       </c>
       <c r="F8" s="3">
-        <v>1118400</v>
+        <v>1068100</v>
       </c>
       <c r="G8" s="3">
-        <v>1087700</v>
+        <v>1051800</v>
       </c>
       <c r="H8" s="3">
-        <v>1130000</v>
+        <v>1022900</v>
       </c>
       <c r="I8" s="3">
-        <v>1146600</v>
+        <v>1062700</v>
       </c>
       <c r="J8" s="3">
+        <v>1078300</v>
+      </c>
+      <c r="K8" s="3">
         <v>1115100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1050000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1012300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1043100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>963600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>970300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1008400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>926500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>925800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>905000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>926500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>934200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>621800</v>
+        <v>571500</v>
       </c>
       <c r="E9" s="3">
-        <v>632600</v>
+        <v>584800</v>
       </c>
       <c r="F9" s="3">
-        <v>625900</v>
+        <v>594900</v>
       </c>
       <c r="G9" s="3">
-        <v>582800</v>
+        <v>588700</v>
       </c>
       <c r="H9" s="3">
-        <v>632600</v>
+        <v>548100</v>
       </c>
       <c r="I9" s="3">
-        <v>659100</v>
+        <v>594900</v>
       </c>
       <c r="J9" s="3">
+        <v>619800</v>
+      </c>
+      <c r="K9" s="3">
         <v>675700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>629700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1047700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>623600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>559600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>565300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>635600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>569300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1014400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1091000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1127000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1141600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>528100</v>
+        <v>500500</v>
       </c>
       <c r="E10" s="3">
-        <v>503200</v>
+        <v>496600</v>
       </c>
       <c r="F10" s="3">
-        <v>492500</v>
+        <v>473300</v>
       </c>
       <c r="G10" s="3">
-        <v>504900</v>
+        <v>463100</v>
       </c>
       <c r="H10" s="3">
-        <v>497400</v>
+        <v>474800</v>
       </c>
       <c r="I10" s="3">
-        <v>487500</v>
+        <v>467800</v>
       </c>
       <c r="J10" s="3">
+        <v>458400</v>
+      </c>
+      <c r="K10" s="3">
         <v>439400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>420300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-35400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>419600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>404000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>405000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>372800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>357200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-88600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-186100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-200500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-207400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,123 +1116,129 @@
         <v>800</v>
       </c>
       <c r="E14" s="3">
-        <v>9900</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>9400</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10900</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>800</v>
+      </c>
+      <c r="O14" s="3">
         <v>11600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="P14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>310300</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>32000</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="W14" s="3">
         <v>800</v>
       </c>
-      <c r="N14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="O14" s="3">
-        <v>9800</v>
-      </c>
-      <c r="P14" s="3">
-        <v>310300</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>32000</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>9200</v>
-      </c>
-      <c r="V14" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>243700</v>
+        <v>227700</v>
       </c>
       <c r="E15" s="3">
-        <v>244600</v>
+        <v>229200</v>
       </c>
       <c r="F15" s="3">
-        <v>249500</v>
+        <v>230000</v>
       </c>
       <c r="G15" s="3">
-        <v>240400</v>
+        <v>234700</v>
       </c>
       <c r="H15" s="3">
-        <v>238800</v>
+        <v>226100</v>
       </c>
       <c r="I15" s="3">
-        <v>239600</v>
+        <v>224500</v>
       </c>
       <c r="J15" s="3">
+        <v>225300</v>
+      </c>
+      <c r="K15" s="3">
         <v>195700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>195900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>190900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>187800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>174400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>174600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>171900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>177900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>168200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>162200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>163600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>156000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>873800</v>
+        <v>806200</v>
       </c>
       <c r="E17" s="3">
-        <v>895400</v>
+        <v>821800</v>
       </c>
       <c r="F17" s="3">
-        <v>884600</v>
+        <v>842000</v>
       </c>
       <c r="G17" s="3">
-        <v>844800</v>
+        <v>831900</v>
       </c>
       <c r="H17" s="3">
-        <v>881300</v>
+        <v>794500</v>
       </c>
       <c r="I17" s="3">
-        <v>910300</v>
+        <v>828800</v>
       </c>
       <c r="J17" s="3">
+        <v>856100</v>
+      </c>
+      <c r="K17" s="3">
         <v>874600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>838200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>793700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>826000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>759400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>764800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1132700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>762800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>753100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>734500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>719100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>728300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>276100</v>
+        <v>265900</v>
       </c>
       <c r="E18" s="3">
+        <v>259600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>226100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>219900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>228400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>233900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>222200</v>
+      </c>
+      <c r="K18" s="3">
         <v>240400</v>
       </c>
-      <c r="F18" s="3">
-        <v>233800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>242900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>248700</v>
-      </c>
-      <c r="I18" s="3">
-        <v>236300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>240400</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>211700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>217100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>204200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>205500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-124300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>163700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>172700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>170400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>207400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>205900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21600</v>
+        <v>-16400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1700</v>
+        <v>20300</v>
       </c>
       <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>5800</v>
-      </c>
       <c r="H20" s="3">
-        <v>-15800</v>
+        <v>5500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2500</v>
+        <v>-14800</v>
       </c>
       <c r="J20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>28300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-194200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>27500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>33500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-61500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>548800</v>
+        <v>485000</v>
       </c>
       <c r="E21" s="3">
-        <v>492500</v>
+        <v>516100</v>
       </c>
       <c r="F21" s="3">
-        <v>492500</v>
+        <v>463100</v>
       </c>
       <c r="G21" s="3">
-        <v>499100</v>
+        <v>463100</v>
       </c>
       <c r="H21" s="3">
-        <v>482500</v>
+        <v>469400</v>
       </c>
       <c r="I21" s="3">
-        <v>485800</v>
+        <v>453800</v>
       </c>
       <c r="J21" s="3">
+        <v>456900</v>
+      </c>
+      <c r="K21" s="3">
         <v>450200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>391800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>421100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>437300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>421500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>201000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>70000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>383300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>384800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>382500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>391000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>316500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>52200</v>
+      </c>
+      <c r="F22" s="3">
+        <v>52200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>53800</v>
+      </c>
+      <c r="H22" s="3">
+        <v>52200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>53800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K22" s="3">
         <v>55500</v>
       </c>
-      <c r="E22" s="3">
-        <v>55500</v>
-      </c>
-      <c r="F22" s="3">
-        <v>57200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>55500</v>
-      </c>
-      <c r="H22" s="3">
-        <v>57200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>59700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>55500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>52300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>48500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>45200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>46100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>53000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>51500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>242100</v>
+        <v>224500</v>
       </c>
       <c r="E23" s="3">
-        <v>183200</v>
+        <v>227700</v>
       </c>
       <c r="F23" s="3">
-        <v>175800</v>
+        <v>172300</v>
       </c>
       <c r="G23" s="3">
-        <v>193200</v>
+        <v>165300</v>
       </c>
       <c r="H23" s="3">
-        <v>175800</v>
+        <v>181700</v>
       </c>
       <c r="I23" s="3">
-        <v>174100</v>
+        <v>165300</v>
       </c>
       <c r="J23" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K23" s="3">
         <v>186500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>133200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>165500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>186300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>185300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-33900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>142900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>151100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>154100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>158300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>93000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62200</v>
+        <v>-51500</v>
       </c>
       <c r="E24" s="3">
-        <v>48100</v>
+        <v>58500</v>
       </c>
       <c r="F24" s="3">
-        <v>30700</v>
+        <v>45200</v>
       </c>
       <c r="G24" s="3">
-        <v>40600</v>
+        <v>28800</v>
       </c>
       <c r="H24" s="3">
-        <v>37300</v>
+        <v>38200</v>
       </c>
       <c r="I24" s="3">
-        <v>39800</v>
+        <v>35100</v>
       </c>
       <c r="J24" s="3">
+        <v>37400</v>
+      </c>
+      <c r="K24" s="3">
         <v>52200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-48400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>47000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>42300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>32000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>43000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>21500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>179900</v>
+        <v>276000</v>
       </c>
       <c r="E26" s="3">
-        <v>135100</v>
+        <v>169200</v>
       </c>
       <c r="F26" s="3">
-        <v>145100</v>
+        <v>127100</v>
       </c>
       <c r="G26" s="3">
-        <v>152500</v>
+        <v>136400</v>
       </c>
       <c r="H26" s="3">
-        <v>138500</v>
+        <v>143500</v>
       </c>
       <c r="I26" s="3">
+        <v>130200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>126300</v>
+      </c>
+      <c r="K26" s="3">
         <v>134300</v>
       </c>
-      <c r="J26" s="3">
-        <v>134300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>118600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>144000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>142400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-74500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-122100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>87100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>110900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>122100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>115200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>71400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>178200</v>
+        <v>274400</v>
       </c>
       <c r="E27" s="3">
-        <v>133500</v>
+        <v>167600</v>
       </c>
       <c r="F27" s="3">
-        <v>143400</v>
+        <v>125500</v>
       </c>
       <c r="G27" s="3">
-        <v>150100</v>
+        <v>134900</v>
       </c>
       <c r="H27" s="3">
-        <v>136800</v>
+        <v>141100</v>
       </c>
       <c r="I27" s="3">
+        <v>128600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K27" s="3">
         <v>132600</v>
       </c>
-      <c r="J27" s="3">
-        <v>132600</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>177600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>117000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>142400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>141000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-76000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-123500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>109400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>120600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>114500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>69900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1955,8 +2016,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1974,34 +2035,37 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-4400</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-4500</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>247100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>-23100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-2300</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-3100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21600</v>
+        <v>16400</v>
       </c>
       <c r="E32" s="3">
-        <v>1700</v>
+        <v>-20300</v>
       </c>
       <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5800</v>
-      </c>
       <c r="H32" s="3">
-        <v>15800</v>
+        <v>-5500</v>
       </c>
       <c r="I32" s="3">
-        <v>2500</v>
+        <v>14800</v>
       </c>
       <c r="J32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-28300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>194200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-27500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-33500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>61500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>178200</v>
+        <v>274400</v>
       </c>
       <c r="E33" s="3">
-        <v>133500</v>
+        <v>167600</v>
       </c>
       <c r="F33" s="3">
-        <v>143400</v>
+        <v>125500</v>
       </c>
       <c r="G33" s="3">
-        <v>150100</v>
+        <v>134900</v>
       </c>
       <c r="H33" s="3">
-        <v>136800</v>
+        <v>141100</v>
       </c>
       <c r="I33" s="3">
+        <v>128600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K33" s="3">
         <v>132600</v>
       </c>
-      <c r="J33" s="3">
-        <v>132600</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>177600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>117000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>142400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>136600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-76000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-123500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>356500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>97500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>112200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>66800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>178200</v>
+        <v>274400</v>
       </c>
       <c r="E35" s="3">
-        <v>133500</v>
+        <v>167600</v>
       </c>
       <c r="F35" s="3">
-        <v>143400</v>
+        <v>125500</v>
       </c>
       <c r="G35" s="3">
-        <v>150100</v>
+        <v>134900</v>
       </c>
       <c r="H35" s="3">
-        <v>136800</v>
+        <v>141100</v>
       </c>
       <c r="I35" s="3">
+        <v>128600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K35" s="3">
         <v>132600</v>
       </c>
-      <c r="J35" s="3">
-        <v>132600</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>177600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>117000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>142400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>136600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-76000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-123500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>356500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>97500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>112200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>66800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>321700</v>
+        <v>382800</v>
       </c>
       <c r="E41" s="3">
-        <v>473400</v>
+        <v>302500</v>
       </c>
       <c r="F41" s="3">
-        <v>632600</v>
+        <v>445200</v>
       </c>
       <c r="G41" s="3">
-        <v>539700</v>
+        <v>594900</v>
       </c>
       <c r="H41" s="3">
-        <v>39000</v>
+        <v>507600</v>
       </c>
       <c r="I41" s="3">
-        <v>109400</v>
+        <v>36600</v>
       </c>
       <c r="J41" s="3">
+        <v>102900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1198800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1131600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>991500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>915300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>279000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>221300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>206900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>331200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>377300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>130200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>476300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>222000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,442 +2701,466 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>524000</v>
+        <v>542700</v>
       </c>
       <c r="E43" s="3">
-        <v>448500</v>
+        <v>492800</v>
       </c>
       <c r="F43" s="3">
-        <v>436900</v>
+        <v>421800</v>
       </c>
       <c r="G43" s="3">
-        <v>427000</v>
+        <v>410900</v>
       </c>
       <c r="H43" s="3">
-        <v>455100</v>
+        <v>401500</v>
       </c>
       <c r="I43" s="3">
-        <v>432800</v>
+        <v>428000</v>
       </c>
       <c r="J43" s="3">
+        <v>407000</v>
+      </c>
+      <c r="K43" s="3">
         <v>428600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>337000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>390300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>364100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>226700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>185200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>189000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>175600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>212800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>180800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>203600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>199000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58000</v>
+        <v>49900</v>
       </c>
       <c r="E44" s="3">
-        <v>53900</v>
+        <v>54600</v>
       </c>
       <c r="F44" s="3">
-        <v>49700</v>
+        <v>50700</v>
       </c>
       <c r="G44" s="3">
-        <v>68000</v>
+        <v>46800</v>
       </c>
       <c r="H44" s="3">
-        <v>58000</v>
+        <v>63900</v>
       </c>
       <c r="I44" s="3">
-        <v>75400</v>
+        <v>54600</v>
       </c>
       <c r="J44" s="3">
+        <v>70900</v>
+      </c>
+      <c r="K44" s="3">
         <v>71300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>50800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>57000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>80100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>44300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>91800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>99000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>92300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>81100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>66200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>61500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>52200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>129300</v>
+        <v>122400</v>
       </c>
       <c r="E45" s="3">
+        <v>121600</v>
+      </c>
+      <c r="F45" s="3">
+        <v>130200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>117000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>113800</v>
+      </c>
+      <c r="I45" s="3">
+        <v>114600</v>
+      </c>
+      <c r="J45" s="3">
+        <v>120100</v>
+      </c>
+      <c r="K45" s="3">
         <v>138500</v>
       </c>
-      <c r="F45" s="3">
-        <v>124400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>121000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>121900</v>
-      </c>
-      <c r="I45" s="3">
-        <v>127700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>138500</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>139600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>134700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>144000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>198400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>171200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>123500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>160700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>164500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>119800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>117500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1033000</v>
+        <v>1097800</v>
       </c>
       <c r="E46" s="3">
-        <v>1114200</v>
+        <v>971500</v>
       </c>
       <c r="F46" s="3">
-        <v>1243600</v>
+        <v>1047900</v>
       </c>
       <c r="G46" s="3">
-        <v>1155700</v>
+        <v>1169500</v>
       </c>
       <c r="H46" s="3">
-        <v>674000</v>
+        <v>1086900</v>
       </c>
       <c r="I46" s="3">
-        <v>745300</v>
+        <v>633900</v>
       </c>
       <c r="J46" s="3">
+        <v>700900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1837200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1659000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1573500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1503500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>748500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>691100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>666100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>722600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>832000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>541800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>861200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>590800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>87100</v>
+        <v>78000</v>
       </c>
       <c r="E47" s="3">
-        <v>67200</v>
+        <v>81900</v>
       </c>
       <c r="F47" s="3">
-        <v>68000</v>
+        <v>63200</v>
       </c>
       <c r="G47" s="3">
-        <v>82100</v>
+        <v>63900</v>
       </c>
       <c r="H47" s="3">
-        <v>97800</v>
+        <v>77200</v>
       </c>
       <c r="I47" s="3">
-        <v>88700</v>
+        <v>92000</v>
       </c>
       <c r="J47" s="3">
+        <v>83400</v>
+      </c>
+      <c r="K47" s="3">
         <v>73800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>88800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>575100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>585100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>534800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>502100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>704800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>702500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>697300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>686200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>690600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>682200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5049700</v>
+        <v>4709200</v>
       </c>
       <c r="E48" s="3">
-        <v>5082900</v>
+        <v>4749000</v>
       </c>
       <c r="F48" s="3">
-        <v>5092000</v>
+        <v>4780200</v>
       </c>
       <c r="G48" s="3">
-        <v>5111900</v>
+        <v>4788700</v>
       </c>
       <c r="H48" s="3">
-        <v>5137600</v>
+        <v>4807400</v>
       </c>
       <c r="I48" s="3">
-        <v>5136000</v>
+        <v>4831600</v>
       </c>
       <c r="J48" s="3">
+        <v>4830100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4048300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3820000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3654300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3631200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3416900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3400400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3331100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3304300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3232800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3520900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3593000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3566900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6868700</v>
+        <v>6456400</v>
       </c>
       <c r="E49" s="3">
-        <v>6871200</v>
+        <v>6459600</v>
       </c>
       <c r="F49" s="3">
-        <v>6862000</v>
+        <v>6461900</v>
       </c>
       <c r="G49" s="3">
-        <v>6844600</v>
+        <v>6453300</v>
       </c>
       <c r="H49" s="3">
-        <v>6843800</v>
+        <v>6437000</v>
       </c>
       <c r="I49" s="3">
-        <v>6841300</v>
+        <v>6436200</v>
       </c>
       <c r="J49" s="3">
+        <v>6433800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6847100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6528100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5965300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5976100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5640600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5819100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5747500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5740800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5741600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>6504400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6745800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6763500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>133500</v>
+        <v>117700</v>
       </c>
       <c r="E52" s="3">
-        <v>137600</v>
+        <v>125500</v>
       </c>
       <c r="F52" s="3">
-        <v>136000</v>
+        <v>129400</v>
       </c>
       <c r="G52" s="3">
-        <v>146700</v>
+        <v>127900</v>
       </c>
       <c r="H52" s="3">
-        <v>170800</v>
+        <v>138000</v>
       </c>
       <c r="I52" s="3">
-        <v>170800</v>
+        <v>160600</v>
       </c>
       <c r="J52" s="3">
+        <v>160600</v>
+      </c>
+      <c r="K52" s="3">
         <v>165000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>169700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>136300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>147000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>146100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>226600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>224000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>195000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>192800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>198700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>217400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>220500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>13171900</v>
+        <v>12459100</v>
       </c>
       <c r="E54" s="3">
-        <v>13273100</v>
+        <v>12387400</v>
       </c>
       <c r="F54" s="3">
-        <v>13401600</v>
+        <v>12482500</v>
       </c>
       <c r="G54" s="3">
-        <v>13341100</v>
+        <v>12603400</v>
       </c>
       <c r="H54" s="3">
-        <v>12924100</v>
+        <v>12546400</v>
       </c>
       <c r="I54" s="3">
-        <v>12982100</v>
+        <v>12154300</v>
       </c>
       <c r="J54" s="3">
+        <v>12208900</v>
+      </c>
+      <c r="K54" s="3">
         <v>12971300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12265600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11904500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11842900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10486900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10639200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10673500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10665300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10696500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>11451900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12108100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11823800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,123 +3533,127 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775200</v>
+        <v>691600</v>
       </c>
       <c r="E57" s="3">
-        <v>739500</v>
+        <v>729000</v>
       </c>
       <c r="F57" s="3">
-        <v>828200</v>
+        <v>695500</v>
       </c>
       <c r="G57" s="3">
-        <v>743700</v>
+        <v>778900</v>
       </c>
       <c r="H57" s="3">
-        <v>717100</v>
+        <v>699400</v>
       </c>
       <c r="I57" s="3">
-        <v>757800</v>
+        <v>674400</v>
       </c>
       <c r="J57" s="3">
+        <v>712600</v>
+      </c>
+      <c r="K57" s="3">
         <v>841500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>720900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>716700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>659000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>704900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>623300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>636300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>668300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>679500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>651200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>706000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>670700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>256200</v>
+        <v>242500</v>
       </c>
       <c r="E58" s="3">
-        <v>257000</v>
+        <v>240900</v>
       </c>
       <c r="F58" s="3">
-        <v>260300</v>
+        <v>241700</v>
       </c>
       <c r="G58" s="3">
-        <v>300900</v>
+        <v>244800</v>
       </c>
       <c r="H58" s="3">
-        <v>306700</v>
+        <v>283000</v>
       </c>
       <c r="I58" s="3">
-        <v>194000</v>
+        <v>288500</v>
       </c>
       <c r="J58" s="3">
+        <v>182400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1070300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1023800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>993800</v>
       </c>
       <c r="M58" s="3">
         <v>993800</v>
       </c>
       <c r="N58" s="3">
+        <v>993800</v>
+      </c>
+      <c r="O58" s="3">
         <v>29800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>700</v>
       </c>
       <c r="Q58" s="3">
         <v>700</v>
       </c>
       <c r="R58" s="3">
+        <v>700</v>
+      </c>
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>8900</v>
-      </c>
-      <c r="T58" s="3">
-        <v>316500</v>
       </c>
       <c r="U58" s="3">
         <v>316500</v>
@@ -3527,256 +3661,271 @@
       <c r="V58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257000</v>
+        <v>438200</v>
       </c>
       <c r="E59" s="3">
-        <v>272800</v>
+        <v>241700</v>
       </c>
       <c r="F59" s="3">
-        <v>310900</v>
+        <v>256500</v>
       </c>
       <c r="G59" s="3">
-        <v>284400</v>
+        <v>292400</v>
       </c>
       <c r="H59" s="3">
-        <v>300900</v>
+        <v>267400</v>
       </c>
       <c r="I59" s="3">
-        <v>388800</v>
+        <v>283000</v>
       </c>
       <c r="J59" s="3">
+        <v>365700</v>
+      </c>
+      <c r="K59" s="3">
         <v>438600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>437000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>435700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>472700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>599500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>441900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>422000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>280600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>355000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>349000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>334900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>371800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1288300</v>
+        <v>1372200</v>
       </c>
       <c r="E60" s="3">
-        <v>1269300</v>
+        <v>1211600</v>
       </c>
       <c r="F60" s="3">
-        <v>1399400</v>
+        <v>1193700</v>
       </c>
       <c r="G60" s="3">
-        <v>1329000</v>
+        <v>1316100</v>
       </c>
       <c r="H60" s="3">
-        <v>1324800</v>
+        <v>1249800</v>
       </c>
       <c r="I60" s="3">
-        <v>1340600</v>
+        <v>1245900</v>
       </c>
       <c r="J60" s="3">
+        <v>1260700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2350400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2181600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2146300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2125500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1173600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1066000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1059000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>949600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1035900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1009100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1357500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1359000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4750500</v>
+        <v>4458200</v>
       </c>
       <c r="E61" s="3">
-        <v>4767000</v>
+        <v>4467500</v>
       </c>
       <c r="F61" s="3">
-        <v>4728900</v>
+        <v>4483100</v>
       </c>
       <c r="G61" s="3">
-        <v>4737200</v>
+        <v>4447200</v>
       </c>
       <c r="H61" s="3">
-        <v>4345100</v>
+        <v>4455000</v>
       </c>
       <c r="I61" s="3">
-        <v>4353300</v>
+        <v>4086300</v>
       </c>
       <c r="J61" s="3">
+        <v>4094000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3363500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3216500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3121600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3120900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3132000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3244500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3207500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3199400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3198600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4134800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4252900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4030900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2128200</v>
+        <v>2013100</v>
       </c>
       <c r="E62" s="3">
-        <v>2125700</v>
+        <v>2001400</v>
       </c>
       <c r="F62" s="3">
-        <v>2105800</v>
+        <v>1999100</v>
       </c>
       <c r="G62" s="3">
-        <v>2094200</v>
+        <v>1980400</v>
       </c>
       <c r="H62" s="3">
-        <v>2103300</v>
+        <v>1969400</v>
       </c>
       <c r="I62" s="3">
-        <v>2075900</v>
+        <v>1978000</v>
       </c>
       <c r="J62" s="3">
+        <v>1952300</v>
+      </c>
+      <c r="K62" s="3">
         <v>2046900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1923100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1918400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1924600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1842900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1940700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1934200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1913400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1882100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1964700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2037300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2028900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8167000</v>
+        <v>7843500</v>
       </c>
       <c r="E66" s="3">
-        <v>8162000</v>
+        <v>7680500</v>
       </c>
       <c r="F66" s="3">
-        <v>8234100</v>
+        <v>7675900</v>
       </c>
       <c r="G66" s="3">
-        <v>8160300</v>
+        <v>7743700</v>
       </c>
       <c r="H66" s="3">
-        <v>7773200</v>
+        <v>7674300</v>
       </c>
       <c r="I66" s="3">
-        <v>7769900</v>
+        <v>7310200</v>
       </c>
       <c r="J66" s="3">
+        <v>7307100</v>
+      </c>
+      <c r="K66" s="3">
         <v>7763200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7323500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7187000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7171600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6149300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6251900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6201500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6063100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6117400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7109400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7648500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7419600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,49 +4336,52 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>228400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>228400</v>
+      </c>
+      <c r="G70" s="3">
+        <v>228400</v>
+      </c>
+      <c r="H70" s="3">
+        <v>228400</v>
+      </c>
+      <c r="I70" s="3">
+        <v>228400</v>
+      </c>
+      <c r="J70" s="3">
+        <v>228400</v>
+      </c>
+      <c r="K70" s="3">
         <v>242900</v>
       </c>
-      <c r="E70" s="3">
-        <v>242900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>242900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>242900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>242900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>242900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>242900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>232400</v>
-      </c>
-      <c r="L70" s="3">
-        <v>225600</v>
       </c>
       <c r="M70" s="3">
         <v>225600</v>
       </c>
       <c r="N70" s="3">
+        <v>225600</v>
+      </c>
+      <c r="O70" s="3">
         <v>212900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>220600</v>
-      </c>
-      <c r="P70" s="3">
-        <v>218100</v>
       </c>
       <c r="Q70" s="3">
         <v>218100</v>
@@ -4225,7 +4393,7 @@
         <v>218100</v>
       </c>
       <c r="T70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="U70" s="3">
         <v>225100</v>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1325700</v>
+        <v>1381600</v>
       </c>
       <c r="E72" s="3">
-        <v>1383700</v>
+        <v>1246700</v>
       </c>
       <c r="F72" s="3">
-        <v>1411900</v>
+        <v>1301300</v>
       </c>
       <c r="G72" s="3">
-        <v>1394500</v>
+        <v>1327800</v>
       </c>
       <c r="H72" s="3">
-        <v>1387000</v>
+        <v>1311400</v>
       </c>
       <c r="I72" s="3">
-        <v>1420200</v>
+        <v>1304400</v>
       </c>
       <c r="J72" s="3">
+        <v>1335600</v>
+      </c>
+      <c r="K72" s="3">
         <v>1446700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1379100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1282500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1281000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1176500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1181900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1348500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1583700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1610500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>1420500</v>
       </c>
       <c r="U72" s="3">
         <v>1420500</v>
       </c>
       <c r="V72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="W72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4762100</v>
+        <v>4615600</v>
       </c>
       <c r="E76" s="3">
-        <v>4868200</v>
+        <v>4478400</v>
       </c>
       <c r="F76" s="3">
-        <v>4924600</v>
+        <v>4578200</v>
       </c>
       <c r="G76" s="3">
-        <v>4937800</v>
+        <v>4631200</v>
       </c>
       <c r="H76" s="3">
-        <v>4908000</v>
+        <v>4643700</v>
       </c>
       <c r="I76" s="3">
-        <v>4969300</v>
+        <v>4615600</v>
       </c>
       <c r="J76" s="3">
+        <v>4673300</v>
+      </c>
+      <c r="K76" s="3">
         <v>4965200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4709700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4491900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4445700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4124700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4166700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4253900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4384100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4361100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4124400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4234500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4179200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>178200</v>
+        <v>274400</v>
       </c>
       <c r="E81" s="3">
-        <v>133500</v>
+        <v>167600</v>
       </c>
       <c r="F81" s="3">
-        <v>143400</v>
+        <v>125500</v>
       </c>
       <c r="G81" s="3">
-        <v>150100</v>
+        <v>134900</v>
       </c>
       <c r="H81" s="3">
-        <v>136800</v>
+        <v>141100</v>
       </c>
       <c r="I81" s="3">
+        <v>128600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>124700</v>
+      </c>
+      <c r="K81" s="3">
         <v>132600</v>
       </c>
-      <c r="J81" s="3">
-        <v>132600</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>177600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>117000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>142400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>136600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-76000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-123500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>356500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>97500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>112200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>66800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>251200</v>
+        <v>235500</v>
       </c>
       <c r="E83" s="3">
-        <v>253700</v>
+        <v>236200</v>
       </c>
       <c r="F83" s="3">
-        <v>259500</v>
+        <v>238600</v>
       </c>
       <c r="G83" s="3">
-        <v>250400</v>
+        <v>244000</v>
       </c>
       <c r="H83" s="3">
-        <v>249500</v>
+        <v>235500</v>
       </c>
       <c r="I83" s="3">
-        <v>252000</v>
+        <v>234700</v>
       </c>
       <c r="J83" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K83" s="3">
         <v>208100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>208600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>203200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>202500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>188900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>189700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>183800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>194200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>113100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>202400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>204300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>196700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>392100</v>
+        <v>436600</v>
       </c>
       <c r="E89" s="3">
-        <v>248700</v>
+        <v>368800</v>
       </c>
       <c r="F89" s="3">
-        <v>524000</v>
+        <v>233900</v>
       </c>
       <c r="G89" s="3">
-        <v>487500</v>
+        <v>492800</v>
       </c>
       <c r="H89" s="3">
-        <v>299300</v>
+        <v>458400</v>
       </c>
       <c r="I89" s="3">
-        <v>281000</v>
+        <v>281500</v>
       </c>
       <c r="J89" s="3">
+        <v>264300</v>
+      </c>
+      <c r="K89" s="3">
         <v>360600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>331500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>292500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>257900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>318300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>259700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>150300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>272400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>265700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>325200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>341900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>202000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-4100</v>
+        <v>-3100</v>
       </c>
       <c r="E91" s="3">
-        <v>-5800</v>
+        <v>-3900</v>
       </c>
       <c r="F91" s="3">
-        <v>-6600</v>
+        <v>-5500</v>
       </c>
       <c r="G91" s="3">
-        <v>-4100</v>
+        <v>-6200</v>
       </c>
       <c r="H91" s="3">
-        <v>-5800</v>
+        <v>-3900</v>
       </c>
       <c r="I91" s="3">
-        <v>-9100</v>
+        <v>-5500</v>
       </c>
       <c r="J91" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-9900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-471700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-434000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-210600</v>
+        <v>-202700</v>
       </c>
       <c r="E94" s="3">
-        <v>-192300</v>
+        <v>-198000</v>
       </c>
       <c r="F94" s="3">
-        <v>-239600</v>
+        <v>-180900</v>
       </c>
       <c r="G94" s="3">
-        <v>-216400</v>
+        <v>-225300</v>
       </c>
       <c r="H94" s="3">
-        <v>-243700</v>
+        <v>-203500</v>
       </c>
       <c r="I94" s="3">
-        <v>-257000</v>
+        <v>-229200</v>
       </c>
       <c r="J94" s="3">
+        <v>-241700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-264500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-160200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-179400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-291800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-230400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-163400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-215800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-260500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>810400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-294700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-263500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-231200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123500</v>
+        <v>-115400</v>
       </c>
       <c r="E96" s="3">
-        <v>-126000</v>
+        <v>-116200</v>
       </c>
       <c r="F96" s="3">
-        <v>-126000</v>
+        <v>-118500</v>
       </c>
       <c r="G96" s="3">
-        <v>-126000</v>
+        <v>-118500</v>
       </c>
       <c r="H96" s="3">
-        <v>-126800</v>
+        <v>-118500</v>
       </c>
       <c r="I96" s="3">
-        <v>-96200</v>
+        <v>-119300</v>
       </c>
       <c r="J96" s="3">
+        <v>-90400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-80400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-76900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-74700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-75400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-71200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-72300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-71400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-73700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-70700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-73000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-73800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,70 +6041,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-333300</v>
+        <v>-153600</v>
       </c>
       <c r="E100" s="3">
-        <v>-215600</v>
+        <v>-313400</v>
       </c>
       <c r="F100" s="3">
-        <v>-191500</v>
+        <v>-202700</v>
       </c>
       <c r="G100" s="3">
-        <v>229600</v>
+        <v>-180100</v>
       </c>
       <c r="H100" s="3">
-        <v>-126000</v>
+        <v>216000</v>
       </c>
       <c r="I100" s="3">
-        <v>-1113400</v>
+        <v>-118500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1047100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-80400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-72200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>687400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-71500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-57300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-828300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-362400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>176700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-59900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5908,11 +6157,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-151700</v>
+        <v>80300</v>
       </c>
       <c r="E102" s="3">
-        <v>-159200</v>
+        <v>-142700</v>
       </c>
       <c r="F102" s="3">
-        <v>92900</v>
+        <v>-149700</v>
       </c>
       <c r="G102" s="3">
-        <v>500700</v>
+        <v>87300</v>
       </c>
       <c r="H102" s="3">
-        <v>-70500</v>
+        <v>470900</v>
       </c>
       <c r="I102" s="3">
-        <v>-1089400</v>
+        <v>-66300</v>
       </c>
       <c r="J102" s="3">
+        <v>-1024500</v>
+      </c>
+      <c r="K102" s="3">
         <v>15800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>110200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>76200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>619700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>65400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>12000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-124300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-46100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>247100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-331200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>254300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-89100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1072000</v>
+        <v>1081000</v>
       </c>
       <c r="E8" s="3">
-        <v>1081400</v>
+        <v>1079400</v>
       </c>
       <c r="F8" s="3">
-        <v>1068100</v>
+        <v>1088900</v>
       </c>
       <c r="G8" s="3">
-        <v>1051800</v>
+        <v>1075500</v>
       </c>
       <c r="H8" s="3">
-        <v>1022900</v>
+        <v>1059000</v>
       </c>
       <c r="I8" s="3">
-        <v>1062700</v>
+        <v>1030000</v>
       </c>
       <c r="J8" s="3">
+        <v>1070000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1078300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1115100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1050000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1012300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1043100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>963600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>970300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1008400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>926500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>925800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>905000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>926500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>934200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>571500</v>
+        <v>599000</v>
       </c>
       <c r="E9" s="3">
-        <v>584800</v>
+        <v>575400</v>
       </c>
       <c r="F9" s="3">
-        <v>594900</v>
+        <v>588800</v>
       </c>
       <c r="G9" s="3">
-        <v>588700</v>
+        <v>599000</v>
       </c>
       <c r="H9" s="3">
-        <v>548100</v>
+        <v>592700</v>
       </c>
       <c r="I9" s="3">
-        <v>594900</v>
+        <v>551900</v>
       </c>
       <c r="J9" s="3">
+        <v>599000</v>
+      </c>
+      <c r="K9" s="3">
         <v>619800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>675700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>629700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1047700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>623600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>559600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>565300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>635600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>569300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1014400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1091000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1127000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1141600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>500500</v>
+        <v>482000</v>
       </c>
       <c r="E10" s="3">
-        <v>496600</v>
+        <v>504000</v>
       </c>
       <c r="F10" s="3">
-        <v>473300</v>
+        <v>500100</v>
       </c>
       <c r="G10" s="3">
-        <v>463100</v>
+        <v>476500</v>
       </c>
       <c r="H10" s="3">
-        <v>474800</v>
+        <v>466300</v>
       </c>
       <c r="I10" s="3">
-        <v>467800</v>
+        <v>478100</v>
       </c>
       <c r="J10" s="3">
+        <v>471000</v>
+      </c>
+      <c r="K10" s="3">
         <v>458400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>439400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>420300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-35400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>419600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>404000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>405000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>372800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>357200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-88600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-186100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-200500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-207400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>800</v>
       </c>
       <c r="F14" s="3">
+        <v>800</v>
+      </c>
+      <c r="G14" s="3">
         <v>9400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>10900</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>11000</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-8300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>11600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>9800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>310300</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>32000</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>9200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>227700</v>
+        <v>237100</v>
       </c>
       <c r="E15" s="3">
         <v>229200</v>
       </c>
       <c r="F15" s="3">
-        <v>230000</v>
+        <v>230800</v>
       </c>
       <c r="G15" s="3">
-        <v>234700</v>
+        <v>231600</v>
       </c>
       <c r="H15" s="3">
+        <v>236300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>227700</v>
+      </c>
+      <c r="J15" s="3">
         <v>226100</v>
       </c>
-      <c r="I15" s="3">
-        <v>224500</v>
-      </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>225300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>195700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>195900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>190900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>187800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>174400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>174600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>171900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>177900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>168200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>162200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>163600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>156000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>806200</v>
+        <v>842400</v>
       </c>
       <c r="E17" s="3">
-        <v>821800</v>
+        <v>811700</v>
       </c>
       <c r="F17" s="3">
-        <v>842000</v>
+        <v>827400</v>
       </c>
       <c r="G17" s="3">
-        <v>831900</v>
+        <v>847900</v>
       </c>
       <c r="H17" s="3">
-        <v>794500</v>
+        <v>837600</v>
       </c>
       <c r="I17" s="3">
-        <v>828800</v>
+        <v>800000</v>
       </c>
       <c r="J17" s="3">
+        <v>834500</v>
+      </c>
+      <c r="K17" s="3">
         <v>856100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>874600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>838200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>793700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>826000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>759400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>764800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1132700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>762800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>753100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>734500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>719100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>728300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>265900</v>
+        <v>238700</v>
       </c>
       <c r="E18" s="3">
-        <v>259600</v>
+        <v>267700</v>
       </c>
       <c r="F18" s="3">
-        <v>226100</v>
+        <v>261400</v>
       </c>
       <c r="G18" s="3">
-        <v>219900</v>
+        <v>227700</v>
       </c>
       <c r="H18" s="3">
-        <v>228400</v>
+        <v>221400</v>
       </c>
       <c r="I18" s="3">
-        <v>233900</v>
+        <v>230000</v>
       </c>
       <c r="J18" s="3">
+        <v>235500</v>
+      </c>
+      <c r="K18" s="3">
         <v>222200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>240400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>211700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>218600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>217100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>204200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>205500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-124300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>163700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>172700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>170400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>207400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>205900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16400</v>
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
-        <v>20300</v>
+        <v>-16500</v>
       </c>
       <c r="F20" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5500</v>
       </c>
-      <c r="I20" s="3">
-        <v>-14800</v>
-      </c>
       <c r="J20" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>28300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-194200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>27500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>33500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-61500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>485000</v>
+        <v>477300</v>
       </c>
       <c r="E21" s="3">
-        <v>516100</v>
+        <v>488300</v>
       </c>
       <c r="F21" s="3">
-        <v>463100</v>
+        <v>519700</v>
       </c>
       <c r="G21" s="3">
-        <v>463100</v>
+        <v>466300</v>
       </c>
       <c r="H21" s="3">
-        <v>469400</v>
+        <v>466300</v>
       </c>
       <c r="I21" s="3">
-        <v>453800</v>
+        <v>472600</v>
       </c>
       <c r="J21" s="3">
         <v>456900</v>
       </c>
       <c r="K21" s="3">
+        <v>456900</v>
+      </c>
+      <c r="L21" s="3">
         <v>450200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>391800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>421100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>437300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>421500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>201000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>70000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>383300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>384800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>382500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>391000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>316500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>24900</v>
+        <v>52600</v>
       </c>
       <c r="E22" s="3">
-        <v>52200</v>
+        <v>25100</v>
       </c>
       <c r="F22" s="3">
-        <v>52200</v>
+        <v>52600</v>
       </c>
       <c r="G22" s="3">
-        <v>53800</v>
+        <v>52600</v>
       </c>
       <c r="H22" s="3">
-        <v>52200</v>
+        <v>54200</v>
       </c>
       <c r="I22" s="3">
-        <v>53800</v>
+        <v>52600</v>
       </c>
       <c r="J22" s="3">
+        <v>54200</v>
+      </c>
+      <c r="K22" s="3">
         <v>56100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>55500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>52300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>47200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>45200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>46100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49900</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>53000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>51500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>224500</v>
+        <v>181300</v>
       </c>
       <c r="E23" s="3">
-        <v>227700</v>
+        <v>226100</v>
       </c>
       <c r="F23" s="3">
-        <v>172300</v>
+        <v>229200</v>
       </c>
       <c r="G23" s="3">
-        <v>165300</v>
+        <v>173500</v>
       </c>
       <c r="H23" s="3">
-        <v>181700</v>
+        <v>166400</v>
       </c>
       <c r="I23" s="3">
-        <v>165300</v>
+        <v>182900</v>
       </c>
       <c r="J23" s="3">
+        <v>166400</v>
+      </c>
+      <c r="K23" s="3">
         <v>163700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>186500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>133200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>165500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>186300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>185300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-33900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-161500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>142900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>151100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>154100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>158300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>93000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-51500</v>
+        <v>-16500</v>
       </c>
       <c r="E24" s="3">
-        <v>58500</v>
+        <v>-51800</v>
       </c>
       <c r="F24" s="3">
-        <v>45200</v>
+        <v>58900</v>
       </c>
       <c r="G24" s="3">
-        <v>28800</v>
+        <v>45500</v>
       </c>
       <c r="H24" s="3">
-        <v>38200</v>
+        <v>29000</v>
       </c>
       <c r="I24" s="3">
-        <v>35100</v>
+        <v>38500</v>
       </c>
       <c r="J24" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K24" s="3">
         <v>37400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>52200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-48400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>47000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>42300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>32000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>43000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>21500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>276000</v>
+        <v>197800</v>
       </c>
       <c r="E26" s="3">
-        <v>169200</v>
+        <v>277900</v>
       </c>
       <c r="F26" s="3">
-        <v>127100</v>
+        <v>170400</v>
       </c>
       <c r="G26" s="3">
-        <v>136400</v>
+        <v>128000</v>
       </c>
       <c r="H26" s="3">
-        <v>143500</v>
+        <v>137400</v>
       </c>
       <c r="I26" s="3">
-        <v>130200</v>
+        <v>144400</v>
       </c>
       <c r="J26" s="3">
+        <v>131100</v>
+      </c>
+      <c r="K26" s="3">
         <v>126300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>134300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>118600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>144000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>142400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-74500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-122100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>87100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>110900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>122100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>115200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>71400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>274400</v>
+        <v>197000</v>
       </c>
       <c r="E27" s="3">
-        <v>167600</v>
+        <v>276300</v>
       </c>
       <c r="F27" s="3">
-        <v>125500</v>
+        <v>168800</v>
       </c>
       <c r="G27" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="H27" s="3">
-        <v>141100</v>
+        <v>135800</v>
       </c>
       <c r="I27" s="3">
-        <v>128600</v>
+        <v>142100</v>
       </c>
       <c r="J27" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K27" s="3">
         <v>124700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>132600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>177600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>117000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>142400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>141000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-123500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>109400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>120600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>114500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>69900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2019,8 +2080,8 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2038,34 +2099,37 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-4400</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-4500</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>247100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-23100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-2300</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-3100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16400</v>
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
-        <v>-20300</v>
+        <v>16500</v>
       </c>
       <c r="F32" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5500</v>
       </c>
-      <c r="I32" s="3">
-        <v>14800</v>
-      </c>
       <c r="J32" s="3">
+        <v>14900</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-28300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>194200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-27500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-33500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>61500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>274400</v>
+        <v>197000</v>
       </c>
       <c r="E33" s="3">
-        <v>167600</v>
+        <v>276300</v>
       </c>
       <c r="F33" s="3">
-        <v>125500</v>
+        <v>168800</v>
       </c>
       <c r="G33" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="H33" s="3">
-        <v>141100</v>
+        <v>135800</v>
       </c>
       <c r="I33" s="3">
-        <v>128600</v>
+        <v>142100</v>
       </c>
       <c r="J33" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K33" s="3">
         <v>124700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>132600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>177600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>117000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>142400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>136600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-123500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>81100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>356500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>97500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>112200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>66800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>274400</v>
+        <v>197000</v>
       </c>
       <c r="E35" s="3">
-        <v>167600</v>
+        <v>276300</v>
       </c>
       <c r="F35" s="3">
-        <v>125500</v>
+        <v>168800</v>
       </c>
       <c r="G35" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="H35" s="3">
-        <v>141100</v>
+        <v>135800</v>
       </c>
       <c r="I35" s="3">
-        <v>128600</v>
+        <v>142100</v>
       </c>
       <c r="J35" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K35" s="3">
         <v>124700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>132600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>177600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>117000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>142400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>136600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-123500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>81100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>356500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>97500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>112200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>66800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3">
-        <v>382800</v>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E41" s="3">
-        <v>302500</v>
+        <v>385500</v>
       </c>
       <c r="F41" s="3">
-        <v>445200</v>
+        <v>304600</v>
       </c>
       <c r="G41" s="3">
-        <v>594900</v>
+        <v>448300</v>
       </c>
       <c r="H41" s="3">
-        <v>507600</v>
+        <v>599000</v>
       </c>
       <c r="I41" s="3">
-        <v>36600</v>
+        <v>511100</v>
       </c>
       <c r="J41" s="3">
+        <v>36900</v>
+      </c>
+      <c r="K41" s="3">
         <v>102900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1198800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1131600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>991500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>915300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>279000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>221300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>206900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>331200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>377300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>130200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>476300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>222000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2794,487 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>542700</v>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E43" s="3">
-        <v>492800</v>
+        <v>546400</v>
       </c>
       <c r="F43" s="3">
-        <v>421800</v>
+        <v>496200</v>
       </c>
       <c r="G43" s="3">
-        <v>410900</v>
+        <v>424700</v>
       </c>
       <c r="H43" s="3">
-        <v>401500</v>
+        <v>413700</v>
       </c>
       <c r="I43" s="3">
-        <v>428000</v>
+        <v>404300</v>
       </c>
       <c r="J43" s="3">
+        <v>431000</v>
+      </c>
+      <c r="K43" s="3">
         <v>407000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>428600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>337000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>390300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>364100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>226700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>185200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>189000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>175600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>212800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>180800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>203600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>199000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="3">
+        <v>50200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>55000</v>
+      </c>
+      <c r="G44" s="3">
+        <v>51000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>47100</v>
+      </c>
+      <c r="I44" s="3">
+        <v>64400</v>
+      </c>
+      <c r="J44" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K44" s="3">
+        <v>70900</v>
+      </c>
+      <c r="L44" s="3">
+        <v>71300</v>
+      </c>
+      <c r="M44" s="3">
+        <v>50800</v>
+      </c>
+      <c r="N44" s="3">
+        <v>57000</v>
+      </c>
+      <c r="O44" s="3">
+        <v>80100</v>
+      </c>
+      <c r="P44" s="3">
+        <v>44300</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>91800</v>
+      </c>
+      <c r="R44" s="3">
+        <v>99000</v>
+      </c>
+      <c r="S44" s="3">
+        <v>92300</v>
+      </c>
+      <c r="T44" s="3">
+        <v>81100</v>
+      </c>
+      <c r="U44" s="3">
+        <v>66200</v>
+      </c>
+      <c r="V44" s="3">
+        <v>61500</v>
+      </c>
+      <c r="W44" s="3">
+        <v>52200</v>
+      </c>
+      <c r="X44" s="3">
         <v>49900</v>
       </c>
-      <c r="E44" s="3">
-        <v>54600</v>
-      </c>
-      <c r="F44" s="3">
-        <v>50700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>46800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>63900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>54600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>70900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>71300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>50800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>57000</v>
-      </c>
-      <c r="N44" s="3">
-        <v>80100</v>
-      </c>
-      <c r="O44" s="3">
-        <v>44300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>91800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>99000</v>
-      </c>
-      <c r="R44" s="3">
-        <v>92300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>81100</v>
-      </c>
-      <c r="T44" s="3">
-        <v>66200</v>
-      </c>
-      <c r="U44" s="3">
-        <v>61500</v>
-      </c>
-      <c r="V44" s="3">
-        <v>52200</v>
-      </c>
-      <c r="W44" s="3">
-        <v>49900</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>122400</v>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>121600</v>
+        <v>123300</v>
       </c>
       <c r="F45" s="3">
-        <v>130200</v>
+        <v>122500</v>
       </c>
       <c r="G45" s="3">
-        <v>117000</v>
+        <v>131100</v>
       </c>
       <c r="H45" s="3">
-        <v>113800</v>
+        <v>117800</v>
       </c>
       <c r="I45" s="3">
         <v>114600</v>
       </c>
       <c r="J45" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K45" s="3">
         <v>120100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>138500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>139600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>134700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>144000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>198400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>123500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>160700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>164500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>119800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>117500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>1097800</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>971500</v>
+        <v>1105400</v>
       </c>
       <c r="F46" s="3">
-        <v>1047900</v>
+        <v>978200</v>
       </c>
       <c r="G46" s="3">
-        <v>1169500</v>
+        <v>1055100</v>
       </c>
       <c r="H46" s="3">
-        <v>1086900</v>
+        <v>1177600</v>
       </c>
       <c r="I46" s="3">
-        <v>633900</v>
+        <v>1094400</v>
       </c>
       <c r="J46" s="3">
+        <v>638200</v>
+      </c>
+      <c r="K46" s="3">
         <v>700900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1837200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1659000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1573500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1503500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>748500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>691100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>666100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>722600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>832000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>541800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>861200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>590800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>78000</v>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E47" s="3">
-        <v>81900</v>
+        <v>78500</v>
       </c>
       <c r="F47" s="3">
-        <v>63200</v>
+        <v>82400</v>
       </c>
       <c r="G47" s="3">
-        <v>63900</v>
+        <v>63600</v>
       </c>
       <c r="H47" s="3">
-        <v>77200</v>
+        <v>64400</v>
       </c>
       <c r="I47" s="3">
-        <v>92000</v>
+        <v>77700</v>
       </c>
       <c r="J47" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K47" s="3">
         <v>83400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>73800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>88800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>575100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>585100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>534800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>502100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>704800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>702500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>697300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>686200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>690600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>682200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>4709200</v>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E48" s="3">
-        <v>4749000</v>
+        <v>4741700</v>
       </c>
       <c r="F48" s="3">
-        <v>4780200</v>
+        <v>4781700</v>
       </c>
       <c r="G48" s="3">
-        <v>4788700</v>
+        <v>4813100</v>
       </c>
       <c r="H48" s="3">
-        <v>4807400</v>
+        <v>4821800</v>
       </c>
       <c r="I48" s="3">
-        <v>4831600</v>
+        <v>4840600</v>
       </c>
       <c r="J48" s="3">
+        <v>4865000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4830100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4048300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3820000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3654300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3631200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3416900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3400400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3331100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3304300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3232800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3520900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3593000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3566900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>6456400</v>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E49" s="3">
-        <v>6459600</v>
+        <v>6501000</v>
       </c>
       <c r="F49" s="3">
-        <v>6461900</v>
+        <v>6504100</v>
       </c>
       <c r="G49" s="3">
-        <v>6453300</v>
+        <v>6506500</v>
       </c>
       <c r="H49" s="3">
-        <v>6437000</v>
+        <v>6497900</v>
       </c>
       <c r="I49" s="3">
-        <v>6436200</v>
+        <v>6481400</v>
       </c>
       <c r="J49" s="3">
+        <v>6480600</v>
+      </c>
+      <c r="K49" s="3">
         <v>6433800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6847100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6528100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5965300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5976100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5640600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5819100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5747500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5740800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5741600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6504400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6745800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6763500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>117700</v>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E52" s="3">
-        <v>125500</v>
+        <v>118500</v>
       </c>
       <c r="F52" s="3">
-        <v>129400</v>
+        <v>126400</v>
       </c>
       <c r="G52" s="3">
-        <v>127900</v>
+        <v>130300</v>
       </c>
       <c r="H52" s="3">
-        <v>138000</v>
+        <v>128700</v>
       </c>
       <c r="I52" s="3">
+        <v>139000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>161700</v>
+      </c>
+      <c r="K52" s="3">
         <v>160600</v>
       </c>
-      <c r="J52" s="3">
-        <v>160600</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>169700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>136300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>147000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>146100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>226600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>224000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>195000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>192800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>198700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>217400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>220500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
-        <v>12459100</v>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="3">
-        <v>12387400</v>
+        <v>12545100</v>
       </c>
       <c r="F54" s="3">
-        <v>12482500</v>
+        <v>12472900</v>
       </c>
       <c r="G54" s="3">
-        <v>12603400</v>
+        <v>12568700</v>
       </c>
       <c r="H54" s="3">
-        <v>12546400</v>
+        <v>12690300</v>
       </c>
       <c r="I54" s="3">
-        <v>12154300</v>
+        <v>12633000</v>
       </c>
       <c r="J54" s="3">
+        <v>12238100</v>
+      </c>
+      <c r="K54" s="3">
         <v>12208900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12971300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12265600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11904500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11842900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10486900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10639200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10673500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10665300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10696500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11451900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12108100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11823800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,129 +3664,133 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>691600</v>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E57" s="3">
-        <v>729000</v>
+        <v>696300</v>
       </c>
       <c r="F57" s="3">
-        <v>695500</v>
+        <v>734000</v>
       </c>
       <c r="G57" s="3">
-        <v>778900</v>
+        <v>700300</v>
       </c>
       <c r="H57" s="3">
-        <v>699400</v>
+        <v>784300</v>
       </c>
       <c r="I57" s="3">
-        <v>674400</v>
+        <v>704200</v>
       </c>
       <c r="J57" s="3">
+        <v>679100</v>
+      </c>
+      <c r="K57" s="3">
         <v>712600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>841500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>720900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>716700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>659000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>704900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>623300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>636300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>668300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>679500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>651200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>706000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>670700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>242500</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>240900</v>
+        <v>244200</v>
       </c>
       <c r="F58" s="3">
-        <v>241700</v>
+        <v>242600</v>
       </c>
       <c r="G58" s="3">
-        <v>244800</v>
+        <v>243400</v>
       </c>
       <c r="H58" s="3">
-        <v>283000</v>
+        <v>246500</v>
       </c>
       <c r="I58" s="3">
-        <v>288500</v>
+        <v>285000</v>
       </c>
       <c r="J58" s="3">
+        <v>290500</v>
+      </c>
+      <c r="K58" s="3">
         <v>182400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1070300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1023800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>993800</v>
       </c>
       <c r="N58" s="3">
         <v>993800</v>
       </c>
       <c r="O58" s="3">
+        <v>993800</v>
+      </c>
+      <c r="P58" s="3">
         <v>29800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>700</v>
       </c>
       <c r="R58" s="3">
         <v>700</v>
       </c>
       <c r="S58" s="3">
+        <v>700</v>
+      </c>
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>8900</v>
-      </c>
-      <c r="U58" s="3">
-        <v>316500</v>
       </c>
       <c r="V58" s="3">
         <v>316500</v>
@@ -3664,268 +3798,283 @@
       <c r="W58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>438200</v>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E59" s="3">
-        <v>241700</v>
+        <v>441200</v>
       </c>
       <c r="F59" s="3">
-        <v>256500</v>
+        <v>243400</v>
       </c>
       <c r="G59" s="3">
-        <v>292400</v>
+        <v>258300</v>
       </c>
       <c r="H59" s="3">
-        <v>267400</v>
+        <v>294400</v>
       </c>
       <c r="I59" s="3">
-        <v>283000</v>
+        <v>269300</v>
       </c>
       <c r="J59" s="3">
+        <v>285000</v>
+      </c>
+      <c r="K59" s="3">
         <v>365700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>438600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>437000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>435700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>472700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>599500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>441900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>422000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>280600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>355000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>349000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>334900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>371800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
-        <v>1372200</v>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E60" s="3">
-        <v>1211600</v>
+        <v>1381700</v>
       </c>
       <c r="F60" s="3">
-        <v>1193700</v>
+        <v>1220000</v>
       </c>
       <c r="G60" s="3">
-        <v>1316100</v>
+        <v>1201900</v>
       </c>
       <c r="H60" s="3">
-        <v>1249800</v>
+        <v>1325200</v>
       </c>
       <c r="I60" s="3">
-        <v>1245900</v>
+        <v>1258400</v>
       </c>
       <c r="J60" s="3">
+        <v>1254500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1260700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2350400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2181600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2146300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2125500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1173600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1059000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>949600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1035900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1009100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1357500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1359000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4458200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>4467500</v>
+        <v>4488900</v>
       </c>
       <c r="F61" s="3">
-        <v>4483100</v>
+        <v>4498300</v>
       </c>
       <c r="G61" s="3">
-        <v>4447200</v>
+        <v>4514000</v>
       </c>
       <c r="H61" s="3">
-        <v>4455000</v>
+        <v>4477900</v>
       </c>
       <c r="I61" s="3">
-        <v>4086300</v>
+        <v>4485800</v>
       </c>
       <c r="J61" s="3">
+        <v>4114400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4094000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3363500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3216500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3121600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3120900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3132000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3244500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3207500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3199400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3198600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4134800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4252900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4030900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>2013100</v>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E62" s="3">
-        <v>2001400</v>
+        <v>2027000</v>
       </c>
       <c r="F62" s="3">
-        <v>1999100</v>
+        <v>2015200</v>
       </c>
       <c r="G62" s="3">
-        <v>1980400</v>
+        <v>2012900</v>
       </c>
       <c r="H62" s="3">
-        <v>1969400</v>
+        <v>1994000</v>
       </c>
       <c r="I62" s="3">
-        <v>1978000</v>
+        <v>1983000</v>
       </c>
       <c r="J62" s="3">
+        <v>1991700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1952300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2046900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1923100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1918400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1924600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1842900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1940700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1934200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1913400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1882100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1964700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2037300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2028900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3">
-        <v>7843500</v>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="3">
-        <v>7680500</v>
+        <v>7897600</v>
       </c>
       <c r="F66" s="3">
-        <v>7675900</v>
+        <v>7733500</v>
       </c>
       <c r="G66" s="3">
-        <v>7743700</v>
+        <v>7728800</v>
       </c>
       <c r="H66" s="3">
-        <v>7674300</v>
+        <v>7797100</v>
       </c>
       <c r="I66" s="3">
-        <v>7310200</v>
+        <v>7727200</v>
       </c>
       <c r="J66" s="3">
+        <v>7360600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7307100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7763200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7323500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7187000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7171600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6149300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6251900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6201500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6063100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6117400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7109400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7648500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7419600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4348,43 +4516,43 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>230000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>230000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>230000</v>
+      </c>
+      <c r="I70" s="3">
+        <v>230000</v>
+      </c>
+      <c r="J70" s="3">
+        <v>230000</v>
+      </c>
+      <c r="K70" s="3">
         <v>228400</v>
       </c>
-      <c r="F70" s="3">
-        <v>228400</v>
-      </c>
-      <c r="G70" s="3">
-        <v>228400</v>
-      </c>
-      <c r="H70" s="3">
-        <v>228400</v>
-      </c>
-      <c r="I70" s="3">
-        <v>228400</v>
-      </c>
-      <c r="J70" s="3">
-        <v>228400</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>242900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>232400</v>
-      </c>
-      <c r="M70" s="3">
-        <v>225600</v>
       </c>
       <c r="N70" s="3">
         <v>225600</v>
       </c>
       <c r="O70" s="3">
+        <v>225600</v>
+      </c>
+      <c r="P70" s="3">
         <v>212900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="Q70" s="3">
         <v>220600</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>218100</v>
       </c>
       <c r="R70" s="3">
         <v>218100</v>
@@ -4396,7 +4564,7 @@
         <v>218100</v>
       </c>
       <c r="U70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="V70" s="3">
         <v>225100</v>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>1381600</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>1246700</v>
+        <v>1391100</v>
       </c>
       <c r="F72" s="3">
-        <v>1301300</v>
+        <v>1255300</v>
       </c>
       <c r="G72" s="3">
-        <v>1327800</v>
+        <v>1310200</v>
       </c>
       <c r="H72" s="3">
-        <v>1311400</v>
+        <v>1336900</v>
       </c>
       <c r="I72" s="3">
-        <v>1304400</v>
+        <v>1320500</v>
       </c>
       <c r="J72" s="3">
+        <v>1313400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1335600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1446700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1379100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1282500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1281000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1176500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1181900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1348500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1583700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1610500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>1420500</v>
       </c>
       <c r="V72" s="3">
         <v>1420500</v>
       </c>
       <c r="W72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="X72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
-        <v>4615600</v>
+      <c r="D76" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E76" s="3">
-        <v>4478400</v>
+        <v>4647500</v>
       </c>
       <c r="F76" s="3">
-        <v>4578200</v>
+        <v>4509300</v>
       </c>
       <c r="G76" s="3">
-        <v>4631200</v>
+        <v>4609800</v>
       </c>
       <c r="H76" s="3">
-        <v>4643700</v>
+        <v>4663200</v>
       </c>
       <c r="I76" s="3">
-        <v>4615600</v>
+        <v>4675800</v>
       </c>
       <c r="J76" s="3">
+        <v>4647500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4673300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4965200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4709700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4491900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4445700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4124700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4166700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4253900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4384100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4361100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4124400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4234500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4179200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>274400</v>
+        <v>197000</v>
       </c>
       <c r="E81" s="3">
-        <v>167600</v>
+        <v>276300</v>
       </c>
       <c r="F81" s="3">
-        <v>125500</v>
+        <v>168800</v>
       </c>
       <c r="G81" s="3">
-        <v>134900</v>
+        <v>126400</v>
       </c>
       <c r="H81" s="3">
-        <v>141100</v>
+        <v>135800</v>
       </c>
       <c r="I81" s="3">
-        <v>128600</v>
+        <v>142100</v>
       </c>
       <c r="J81" s="3">
+        <v>129500</v>
+      </c>
+      <c r="K81" s="3">
         <v>124700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>132600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>177600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>117000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>142400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>136600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-76000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-123500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>81100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>356500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>97500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>112200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>66800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>235500</v>
+        <v>243400</v>
       </c>
       <c r="E83" s="3">
-        <v>236200</v>
+        <v>237100</v>
       </c>
       <c r="F83" s="3">
-        <v>238600</v>
+        <v>237900</v>
       </c>
       <c r="G83" s="3">
-        <v>244000</v>
+        <v>240200</v>
       </c>
       <c r="H83" s="3">
-        <v>235500</v>
+        <v>245700</v>
       </c>
       <c r="I83" s="3">
-        <v>234700</v>
+        <v>237100</v>
       </c>
       <c r="J83" s="3">
+        <v>236300</v>
+      </c>
+      <c r="K83" s="3">
         <v>237000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>208100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>208600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>203200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>202500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>188900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>189700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>183800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>194200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>113100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>202400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>204300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>196700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>436600</v>
+        <v>463200</v>
       </c>
       <c r="E89" s="3">
-        <v>368800</v>
+        <v>439600</v>
       </c>
       <c r="F89" s="3">
-        <v>233900</v>
+        <v>371300</v>
       </c>
       <c r="G89" s="3">
-        <v>492800</v>
+        <v>235500</v>
       </c>
       <c r="H89" s="3">
-        <v>458400</v>
+        <v>496200</v>
       </c>
       <c r="I89" s="3">
-        <v>281500</v>
+        <v>461600</v>
       </c>
       <c r="J89" s="3">
+        <v>283400</v>
+      </c>
+      <c r="K89" s="3">
         <v>264300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>360600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>331500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>292500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>257900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>318300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>259700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>150300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>272400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>265700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>325200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>341900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>202000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
-        <v>-6200</v>
-      </c>
       <c r="H91" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-471700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-434000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-202700</v>
+        <v>-197000</v>
       </c>
       <c r="E94" s="3">
-        <v>-198000</v>
+        <v>-204100</v>
       </c>
       <c r="F94" s="3">
-        <v>-180900</v>
+        <v>-199400</v>
       </c>
       <c r="G94" s="3">
-        <v>-225300</v>
+        <v>-182100</v>
       </c>
       <c r="H94" s="3">
-        <v>-203500</v>
+        <v>-226900</v>
       </c>
       <c r="I94" s="3">
-        <v>-229200</v>
+        <v>-204900</v>
       </c>
       <c r="J94" s="3">
+        <v>-230800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-241700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-264500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-160200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-179400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-291800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-230400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-163400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-215800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-260500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>810400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-294700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-263500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-231200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-115400</v>
+        <v>-116200</v>
       </c>
       <c r="E96" s="3">
         <v>-116200</v>
       </c>
       <c r="F96" s="3">
-        <v>-118500</v>
+        <v>-117000</v>
       </c>
       <c r="G96" s="3">
-        <v>-118500</v>
+        <v>-119300</v>
       </c>
       <c r="H96" s="3">
-        <v>-118500</v>
+        <v>-119300</v>
       </c>
       <c r="I96" s="3">
         <v>-119300</v>
       </c>
       <c r="J96" s="3">
+        <v>-120100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-90400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-80400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-76900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-74700</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-75400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-71200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-72300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-70000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-71400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-73700</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-70700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-73000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-73800</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-153600</v>
+        <v>-372900</v>
       </c>
       <c r="E100" s="3">
-        <v>-313400</v>
+        <v>-154700</v>
       </c>
       <c r="F100" s="3">
-        <v>-202700</v>
+        <v>-315600</v>
       </c>
       <c r="G100" s="3">
-        <v>-180100</v>
+        <v>-204100</v>
       </c>
       <c r="H100" s="3">
-        <v>216000</v>
+        <v>-181300</v>
       </c>
       <c r="I100" s="3">
-        <v>-118500</v>
+        <v>217500</v>
       </c>
       <c r="J100" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1047100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-80400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-72200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>687400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-71500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-57300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-828300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-362400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>176700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-59900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6160,11 +6409,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>80300</v>
+        <v>-106800</v>
       </c>
       <c r="E102" s="3">
-        <v>-142700</v>
+        <v>80900</v>
       </c>
       <c r="F102" s="3">
-        <v>-149700</v>
+        <v>-143700</v>
       </c>
       <c r="G102" s="3">
-        <v>87300</v>
+        <v>-150700</v>
       </c>
       <c r="H102" s="3">
-        <v>470900</v>
+        <v>87900</v>
       </c>
       <c r="I102" s="3">
-        <v>-66300</v>
+        <v>474200</v>
       </c>
       <c r="J102" s="3">
+        <v>-66700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1024500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>15800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>110200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>76200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>619700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>65400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>12000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-124300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-46100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>247100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-331200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>254300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-89100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1081000</v>
+        <v>1087600</v>
       </c>
       <c r="E8" s="3">
-        <v>1079400</v>
+        <v>1080600</v>
       </c>
       <c r="F8" s="3">
-        <v>1088900</v>
+        <v>1079000</v>
       </c>
       <c r="G8" s="3">
-        <v>1075500</v>
+        <v>1088400</v>
       </c>
       <c r="H8" s="3">
-        <v>1059000</v>
+        <v>1075100</v>
       </c>
       <c r="I8" s="3">
-        <v>1030000</v>
+        <v>1058600</v>
       </c>
       <c r="J8" s="3">
+        <v>1029600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1070000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1078300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1115100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1050000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1012300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1043100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>963600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>970300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1008400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>926500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>925800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>905000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>926500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>934200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>590900</v>
+      </c>
+      <c r="E9" s="3">
+        <v>598800</v>
+      </c>
+      <c r="F9" s="3">
+        <v>575200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>588600</v>
+      </c>
+      <c r="H9" s="3">
+        <v>598800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>592500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>551700</v>
+      </c>
+      <c r="K9" s="3">
         <v>599000</v>
       </c>
-      <c r="E9" s="3">
-        <v>575400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>588800</v>
-      </c>
-      <c r="G9" s="3">
-        <v>599000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>592700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>551900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>599000</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>619800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>675700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>629700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1047700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>623600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>559600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>565300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>635600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>569300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1014400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1091000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1127000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1141600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>482000</v>
+        <v>496700</v>
       </c>
       <c r="E10" s="3">
-        <v>504000</v>
+        <v>481800</v>
       </c>
       <c r="F10" s="3">
-        <v>500100</v>
+        <v>503800</v>
       </c>
       <c r="G10" s="3">
-        <v>476500</v>
+        <v>499900</v>
       </c>
       <c r="H10" s="3">
-        <v>466300</v>
+        <v>476300</v>
       </c>
       <c r="I10" s="3">
-        <v>478100</v>
+        <v>466100</v>
       </c>
       <c r="J10" s="3">
+        <v>477900</v>
+      </c>
+      <c r="K10" s="3">
         <v>471000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>458400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>439400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>420300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-35400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>419600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>404000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>405000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>372800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>357200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-88600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-186100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-200500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-207400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>800</v>
       </c>
       <c r="G14" s="3">
+        <v>800</v>
+      </c>
+      <c r="H14" s="3">
         <v>9400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>11000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-8300</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>11600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>9800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>310300</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>32000</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>9200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>237100</v>
+        <v>229100</v>
       </c>
       <c r="E15" s="3">
-        <v>229200</v>
+        <v>237000</v>
       </c>
       <c r="F15" s="3">
-        <v>230800</v>
+        <v>229100</v>
       </c>
       <c r="G15" s="3">
-        <v>231600</v>
+        <v>230700</v>
       </c>
       <c r="H15" s="3">
-        <v>236300</v>
+        <v>231500</v>
       </c>
       <c r="I15" s="3">
-        <v>227700</v>
+        <v>236200</v>
       </c>
       <c r="J15" s="3">
+        <v>227600</v>
+      </c>
+      <c r="K15" s="3">
         <v>226100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>225300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>195700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>195900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>190900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>187800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>174400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>174600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>171900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>177900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>168200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>162200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>163600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>156000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>842400</v>
+        <v>827900</v>
       </c>
       <c r="E17" s="3">
-        <v>811700</v>
+        <v>842000</v>
       </c>
       <c r="F17" s="3">
-        <v>827400</v>
+        <v>811400</v>
       </c>
       <c r="G17" s="3">
-        <v>847900</v>
+        <v>827100</v>
       </c>
       <c r="H17" s="3">
-        <v>837600</v>
+        <v>847500</v>
       </c>
       <c r="I17" s="3">
-        <v>800000</v>
+        <v>837300</v>
       </c>
       <c r="J17" s="3">
+        <v>799700</v>
+      </c>
+      <c r="K17" s="3">
         <v>834500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>856100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>874600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>838200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>793700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>826000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>759400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>764800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1132700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>762800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>753100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>734500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>719100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>728300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>238700</v>
+        <v>259700</v>
       </c>
       <c r="E18" s="3">
-        <v>267700</v>
+        <v>238600</v>
       </c>
       <c r="F18" s="3">
-        <v>261400</v>
+        <v>267600</v>
       </c>
       <c r="G18" s="3">
-        <v>227700</v>
+        <v>261300</v>
       </c>
       <c r="H18" s="3">
-        <v>221400</v>
+        <v>227600</v>
       </c>
       <c r="I18" s="3">
-        <v>230000</v>
+        <v>221300</v>
       </c>
       <c r="J18" s="3">
+        <v>229900</v>
+      </c>
+      <c r="K18" s="3">
         <v>235500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>222200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>240400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>211700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>218600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>217100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>204200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>205500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-124300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>163700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>172700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>170400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>207400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>205900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>-4700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-16500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-28500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>28300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-194200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>25300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>27500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>33500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-61500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>477300</v>
+        <v>495200</v>
       </c>
       <c r="E21" s="3">
-        <v>488300</v>
+        <v>477100</v>
       </c>
       <c r="F21" s="3">
-        <v>519700</v>
+        <v>488100</v>
       </c>
       <c r="G21" s="3">
-        <v>466300</v>
+        <v>519500</v>
       </c>
       <c r="H21" s="3">
-        <v>466300</v>
+        <v>466100</v>
       </c>
       <c r="I21" s="3">
-        <v>472600</v>
+        <v>466100</v>
       </c>
       <c r="J21" s="3">
-        <v>456900</v>
+        <v>472400</v>
       </c>
       <c r="K21" s="3">
         <v>456900</v>
       </c>
       <c r="L21" s="3">
+        <v>456900</v>
+      </c>
+      <c r="M21" s="3">
         <v>450200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>391800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>421100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>437300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>421500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>201000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>70000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>383300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>384800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>382500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>391000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>316500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1593,203 +1632,212 @@
         <v>52600</v>
       </c>
       <c r="E22" s="3">
+        <v>52600</v>
+      </c>
+      <c r="F22" s="3">
         <v>25100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>52600</v>
       </c>
       <c r="G22" s="3">
         <v>52600</v>
       </c>
       <c r="H22" s="3">
+        <v>52600</v>
+      </c>
+      <c r="I22" s="3">
+        <v>54100</v>
+      </c>
+      <c r="J22" s="3">
+        <v>52600</v>
+      </c>
+      <c r="K22" s="3">
         <v>54200</v>
       </c>
-      <c r="I22" s="3">
-        <v>52600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>54200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>55500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>52300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>45200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>46100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>49100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>49900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>53000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>51500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E23" s="3">
         <v>181300</v>
       </c>
-      <c r="E23" s="3">
-        <v>226100</v>
-      </c>
       <c r="F23" s="3">
-        <v>229200</v>
+        <v>226000</v>
       </c>
       <c r="G23" s="3">
-        <v>173500</v>
+        <v>229100</v>
       </c>
       <c r="H23" s="3">
+        <v>173400</v>
+      </c>
+      <c r="I23" s="3">
         <v>166400</v>
       </c>
-      <c r="I23" s="3">
-        <v>182900</v>
-      </c>
       <c r="J23" s="3">
+        <v>182800</v>
+      </c>
+      <c r="K23" s="3">
         <v>166400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>163700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>186500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>133200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>165500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>186300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>185300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-33900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-161500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>142900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>151100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>154100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>158300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>93000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-16500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-51800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>58900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>29000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>38500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>35300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>37400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>52200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-48400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>47000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>42300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>32000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>43000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>21500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E26" s="3">
         <v>197800</v>
       </c>
-      <c r="E26" s="3">
-        <v>277900</v>
-      </c>
       <c r="F26" s="3">
-        <v>170400</v>
+        <v>277800</v>
       </c>
       <c r="G26" s="3">
-        <v>128000</v>
+        <v>170300</v>
       </c>
       <c r="H26" s="3">
-        <v>137400</v>
+        <v>127900</v>
       </c>
       <c r="I26" s="3">
+        <v>137300</v>
+      </c>
+      <c r="J26" s="3">
         <v>144400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>131100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>126300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>134300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>118600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>144000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>142400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-74500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-122100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>87100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>110900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>122100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>115200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>71400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E27" s="3">
         <v>197000</v>
       </c>
-      <c r="E27" s="3">
-        <v>276300</v>
-      </c>
       <c r="F27" s="3">
-        <v>168800</v>
+        <v>276200</v>
       </c>
       <c r="G27" s="3">
-        <v>126400</v>
+        <v>168700</v>
       </c>
       <c r="H27" s="3">
+        <v>126300</v>
+      </c>
+      <c r="I27" s="3">
         <v>135800</v>
       </c>
-      <c r="I27" s="3">
-        <v>142100</v>
-      </c>
       <c r="J27" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K27" s="3">
         <v>129500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>124700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>132600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>177600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>117000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>142400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>141000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-76000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-123500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>109400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>120600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>114500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>69900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,28 +2117,31 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2102,34 +2162,37 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-4500</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>247100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-23100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-2300</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-3100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>4700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>16500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-20400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>28500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-28300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>194200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-25300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-27500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-33500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>61500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E33" s="3">
         <v>197000</v>
       </c>
-      <c r="E33" s="3">
-        <v>276300</v>
-      </c>
       <c r="F33" s="3">
-        <v>168800</v>
+        <v>276200</v>
       </c>
       <c r="G33" s="3">
-        <v>126400</v>
+        <v>168700</v>
       </c>
       <c r="H33" s="3">
+        <v>126300</v>
+      </c>
+      <c r="I33" s="3">
         <v>135800</v>
       </c>
-      <c r="I33" s="3">
-        <v>142100</v>
-      </c>
       <c r="J33" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K33" s="3">
         <v>129500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>124700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>132600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>177600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>117000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>142400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>136600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-76000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-123500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>81100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>356500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>97500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>112200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>66800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E35" s="3">
         <v>197000</v>
       </c>
-      <c r="E35" s="3">
-        <v>276300</v>
-      </c>
       <c r="F35" s="3">
-        <v>168800</v>
+        <v>276200</v>
       </c>
       <c r="G35" s="3">
-        <v>126400</v>
+        <v>168700</v>
       </c>
       <c r="H35" s="3">
+        <v>126300</v>
+      </c>
+      <c r="I35" s="3">
         <v>135800</v>
       </c>
-      <c r="I35" s="3">
-        <v>142100</v>
-      </c>
       <c r="J35" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K35" s="3">
         <v>129500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>124700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>132600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>177600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>117000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>142400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>136600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-76000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-123500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>81100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>356500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>97500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>112200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>66800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
+      <c r="D41" s="3">
+        <v>229100</v>
       </c>
       <c r="E41" s="3">
-        <v>385500</v>
+        <v>385300</v>
       </c>
       <c r="F41" s="3">
-        <v>304600</v>
+        <v>304500</v>
       </c>
       <c r="G41" s="3">
-        <v>448300</v>
+        <v>448100</v>
       </c>
       <c r="H41" s="3">
-        <v>599000</v>
+        <v>598800</v>
       </c>
       <c r="I41" s="3">
-        <v>511100</v>
+        <v>510900</v>
       </c>
       <c r="J41" s="3">
         <v>36900</v>
       </c>
       <c r="K41" s="3">
+        <v>36900</v>
+      </c>
+      <c r="L41" s="3">
         <v>102900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1198800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1131600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>991500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>915300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>279000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>221300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>206900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>331200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>377300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>130200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>476300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>222000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,87 +2886,93 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>8</v>
+      <c r="D43" s="3">
+        <v>497500</v>
       </c>
       <c r="E43" s="3">
-        <v>546400</v>
+        <v>546200</v>
       </c>
       <c r="F43" s="3">
-        <v>496200</v>
+        <v>496000</v>
       </c>
       <c r="G43" s="3">
-        <v>424700</v>
+        <v>424500</v>
       </c>
       <c r="H43" s="3">
-        <v>413700</v>
+        <v>413600</v>
       </c>
       <c r="I43" s="3">
-        <v>404300</v>
+        <v>404100</v>
       </c>
       <c r="J43" s="3">
+        <v>430800</v>
+      </c>
+      <c r="K43" s="3">
         <v>431000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>407000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>428600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>337000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>390300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>364100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>226700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>185200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>189000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>175600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>212800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>180800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>203600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>199000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>8</v>
+      <c r="D44" s="3">
+        <v>42400</v>
       </c>
       <c r="E44" s="3">
         <v>50200</v>
       </c>
       <c r="F44" s="3">
-        <v>55000</v>
+        <v>54900</v>
       </c>
       <c r="G44" s="3">
         <v>51000</v>
@@ -2886,72 +2981,75 @@
         <v>47100</v>
       </c>
       <c r="I44" s="3">
-        <v>64400</v>
+        <v>64300</v>
       </c>
       <c r="J44" s="3">
+        <v>54900</v>
+      </c>
+      <c r="K44" s="3">
         <v>55000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>70900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>71300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>50800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>80100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>44300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>91800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>99000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>92300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>81100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>66200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>61500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>52200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>8</v>
+      <c r="D45" s="3">
+        <v>138900</v>
       </c>
       <c r="E45" s="3">
-        <v>123300</v>
+        <v>123200</v>
       </c>
       <c r="F45" s="3">
-        <v>122500</v>
+        <v>122400</v>
       </c>
       <c r="G45" s="3">
         <v>131100</v>
       </c>
       <c r="H45" s="3">
-        <v>117800</v>
+        <v>117700</v>
       </c>
       <c r="I45" s="3">
         <v>114600</v>
@@ -2960,122 +3058,128 @@
         <v>115400</v>
       </c>
       <c r="K45" s="3">
+        <v>115400</v>
+      </c>
+      <c r="L45" s="3">
         <v>120100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>138500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>139600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>134700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>144000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>198400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>192700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>171200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>123500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>160700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>164500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>119800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>117500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>907900</v>
       </c>
       <c r="E46" s="3">
-        <v>1105400</v>
+        <v>1104900</v>
       </c>
       <c r="F46" s="3">
-        <v>978200</v>
+        <v>977800</v>
       </c>
       <c r="G46" s="3">
-        <v>1055100</v>
+        <v>1054700</v>
       </c>
       <c r="H46" s="3">
-        <v>1177600</v>
+        <v>1177100</v>
       </c>
       <c r="I46" s="3">
-        <v>1094400</v>
+        <v>1093900</v>
       </c>
       <c r="J46" s="3">
+        <v>638000</v>
+      </c>
+      <c r="K46" s="3">
         <v>638200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>700900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1837200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1659000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1573500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1503500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>748500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>691100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>666100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>722600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>832000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>541800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>861200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>590800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>8</v>
+      <c r="D47" s="3">
+        <v>76100</v>
       </c>
       <c r="E47" s="3">
         <v>78500</v>
@@ -3087,7 +3191,7 @@
         <v>63600</v>
       </c>
       <c r="H47" s="3">
-        <v>64400</v>
+        <v>64300</v>
       </c>
       <c r="I47" s="3">
         <v>77700</v>
@@ -3096,185 +3200,194 @@
         <v>92600</v>
       </c>
       <c r="K47" s="3">
+        <v>92600</v>
+      </c>
+      <c r="L47" s="3">
         <v>83400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>88800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>575100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>585100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>534800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>502100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>704800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>702500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>697300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>686200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>690600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>682200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>8</v>
+      <c r="D48" s="3">
+        <v>4658200</v>
       </c>
       <c r="E48" s="3">
-        <v>4741700</v>
+        <v>4739800</v>
       </c>
       <c r="F48" s="3">
-        <v>4781700</v>
+        <v>4779900</v>
       </c>
       <c r="G48" s="3">
-        <v>4813100</v>
+        <v>4811200</v>
       </c>
       <c r="H48" s="3">
-        <v>4821800</v>
+        <v>4819900</v>
       </c>
       <c r="I48" s="3">
-        <v>4840600</v>
+        <v>4838700</v>
       </c>
       <c r="J48" s="3">
+        <v>4863000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4865000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4830100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4048300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3820000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3654300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3631200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3416900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3400400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3331100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3304300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3232800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3520900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3593000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3566900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>6503100</v>
       </c>
       <c r="E49" s="3">
-        <v>6501000</v>
+        <v>6498400</v>
       </c>
       <c r="F49" s="3">
-        <v>6504100</v>
+        <v>6501600</v>
       </c>
       <c r="G49" s="3">
-        <v>6506500</v>
+        <v>6503900</v>
       </c>
       <c r="H49" s="3">
-        <v>6497900</v>
+        <v>6495300</v>
       </c>
       <c r="I49" s="3">
-        <v>6481400</v>
+        <v>6478800</v>
       </c>
       <c r="J49" s="3">
+        <v>6478000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6480600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6433800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6847100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6528100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5965300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5976100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5640600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5819100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5747500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5740800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5741600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>6504400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6745800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6763500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3525,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>8</v>
+      <c r="D52" s="3">
+        <v>140500</v>
       </c>
       <c r="E52" s="3">
         <v>118500</v>
       </c>
       <c r="F52" s="3">
-        <v>126400</v>
+        <v>126300</v>
       </c>
       <c r="G52" s="3">
         <v>130300</v>
@@ -3430,55 +3549,58 @@
         <v>128700</v>
       </c>
       <c r="I52" s="3">
-        <v>139000</v>
+        <v>138900</v>
       </c>
       <c r="J52" s="3">
         <v>161700</v>
       </c>
       <c r="K52" s="3">
+        <v>161700</v>
+      </c>
+      <c r="L52" s="3">
         <v>160600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>165000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>169700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>136300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>147000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>146100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>226600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>224000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>195000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>192800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>198700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>217400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>220500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>8</v>
+      <c r="D54" s="3">
+        <v>12285900</v>
       </c>
       <c r="E54" s="3">
-        <v>12545100</v>
+        <v>12540100</v>
       </c>
       <c r="F54" s="3">
-        <v>12472900</v>
+        <v>12467900</v>
       </c>
       <c r="G54" s="3">
-        <v>12568700</v>
+        <v>12563700</v>
       </c>
       <c r="H54" s="3">
-        <v>12690300</v>
+        <v>12685300</v>
       </c>
       <c r="I54" s="3">
-        <v>12633000</v>
+        <v>12628000</v>
       </c>
       <c r="J54" s="3">
+        <v>12233300</v>
+      </c>
+      <c r="K54" s="3">
         <v>12238100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12208900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12971300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12265600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11904500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11842900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10486900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10639200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10673500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10665300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10696500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11451900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12108100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11823800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,135 +3794,139 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>8</v>
+      <c r="D57" s="3">
+        <v>668600</v>
       </c>
       <c r="E57" s="3">
-        <v>696300</v>
+        <v>696100</v>
       </c>
       <c r="F57" s="3">
-        <v>734000</v>
+        <v>733700</v>
       </c>
       <c r="G57" s="3">
-        <v>700300</v>
+        <v>700000</v>
       </c>
       <c r="H57" s="3">
-        <v>784300</v>
+        <v>784000</v>
       </c>
       <c r="I57" s="3">
-        <v>704200</v>
+        <v>703900</v>
       </c>
       <c r="J57" s="3">
+        <v>678800</v>
+      </c>
+      <c r="K57" s="3">
         <v>679100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>712600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>841500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>720900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>716700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>659000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>704900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>623300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>636300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>668300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>679500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>651200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>706000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>670700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>8</v>
+      <c r="D58" s="3">
+        <v>244800</v>
       </c>
       <c r="E58" s="3">
-        <v>244200</v>
+        <v>244100</v>
       </c>
       <c r="F58" s="3">
-        <v>242600</v>
+        <v>242500</v>
       </c>
       <c r="G58" s="3">
-        <v>243400</v>
+        <v>243300</v>
       </c>
       <c r="H58" s="3">
-        <v>246500</v>
+        <v>246400</v>
       </c>
       <c r="I58" s="3">
-        <v>285000</v>
+        <v>284900</v>
       </c>
       <c r="J58" s="3">
+        <v>290400</v>
+      </c>
+      <c r="K58" s="3">
         <v>290500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>182400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1070300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1023800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>993800</v>
       </c>
       <c r="O58" s="3">
         <v>993800</v>
       </c>
       <c r="P58" s="3">
+        <v>993800</v>
+      </c>
+      <c r="Q58" s="3">
         <v>29800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
-      </c>
-      <c r="R58" s="3">
-        <v>700</v>
       </c>
       <c r="S58" s="3">
         <v>700</v>
       </c>
       <c r="T58" s="3">
+        <v>700</v>
+      </c>
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>8900</v>
-      </c>
-      <c r="V58" s="3">
-        <v>316500</v>
       </c>
       <c r="W58" s="3">
         <v>316500</v>
@@ -3801,280 +3934,295 @@
       <c r="X58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>8</v>
+      <c r="D59" s="3">
+        <v>203200</v>
       </c>
       <c r="E59" s="3">
-        <v>441200</v>
+        <v>441000</v>
       </c>
       <c r="F59" s="3">
-        <v>243400</v>
+        <v>243300</v>
       </c>
       <c r="G59" s="3">
-        <v>258300</v>
+        <v>258200</v>
       </c>
       <c r="H59" s="3">
-        <v>294400</v>
+        <v>294300</v>
       </c>
       <c r="I59" s="3">
-        <v>269300</v>
+        <v>269200</v>
       </c>
       <c r="J59" s="3">
+        <v>284900</v>
+      </c>
+      <c r="K59" s="3">
         <v>285000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>365700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>438600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>437000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>435700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>472700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>599500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>441900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>422000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>280600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>355000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>349000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>334900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>371800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>8</v>
+      <c r="D60" s="3">
+        <v>1116700</v>
       </c>
       <c r="E60" s="3">
-        <v>1381700</v>
+        <v>1381100</v>
       </c>
       <c r="F60" s="3">
-        <v>1220000</v>
+        <v>1219500</v>
       </c>
       <c r="G60" s="3">
-        <v>1201900</v>
+        <v>1201400</v>
       </c>
       <c r="H60" s="3">
-        <v>1325200</v>
+        <v>1324600</v>
       </c>
       <c r="I60" s="3">
-        <v>1258400</v>
+        <v>1257900</v>
       </c>
       <c r="J60" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1254500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1260700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2350400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2181600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2146300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2125500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1173600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1066000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1059000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>949600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1035900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1009100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1357500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1359000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>4436100</v>
       </c>
       <c r="E61" s="3">
-        <v>4488900</v>
+        <v>4487100</v>
       </c>
       <c r="F61" s="3">
-        <v>4498300</v>
+        <v>4496600</v>
       </c>
       <c r="G61" s="3">
-        <v>4514000</v>
+        <v>4512300</v>
       </c>
       <c r="H61" s="3">
-        <v>4477900</v>
+        <v>4476200</v>
       </c>
       <c r="I61" s="3">
-        <v>4485800</v>
+        <v>4484000</v>
       </c>
       <c r="J61" s="3">
+        <v>4112800</v>
+      </c>
+      <c r="K61" s="3">
         <v>4114400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4094000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3363500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3216500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3121600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3120900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3132000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3244500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3207500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3199400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3198600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4134800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4252900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4030900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>8</v>
+      <c r="D62" s="3">
+        <v>1938300</v>
       </c>
       <c r="E62" s="3">
-        <v>2027000</v>
+        <v>2026200</v>
       </c>
       <c r="F62" s="3">
-        <v>2015200</v>
+        <v>2014400</v>
       </c>
       <c r="G62" s="3">
-        <v>2012900</v>
+        <v>2012100</v>
       </c>
       <c r="H62" s="3">
-        <v>1994000</v>
+        <v>1993200</v>
       </c>
       <c r="I62" s="3">
-        <v>1983000</v>
+        <v>1982300</v>
       </c>
       <c r="J62" s="3">
+        <v>1990900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1991700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1952300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2046900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1923100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1918400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1924600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1842900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1940700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1934200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1913400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1882100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1964700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2037300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2028900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>8</v>
+      <c r="D66" s="3">
+        <v>7491100</v>
       </c>
       <c r="E66" s="3">
-        <v>7897600</v>
+        <v>7894500</v>
       </c>
       <c r="F66" s="3">
-        <v>7733500</v>
+        <v>7730500</v>
       </c>
       <c r="G66" s="3">
-        <v>7728800</v>
+        <v>7725800</v>
       </c>
       <c r="H66" s="3">
-        <v>7797100</v>
+        <v>7794000</v>
       </c>
       <c r="I66" s="3">
-        <v>7727200</v>
+        <v>7724200</v>
       </c>
       <c r="J66" s="3">
+        <v>7357700</v>
+      </c>
+      <c r="K66" s="3">
         <v>7360600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7307100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7763200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7323500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7187000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7171600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6149300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6251900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6201500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6063100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6117400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7109400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7648500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7419600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4519,43 +4686,43 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>229900</v>
+      </c>
+      <c r="G70" s="3">
+        <v>229900</v>
+      </c>
+      <c r="H70" s="3">
+        <v>229900</v>
+      </c>
+      <c r="I70" s="3">
+        <v>229900</v>
+      </c>
+      <c r="J70" s="3">
+        <v>229900</v>
+      </c>
+      <c r="K70" s="3">
         <v>230000</v>
       </c>
-      <c r="G70" s="3">
-        <v>230000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>230000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>230000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>230000</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>228400</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>242900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>232400</v>
-      </c>
-      <c r="N70" s="3">
-        <v>225600</v>
       </c>
       <c r="O70" s="3">
         <v>225600</v>
       </c>
       <c r="P70" s="3">
+        <v>225600</v>
+      </c>
+      <c r="Q70" s="3">
         <v>212900</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="R70" s="3">
         <v>220600</v>
-      </c>
-      <c r="R70" s="3">
-        <v>218100</v>
       </c>
       <c r="S70" s="3">
         <v>218100</v>
@@ -4567,7 +4734,7 @@
         <v>218100</v>
       </c>
       <c r="V70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="W70" s="3">
         <v>225100</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>1509800</v>
       </c>
       <c r="E72" s="3">
-        <v>1391100</v>
+        <v>1390600</v>
       </c>
       <c r="F72" s="3">
-        <v>1255300</v>
+        <v>1254800</v>
       </c>
       <c r="G72" s="3">
-        <v>1310200</v>
+        <v>1309700</v>
       </c>
       <c r="H72" s="3">
-        <v>1336900</v>
+        <v>1336400</v>
       </c>
       <c r="I72" s="3">
-        <v>1320500</v>
+        <v>1319900</v>
       </c>
       <c r="J72" s="3">
+        <v>1312900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1313400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1335600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1446700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1379100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1282500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1281000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1176500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1181900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1348500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1583700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1610500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="V72" s="3">
-        <v>1420500</v>
       </c>
       <c r="W72" s="3">
         <v>1420500</v>
       </c>
       <c r="X72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="Y72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>4794800</v>
       </c>
       <c r="E76" s="3">
+        <v>4645700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4507500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4608000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4661400</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4673900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4645700</v>
+      </c>
+      <c r="K76" s="3">
         <v>4647500</v>
       </c>
-      <c r="F76" s="3">
-        <v>4509300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4609800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4663200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4675800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4647500</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4673300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4965200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4709700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4491900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4445700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4124700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4166700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4253900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4384100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4361100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4124400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4234500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4179200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>153800</v>
+      </c>
+      <c r="E81" s="3">
         <v>197000</v>
       </c>
-      <c r="E81" s="3">
-        <v>276300</v>
-      </c>
       <c r="F81" s="3">
-        <v>168800</v>
+        <v>276200</v>
       </c>
       <c r="G81" s="3">
-        <v>126400</v>
+        <v>168700</v>
       </c>
       <c r="H81" s="3">
+        <v>126300</v>
+      </c>
+      <c r="I81" s="3">
         <v>135800</v>
       </c>
-      <c r="I81" s="3">
-        <v>142100</v>
-      </c>
       <c r="J81" s="3">
+        <v>142000</v>
+      </c>
+      <c r="K81" s="3">
         <v>129500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>124700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>132600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>177600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>117000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>142400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>136600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-76000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-123500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>81100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>356500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>97500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>112200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>66800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>243400</v>
+        <v>236200</v>
       </c>
       <c r="E83" s="3">
-        <v>237100</v>
+        <v>243300</v>
       </c>
       <c r="F83" s="3">
-        <v>237900</v>
+        <v>237000</v>
       </c>
       <c r="G83" s="3">
-        <v>240200</v>
+        <v>237800</v>
       </c>
       <c r="H83" s="3">
-        <v>245700</v>
+        <v>240100</v>
       </c>
       <c r="I83" s="3">
-        <v>237100</v>
+        <v>245600</v>
       </c>
       <c r="J83" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K83" s="3">
         <v>236300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>237000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>208100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>208600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>203200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>202500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>188900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>189700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>183800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>194200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>113100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>202400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>204300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>196700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>463200</v>
+        <v>284100</v>
       </c>
       <c r="E89" s="3">
-        <v>439600</v>
+        <v>463000</v>
       </c>
       <c r="F89" s="3">
-        <v>371300</v>
+        <v>439500</v>
       </c>
       <c r="G89" s="3">
-        <v>235500</v>
+        <v>371200</v>
       </c>
       <c r="H89" s="3">
-        <v>496200</v>
+        <v>235400</v>
       </c>
       <c r="I89" s="3">
-        <v>461600</v>
+        <v>496000</v>
       </c>
       <c r="J89" s="3">
+        <v>461400</v>
+      </c>
+      <c r="K89" s="3">
         <v>283400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>264300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>360600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>331500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>292500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>257900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>318300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>259700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>150300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>272400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>265700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>325200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>341900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>202000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-471700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-434000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-196200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-197000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-204100</v>
-      </c>
       <c r="F94" s="3">
-        <v>-199400</v>
+        <v>-204000</v>
       </c>
       <c r="G94" s="3">
+        <v>-199300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-182100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-226900</v>
-      </c>
       <c r="I94" s="3">
-        <v>-204900</v>
+        <v>-226800</v>
       </c>
       <c r="J94" s="3">
+        <v>-204800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-230800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-241700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-264500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-160200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-179400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-291800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-230400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-163400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-215800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-260500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>810400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-294700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-263500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-231200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,22 +6250,23 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-116200</v>
+        <v>-116100</v>
       </c>
       <c r="E96" s="3">
-        <v>-116200</v>
+        <v>-116100</v>
       </c>
       <c r="F96" s="3">
-        <v>-117000</v>
+        <v>-116100</v>
       </c>
       <c r="G96" s="3">
-        <v>-119300</v>
+        <v>-116900</v>
       </c>
       <c r="H96" s="3">
         <v>-119300</v>
@@ -6042,52 +6275,55 @@
         <v>-119300</v>
       </c>
       <c r="J96" s="3">
+        <v>-119300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-120100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-90400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-80400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-76900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-74700</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-75400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-72300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-71400</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-73700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-70700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-73000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-73800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6532,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-372900</v>
+        <v>-137300</v>
       </c>
       <c r="E100" s="3">
-        <v>-154700</v>
+        <v>-372800</v>
       </c>
       <c r="F100" s="3">
-        <v>-315600</v>
+        <v>-154600</v>
       </c>
       <c r="G100" s="3">
-        <v>-204100</v>
+        <v>-315500</v>
       </c>
       <c r="H100" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-181300</v>
       </c>
-      <c r="I100" s="3">
-        <v>217500</v>
-      </c>
       <c r="J100" s="3">
+        <v>217400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-119300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1047100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-80400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-72200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-60000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>687400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-71500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-57300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-828300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-362400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>176700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-59900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6412,11 +6660,11 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-106800</v>
+        <v>-49400</v>
       </c>
       <c r="E102" s="3">
-        <v>80900</v>
+        <v>-106700</v>
       </c>
       <c r="F102" s="3">
-        <v>-143700</v>
+        <v>80800</v>
       </c>
       <c r="G102" s="3">
+        <v>-143600</v>
+      </c>
+      <c r="H102" s="3">
         <v>-150700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>87900</v>
       </c>
-      <c r="I102" s="3">
-        <v>474200</v>
-      </c>
       <c r="J102" s="3">
+        <v>474000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-66700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1024500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>15800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>110200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>76200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>619700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>65400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>12000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-124300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-46100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>247100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-331200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>254300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-89100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1087600</v>
+        <v>1041900</v>
       </c>
       <c r="E8" s="3">
-        <v>1080600</v>
+        <v>1062600</v>
       </c>
       <c r="F8" s="3">
-        <v>1079000</v>
+        <v>1055700</v>
       </c>
       <c r="G8" s="3">
-        <v>1088400</v>
+        <v>1054100</v>
       </c>
       <c r="H8" s="3">
-        <v>1075100</v>
+        <v>1063300</v>
       </c>
       <c r="I8" s="3">
-        <v>1058600</v>
+        <v>1050300</v>
       </c>
       <c r="J8" s="3">
+        <v>1034200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1029600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1070000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1078300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1115100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1050000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1012300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1043100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>963600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>970300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1008400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>926500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>925800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>905000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>926500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>934200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>590900</v>
+        <v>557300</v>
       </c>
       <c r="E9" s="3">
-        <v>598800</v>
+        <v>577300</v>
       </c>
       <c r="F9" s="3">
-        <v>575200</v>
+        <v>584900</v>
       </c>
       <c r="G9" s="3">
-        <v>588600</v>
+        <v>561900</v>
       </c>
       <c r="H9" s="3">
-        <v>598800</v>
+        <v>575000</v>
       </c>
       <c r="I9" s="3">
-        <v>592500</v>
+        <v>584900</v>
       </c>
       <c r="J9" s="3">
+        <v>578800</v>
+      </c>
+      <c r="K9" s="3">
         <v>551700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>599000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>619800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>675700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>629700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1047700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>623600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>559600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>565300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>635600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>569300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1014400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1091000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1127000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1141600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>496700</v>
+        <v>484500</v>
       </c>
       <c r="E10" s="3">
-        <v>481800</v>
+        <v>485300</v>
       </c>
       <c r="F10" s="3">
-        <v>503800</v>
+        <v>470700</v>
       </c>
       <c r="G10" s="3">
-        <v>499900</v>
+        <v>492200</v>
       </c>
       <c r="H10" s="3">
-        <v>476300</v>
+        <v>488300</v>
       </c>
       <c r="I10" s="3">
-        <v>466100</v>
+        <v>465400</v>
       </c>
       <c r="J10" s="3">
+        <v>455400</v>
+      </c>
+      <c r="K10" s="3">
         <v>477900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>471000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>458400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>439400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>420300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-35400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>419600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>404000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>405000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>372800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>357200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-88600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-186100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-200500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-207400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="F14" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>800</v>
       </c>
       <c r="H14" s="3">
-        <v>9400</v>
+        <v>800</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>9200</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>11000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-8300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>9800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>310300</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>32000</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>9200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>229100</v>
+        <v>229200</v>
       </c>
       <c r="E15" s="3">
-        <v>237000</v>
+        <v>223900</v>
       </c>
       <c r="F15" s="3">
-        <v>229100</v>
+        <v>231500</v>
       </c>
       <c r="G15" s="3">
-        <v>230700</v>
+        <v>223900</v>
       </c>
       <c r="H15" s="3">
-        <v>231500</v>
+        <v>225400</v>
       </c>
       <c r="I15" s="3">
-        <v>236200</v>
+        <v>226200</v>
       </c>
       <c r="J15" s="3">
+        <v>230800</v>
+      </c>
+      <c r="K15" s="3">
         <v>227600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>226100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>225300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>195700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>195900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>190900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>187800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>174400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>174600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>171900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>177900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>168200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>162200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>163600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>156000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>827900</v>
+        <v>793500</v>
       </c>
       <c r="E17" s="3">
-        <v>842000</v>
+        <v>808800</v>
       </c>
       <c r="F17" s="3">
-        <v>811400</v>
+        <v>822600</v>
       </c>
       <c r="G17" s="3">
-        <v>827100</v>
+        <v>792700</v>
       </c>
       <c r="H17" s="3">
-        <v>847500</v>
+        <v>808000</v>
       </c>
       <c r="I17" s="3">
-        <v>837300</v>
+        <v>828000</v>
       </c>
       <c r="J17" s="3">
+        <v>818000</v>
+      </c>
+      <c r="K17" s="3">
         <v>799700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>834500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>856100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>874600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>838200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>793700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>826000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>759400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>764800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1132700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>762800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>753100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>734500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>719100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>728300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>259700</v>
+        <v>248400</v>
       </c>
       <c r="E18" s="3">
-        <v>238600</v>
+        <v>253800</v>
       </c>
       <c r="F18" s="3">
-        <v>267600</v>
+        <v>233100</v>
       </c>
       <c r="G18" s="3">
-        <v>261300</v>
+        <v>261400</v>
       </c>
       <c r="H18" s="3">
-        <v>227600</v>
+        <v>255300</v>
       </c>
       <c r="I18" s="3">
-        <v>221300</v>
+        <v>222300</v>
       </c>
       <c r="J18" s="3">
+        <v>216200</v>
+      </c>
+      <c r="K18" s="3">
         <v>229900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>235500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>222200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>240400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>211700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>218600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>217100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>204200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>205500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-124300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>163700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>172700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>170400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>207400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>205900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
-        <v>-4700</v>
-      </c>
       <c r="F20" s="3">
-        <v>-16500</v>
+        <v>-4600</v>
       </c>
       <c r="G20" s="3">
-        <v>20400</v>
+        <v>-16100</v>
       </c>
       <c r="H20" s="3">
-        <v>-1600</v>
+        <v>19900</v>
       </c>
       <c r="I20" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-14900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-28500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>28300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-194200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>25300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>27500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>33500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-61500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>495200</v>
+        <v>480700</v>
       </c>
       <c r="E21" s="3">
-        <v>477100</v>
+        <v>483700</v>
       </c>
       <c r="F21" s="3">
-        <v>488100</v>
+        <v>466100</v>
       </c>
       <c r="G21" s="3">
-        <v>519500</v>
+        <v>476900</v>
       </c>
       <c r="H21" s="3">
-        <v>466100</v>
+        <v>507500</v>
       </c>
       <c r="I21" s="3">
-        <v>466100</v>
+        <v>455400</v>
       </c>
       <c r="J21" s="3">
+        <v>455400</v>
+      </c>
+      <c r="K21" s="3">
         <v>472400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>456900</v>
       </c>
       <c r="L21" s="3">
         <v>456900</v>
       </c>
       <c r="M21" s="3">
+        <v>456900</v>
+      </c>
+      <c r="N21" s="3">
         <v>450200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>391800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>421100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>437300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>421500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>201000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>70000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>383300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>384800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>382500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>391000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>316500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>51400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>24500</v>
+      </c>
+      <c r="H22" s="3">
+        <v>51400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>51400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>52900</v>
+      </c>
+      <c r="K22" s="3">
         <v>52600</v>
       </c>
-      <c r="E22" s="3">
-        <v>52600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>25100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>52600</v>
-      </c>
-      <c r="H22" s="3">
-        <v>52600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>54100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>52600</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>54200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>55500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>50000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>52300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>48500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>45200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>47600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>46100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>49100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>49900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>53000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>51500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>206400</v>
+        <v>197000</v>
       </c>
       <c r="E23" s="3">
-        <v>181300</v>
+        <v>201600</v>
       </c>
       <c r="F23" s="3">
-        <v>226000</v>
+        <v>177100</v>
       </c>
       <c r="G23" s="3">
-        <v>229100</v>
+        <v>220800</v>
       </c>
       <c r="H23" s="3">
-        <v>173400</v>
+        <v>223900</v>
       </c>
       <c r="I23" s="3">
+        <v>169400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>162500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>182800</v>
+      </c>
+      <c r="L23" s="3">
         <v>166400</v>
       </c>
-      <c r="J23" s="3">
-        <v>182800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>166400</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>163700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>186500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>133200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>165500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>186300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>185300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-33900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-161500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>142900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>151100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>154100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>158300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>93000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>52600</v>
+        <v>46800</v>
       </c>
       <c r="E24" s="3">
-        <v>-16500</v>
+        <v>51400</v>
       </c>
       <c r="F24" s="3">
-        <v>-51800</v>
+        <v>-16100</v>
       </c>
       <c r="G24" s="3">
-        <v>58900</v>
+        <v>-50600</v>
       </c>
       <c r="H24" s="3">
-        <v>45500</v>
+        <v>57500</v>
       </c>
       <c r="I24" s="3">
-        <v>29000</v>
+        <v>44500</v>
       </c>
       <c r="J24" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K24" s="3">
         <v>38500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>35300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>37400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>52200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-48400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>47000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>42300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>32000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>43000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>21500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>153800</v>
+        <v>150300</v>
       </c>
       <c r="E26" s="3">
-        <v>197800</v>
+        <v>150300</v>
       </c>
       <c r="F26" s="3">
-        <v>277800</v>
+        <v>193200</v>
       </c>
       <c r="G26" s="3">
-        <v>170300</v>
+        <v>271400</v>
       </c>
       <c r="H26" s="3">
-        <v>127900</v>
+        <v>166400</v>
       </c>
       <c r="I26" s="3">
-        <v>137300</v>
+        <v>125000</v>
       </c>
       <c r="J26" s="3">
+        <v>134200</v>
+      </c>
+      <c r="K26" s="3">
         <v>144400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>131100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>126300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>134300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>118600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>144000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>142400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-74500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-122100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>87100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>110900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>122100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>115200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>71400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>153800</v>
+        <v>150300</v>
       </c>
       <c r="E27" s="3">
-        <v>197000</v>
+        <v>150300</v>
       </c>
       <c r="F27" s="3">
-        <v>276200</v>
+        <v>192400</v>
       </c>
       <c r="G27" s="3">
-        <v>168700</v>
+        <v>269900</v>
       </c>
       <c r="H27" s="3">
-        <v>126300</v>
+        <v>164800</v>
       </c>
       <c r="I27" s="3">
-        <v>135800</v>
+        <v>123400</v>
       </c>
       <c r="J27" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K27" s="3">
         <v>142000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>129500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>124700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>132600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>177600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>117000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>142400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>141000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-76000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-123500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>85600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>109400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>120600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>114500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>69900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2165,34 +2226,37 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-4400</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-4500</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>247100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-23100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-2300</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
-        <v>4700</v>
-      </c>
       <c r="F32" s="3">
-        <v>16500</v>
+        <v>4600</v>
       </c>
       <c r="G32" s="3">
-        <v>-20400</v>
+        <v>16100</v>
       </c>
       <c r="H32" s="3">
-        <v>1600</v>
+        <v>-19900</v>
       </c>
       <c r="I32" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J32" s="3">
         <v>800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>14900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>28500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-28300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>194200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-25300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-27500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-33500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>61500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>153800</v>
+        <v>150300</v>
       </c>
       <c r="E33" s="3">
-        <v>197000</v>
+        <v>150300</v>
       </c>
       <c r="F33" s="3">
-        <v>276200</v>
+        <v>192400</v>
       </c>
       <c r="G33" s="3">
-        <v>168700</v>
+        <v>269900</v>
       </c>
       <c r="H33" s="3">
-        <v>126300</v>
+        <v>164800</v>
       </c>
       <c r="I33" s="3">
-        <v>135800</v>
+        <v>123400</v>
       </c>
       <c r="J33" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K33" s="3">
         <v>142000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>129500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>124700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>132600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>177600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>117000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>142400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>136600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-76000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-123500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>356500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>97500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>112200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>66800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>153800</v>
+        <v>150300</v>
       </c>
       <c r="E35" s="3">
-        <v>197000</v>
+        <v>150300</v>
       </c>
       <c r="F35" s="3">
-        <v>276200</v>
+        <v>192400</v>
       </c>
       <c r="G35" s="3">
-        <v>168700</v>
+        <v>269900</v>
       </c>
       <c r="H35" s="3">
-        <v>126300</v>
+        <v>164800</v>
       </c>
       <c r="I35" s="3">
-        <v>135800</v>
+        <v>123400</v>
       </c>
       <c r="J35" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K35" s="3">
         <v>142000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>129500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>124700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>132600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>177600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>117000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>142400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>136600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-76000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-123500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>356500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>97500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>112200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>66800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>229100</v>
+        <v>269100</v>
       </c>
       <c r="E41" s="3">
-        <v>385300</v>
+        <v>223900</v>
       </c>
       <c r="F41" s="3">
-        <v>304500</v>
+        <v>376400</v>
       </c>
       <c r="G41" s="3">
-        <v>448100</v>
+        <v>297500</v>
       </c>
       <c r="H41" s="3">
-        <v>598800</v>
+        <v>437800</v>
       </c>
       <c r="I41" s="3">
-        <v>510900</v>
+        <v>584900</v>
       </c>
       <c r="J41" s="3">
-        <v>36900</v>
+        <v>499100</v>
       </c>
       <c r="K41" s="3">
         <v>36900</v>
       </c>
       <c r="L41" s="3">
+        <v>36900</v>
+      </c>
+      <c r="M41" s="3">
         <v>102900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1198800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1131600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>991500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>915300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>279000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>221300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>206900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>331200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>377300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>130200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>476300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>222000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,505 +2979,529 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>497500</v>
+        <v>485300</v>
       </c>
       <c r="E43" s="3">
-        <v>546200</v>
+        <v>486000</v>
       </c>
       <c r="F43" s="3">
-        <v>496000</v>
+        <v>533600</v>
       </c>
       <c r="G43" s="3">
-        <v>424500</v>
+        <v>484500</v>
       </c>
       <c r="H43" s="3">
-        <v>413600</v>
+        <v>414800</v>
       </c>
       <c r="I43" s="3">
-        <v>404100</v>
+        <v>404000</v>
       </c>
       <c r="J43" s="3">
+        <v>394800</v>
+      </c>
+      <c r="K43" s="3">
         <v>430800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>431000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>407000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>428600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>337000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>390300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>364100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>226700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>185200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>189000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>175600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>212800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>180800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>203600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>199000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>42400</v>
+        <v>52900</v>
       </c>
       <c r="E44" s="3">
-        <v>50200</v>
+        <v>41400</v>
       </c>
       <c r="F44" s="3">
+        <v>49100</v>
+      </c>
+      <c r="G44" s="3">
+        <v>53700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>49800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>62900</v>
+      </c>
+      <c r="K44" s="3">
         <v>54900</v>
       </c>
-      <c r="G44" s="3">
-        <v>51000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>47100</v>
-      </c>
-      <c r="I44" s="3">
-        <v>64300</v>
-      </c>
-      <c r="J44" s="3">
-        <v>54900</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>55000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>70900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>71300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>50800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>80100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>44300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>91800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>99000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>92300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>81100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>66200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>61500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>52200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>138900</v>
+        <v>135700</v>
       </c>
       <c r="E45" s="3">
-        <v>123200</v>
+        <v>135700</v>
       </c>
       <c r="F45" s="3">
-        <v>122400</v>
+        <v>120400</v>
       </c>
       <c r="G45" s="3">
-        <v>131100</v>
+        <v>119600</v>
       </c>
       <c r="H45" s="3">
-        <v>117700</v>
+        <v>128000</v>
       </c>
       <c r="I45" s="3">
-        <v>114600</v>
+        <v>115000</v>
       </c>
       <c r="J45" s="3">
-        <v>115400</v>
+        <v>111900</v>
       </c>
       <c r="K45" s="3">
         <v>115400</v>
       </c>
       <c r="L45" s="3">
+        <v>115400</v>
+      </c>
+      <c r="M45" s="3">
         <v>120100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>138500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>139600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>134700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>144000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>192700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>171200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>123500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>160700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>164500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>119800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>117500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>907900</v>
+        <v>943000</v>
       </c>
       <c r="E46" s="3">
-        <v>1104900</v>
+        <v>887000</v>
       </c>
       <c r="F46" s="3">
-        <v>977800</v>
+        <v>1079400</v>
       </c>
       <c r="G46" s="3">
-        <v>1054700</v>
+        <v>955200</v>
       </c>
       <c r="H46" s="3">
-        <v>1177100</v>
+        <v>1030400</v>
       </c>
       <c r="I46" s="3">
-        <v>1093900</v>
+        <v>1150000</v>
       </c>
       <c r="J46" s="3">
+        <v>1068700</v>
+      </c>
+      <c r="K46" s="3">
         <v>638000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>638200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1837200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1659000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1573500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1503500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>748500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>691100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>666100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>722600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>832000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>541800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>861200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>590800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76100</v>
+        <v>115800</v>
       </c>
       <c r="E47" s="3">
-        <v>78500</v>
+        <v>74400</v>
       </c>
       <c r="F47" s="3">
-        <v>82400</v>
+        <v>76700</v>
       </c>
       <c r="G47" s="3">
-        <v>63600</v>
+        <v>80500</v>
       </c>
       <c r="H47" s="3">
-        <v>64300</v>
+        <v>62100</v>
       </c>
       <c r="I47" s="3">
-        <v>77700</v>
+        <v>62900</v>
       </c>
       <c r="J47" s="3">
-        <v>92600</v>
+        <v>75900</v>
       </c>
       <c r="K47" s="3">
         <v>92600</v>
       </c>
       <c r="L47" s="3">
+        <v>92600</v>
+      </c>
+      <c r="M47" s="3">
         <v>83400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>73800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>88800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>575100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>585100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>534800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>502100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>704800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>702500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>697300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>686200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>690600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>682200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4658200</v>
+        <v>4517000</v>
       </c>
       <c r="E48" s="3">
-        <v>4739800</v>
+        <v>4550800</v>
       </c>
       <c r="F48" s="3">
-        <v>4779900</v>
+        <v>4630500</v>
       </c>
       <c r="G48" s="3">
-        <v>4811200</v>
+        <v>4669600</v>
       </c>
       <c r="H48" s="3">
-        <v>4819900</v>
+        <v>4700300</v>
       </c>
       <c r="I48" s="3">
-        <v>4838700</v>
+        <v>4708700</v>
       </c>
       <c r="J48" s="3">
+        <v>4727100</v>
+      </c>
+      <c r="K48" s="3">
         <v>4863000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4865000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4830100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4048300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3820000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3654300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3631200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3416900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3400400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3331100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3304300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3232800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3520900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3593000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3566900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6503100</v>
+        <v>6351600</v>
       </c>
       <c r="E49" s="3">
-        <v>6498400</v>
+        <v>6353100</v>
       </c>
       <c r="F49" s="3">
-        <v>6501600</v>
+        <v>6348500</v>
       </c>
       <c r="G49" s="3">
-        <v>6503900</v>
+        <v>6351600</v>
       </c>
       <c r="H49" s="3">
-        <v>6495300</v>
+        <v>6353900</v>
       </c>
       <c r="I49" s="3">
-        <v>6478800</v>
+        <v>6345500</v>
       </c>
       <c r="J49" s="3">
+        <v>6329400</v>
+      </c>
+      <c r="K49" s="3">
         <v>6478000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6480600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6433800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6847100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6528100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5965300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5976100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5640600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5819100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5747500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5740800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5741600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>6504400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6745800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6763500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140500</v>
+        <v>98900</v>
       </c>
       <c r="E52" s="3">
-        <v>118500</v>
+        <v>137200</v>
       </c>
       <c r="F52" s="3">
-        <v>126300</v>
+        <v>115800</v>
       </c>
       <c r="G52" s="3">
-        <v>130300</v>
+        <v>123400</v>
       </c>
       <c r="H52" s="3">
-        <v>128700</v>
+        <v>127300</v>
       </c>
       <c r="I52" s="3">
-        <v>138900</v>
+        <v>125700</v>
       </c>
       <c r="J52" s="3">
-        <v>161700</v>
+        <v>135700</v>
       </c>
       <c r="K52" s="3">
         <v>161700</v>
       </c>
       <c r="L52" s="3">
+        <v>161700</v>
+      </c>
+      <c r="M52" s="3">
         <v>160600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>165000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>169700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>136300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>147000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>146100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>226600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>224000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>195000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>192800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>198700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>217400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>220500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12285900</v>
+        <v>12026300</v>
       </c>
       <c r="E54" s="3">
-        <v>12540100</v>
+        <v>12002500</v>
       </c>
       <c r="F54" s="3">
-        <v>12467900</v>
+        <v>12250900</v>
       </c>
       <c r="G54" s="3">
-        <v>12563700</v>
+        <v>12180400</v>
       </c>
       <c r="H54" s="3">
-        <v>12685300</v>
+        <v>12273900</v>
       </c>
       <c r="I54" s="3">
-        <v>12628000</v>
+        <v>12392700</v>
       </c>
       <c r="J54" s="3">
+        <v>12336800</v>
+      </c>
+      <c r="K54" s="3">
         <v>12233300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12238100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12208900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12971300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12265600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11904500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11842900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10486900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10639200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10673500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10665300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10696500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11451900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12108100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>11823800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,141 +3925,145 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>668600</v>
+        <v>657000</v>
       </c>
       <c r="E57" s="3">
-        <v>696100</v>
+        <v>653200</v>
       </c>
       <c r="F57" s="3">
-        <v>733700</v>
+        <v>680000</v>
       </c>
       <c r="G57" s="3">
-        <v>700000</v>
+        <v>716800</v>
       </c>
       <c r="H57" s="3">
-        <v>784000</v>
+        <v>683800</v>
       </c>
       <c r="I57" s="3">
-        <v>703900</v>
+        <v>765900</v>
       </c>
       <c r="J57" s="3">
+        <v>687700</v>
+      </c>
+      <c r="K57" s="3">
         <v>678800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>679100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>712600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>841500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>720900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>716700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>659000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>704900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>623300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>636300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>668300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>679500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>651200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>706000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>670700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>244800</v>
+        <v>240000</v>
       </c>
       <c r="E58" s="3">
-        <v>244100</v>
+        <v>239200</v>
       </c>
       <c r="F58" s="3">
-        <v>242500</v>
+        <v>238400</v>
       </c>
       <c r="G58" s="3">
-        <v>243300</v>
+        <v>236900</v>
       </c>
       <c r="H58" s="3">
-        <v>246400</v>
+        <v>237700</v>
       </c>
       <c r="I58" s="3">
-        <v>284900</v>
+        <v>240700</v>
       </c>
       <c r="J58" s="3">
+        <v>278300</v>
+      </c>
+      <c r="K58" s="3">
         <v>290400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>290500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>182400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1070300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1023800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>993800</v>
       </c>
       <c r="P58" s="3">
         <v>993800</v>
       </c>
       <c r="Q58" s="3">
+        <v>993800</v>
+      </c>
+      <c r="R58" s="3">
         <v>29800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>700</v>
       </c>
       <c r="T58" s="3">
         <v>700</v>
       </c>
       <c r="U58" s="3">
+        <v>700</v>
+      </c>
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>8900</v>
-      </c>
-      <c r="W58" s="3">
-        <v>316500</v>
       </c>
       <c r="X58" s="3">
         <v>316500</v>
@@ -3937,292 +4071,307 @@
       <c r="Y58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>203200</v>
+        <v>192400</v>
       </c>
       <c r="E59" s="3">
-        <v>441000</v>
+        <v>198600</v>
       </c>
       <c r="F59" s="3">
-        <v>243300</v>
+        <v>430900</v>
       </c>
       <c r="G59" s="3">
-        <v>258200</v>
+        <v>237700</v>
       </c>
       <c r="H59" s="3">
-        <v>294300</v>
+        <v>252200</v>
       </c>
       <c r="I59" s="3">
-        <v>269200</v>
+        <v>287500</v>
       </c>
       <c r="J59" s="3">
+        <v>263000</v>
+      </c>
+      <c r="K59" s="3">
         <v>284900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>285000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>365700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>438600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>437000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>435700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>472700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>599500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>441900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>422000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>280600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>355000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>349000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>334900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>371800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1116700</v>
+        <v>1089400</v>
       </c>
       <c r="E60" s="3">
-        <v>1381100</v>
+        <v>1090900</v>
       </c>
       <c r="F60" s="3">
-        <v>1219500</v>
+        <v>1349300</v>
       </c>
       <c r="G60" s="3">
-        <v>1201400</v>
+        <v>1191400</v>
       </c>
       <c r="H60" s="3">
-        <v>1324600</v>
+        <v>1173700</v>
       </c>
       <c r="I60" s="3">
-        <v>1257900</v>
+        <v>1294100</v>
       </c>
       <c r="J60" s="3">
+        <v>1228900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1254000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1254500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1260700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2350400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2181600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2146300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2125500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1173600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1066000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1059000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>949600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1035900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1009100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1357500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1359000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4436100</v>
+        <v>4320800</v>
       </c>
       <c r="E61" s="3">
-        <v>4487100</v>
+        <v>4333800</v>
       </c>
       <c r="F61" s="3">
-        <v>4496600</v>
+        <v>4383600</v>
       </c>
       <c r="G61" s="3">
-        <v>4512300</v>
+        <v>4392800</v>
       </c>
       <c r="H61" s="3">
-        <v>4476200</v>
+        <v>4408200</v>
       </c>
       <c r="I61" s="3">
-        <v>4484000</v>
+        <v>4372900</v>
       </c>
       <c r="J61" s="3">
+        <v>4380600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4112800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4114400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4094000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3363500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3216500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3121600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3120900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3132000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3244500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3207500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3199400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3198600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4134800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4252900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4030900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1938300</v>
+        <v>1879000</v>
       </c>
       <c r="E62" s="3">
-        <v>2026200</v>
+        <v>1893600</v>
       </c>
       <c r="F62" s="3">
-        <v>2014400</v>
+        <v>1979500</v>
       </c>
       <c r="G62" s="3">
-        <v>2012100</v>
+        <v>1968000</v>
       </c>
       <c r="H62" s="3">
-        <v>1993200</v>
+        <v>1965700</v>
       </c>
       <c r="I62" s="3">
-        <v>1982300</v>
+        <v>1947300</v>
       </c>
       <c r="J62" s="3">
+        <v>1936500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1990900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1991700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1952300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2046900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1923100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1918400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1924600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1842900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1940700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1934200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1913400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1882100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1964700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2037300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2028900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7491100</v>
+        <v>7289200</v>
       </c>
       <c r="E66" s="3">
-        <v>7894500</v>
+        <v>7318300</v>
       </c>
       <c r="F66" s="3">
-        <v>7730500</v>
+        <v>7712400</v>
       </c>
       <c r="G66" s="3">
-        <v>7725800</v>
+        <v>7552200</v>
       </c>
       <c r="H66" s="3">
-        <v>7794000</v>
+        <v>7547600</v>
       </c>
       <c r="I66" s="3">
-        <v>7724200</v>
+        <v>7614300</v>
       </c>
       <c r="J66" s="3">
+        <v>7546000</v>
+      </c>
+      <c r="K66" s="3">
         <v>7357700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7360600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7307100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7763200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7323500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7187000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7171600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6149300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6251900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6201500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6063100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6117400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7109400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7648500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7419600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4686,46 +4854,46 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>224600</v>
+      </c>
+      <c r="H70" s="3">
+        <v>224600</v>
+      </c>
+      <c r="I70" s="3">
+        <v>224600</v>
+      </c>
+      <c r="J70" s="3">
+        <v>224600</v>
+      </c>
+      <c r="K70" s="3">
         <v>229900</v>
       </c>
-      <c r="G70" s="3">
-        <v>229900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>229900</v>
-      </c>
-      <c r="I70" s="3">
-        <v>229900</v>
-      </c>
-      <c r="J70" s="3">
-        <v>229900</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>230000</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>228400</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>242900</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>232400</v>
-      </c>
-      <c r="O70" s="3">
-        <v>225600</v>
       </c>
       <c r="P70" s="3">
         <v>225600</v>
       </c>
       <c r="Q70" s="3">
+        <v>225600</v>
+      </c>
+      <c r="R70" s="3">
         <v>212900</v>
       </c>
-      <c r="R70" s="3">
+      <c r="S70" s="3">
         <v>220600</v>
-      </c>
-      <c r="S70" s="3">
-        <v>218100</v>
       </c>
       <c r="T70" s="3">
         <v>218100</v>
@@ -4737,7 +4905,7 @@
         <v>218100</v>
       </c>
       <c r="W70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="X70" s="3">
         <v>225100</v>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1509800</v>
+        <v>1511800</v>
       </c>
       <c r="E72" s="3">
-        <v>1390600</v>
+        <v>1475000</v>
       </c>
       <c r="F72" s="3">
-        <v>1254800</v>
+        <v>1358500</v>
       </c>
       <c r="G72" s="3">
-        <v>1309700</v>
+        <v>1225900</v>
       </c>
       <c r="H72" s="3">
-        <v>1336400</v>
+        <v>1279500</v>
       </c>
       <c r="I72" s="3">
-        <v>1319900</v>
+        <v>1305600</v>
       </c>
       <c r="J72" s="3">
+        <v>1289500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1312900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1313400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1335600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1446700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1379100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1282500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1281000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1176500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1181900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1348500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1583700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1610500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>1420500</v>
       </c>
       <c r="X72" s="3">
         <v>1420500</v>
       </c>
       <c r="Y72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="Z72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4794800</v>
+        <v>4737100</v>
       </c>
       <c r="E76" s="3">
+        <v>4684200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4538500</v>
+      </c>
+      <c r="G76" s="3">
+        <v>4403600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>4501700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4553800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4566100</v>
+      </c>
+      <c r="K76" s="3">
         <v>4645700</v>
       </c>
-      <c r="F76" s="3">
-        <v>4507500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>4608000</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4661400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4673900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4645700</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4647500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4673300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4965200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4709700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4491900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4445700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4124700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4166700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4253900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4384100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4361100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4124400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4234500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4179200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>153800</v>
+        <v>150300</v>
       </c>
       <c r="E81" s="3">
-        <v>197000</v>
+        <v>150300</v>
       </c>
       <c r="F81" s="3">
-        <v>276200</v>
+        <v>192400</v>
       </c>
       <c r="G81" s="3">
-        <v>168700</v>
+        <v>269900</v>
       </c>
       <c r="H81" s="3">
-        <v>126300</v>
+        <v>164800</v>
       </c>
       <c r="I81" s="3">
-        <v>135800</v>
+        <v>123400</v>
       </c>
       <c r="J81" s="3">
+        <v>132600</v>
+      </c>
+      <c r="K81" s="3">
         <v>142000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>129500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>124700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>132600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>177600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>117000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>142400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>136600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-76000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-123500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>356500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>97500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>112200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>66800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>236200</v>
+        <v>233800</v>
       </c>
       <c r="E83" s="3">
-        <v>243300</v>
+        <v>230800</v>
       </c>
       <c r="F83" s="3">
+        <v>237700</v>
+      </c>
+      <c r="G83" s="3">
+        <v>231500</v>
+      </c>
+      <c r="H83" s="3">
+        <v>232300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>234600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>240000</v>
+      </c>
+      <c r="K83" s="3">
         <v>237000</v>
       </c>
-      <c r="G83" s="3">
-        <v>237800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>240100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>245600</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
+        <v>236300</v>
+      </c>
+      <c r="M83" s="3">
         <v>237000</v>
       </c>
-      <c r="K83" s="3">
-        <v>236300</v>
-      </c>
-      <c r="L83" s="3">
-        <v>237000</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>208100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>208600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>203200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>202500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>188900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>189700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>183800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>194200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>113100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>202400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>204300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>196700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>284100</v>
+        <v>373400</v>
       </c>
       <c r="E89" s="3">
-        <v>463000</v>
+        <v>277500</v>
       </c>
       <c r="F89" s="3">
-        <v>439500</v>
+        <v>452300</v>
       </c>
       <c r="G89" s="3">
-        <v>371200</v>
+        <v>429300</v>
       </c>
       <c r="H89" s="3">
-        <v>235400</v>
+        <v>362600</v>
       </c>
       <c r="I89" s="3">
-        <v>496000</v>
+        <v>230000</v>
       </c>
       <c r="J89" s="3">
+        <v>484500</v>
+      </c>
+      <c r="K89" s="3">
         <v>461400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>283400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>264300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>360600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>331500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>292500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>257900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>318300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>259700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>150300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>272400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>265700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>325200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>341900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>202000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5949,70 +6170,73 @@
         <v>-3100</v>
       </c>
       <c r="E91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="L91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-471700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-434000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196200</v>
+        <v>-196300</v>
       </c>
       <c r="E94" s="3">
-        <v>-197000</v>
+        <v>-191700</v>
       </c>
       <c r="F94" s="3">
-        <v>-204000</v>
+        <v>-192400</v>
       </c>
       <c r="G94" s="3">
         <v>-199300</v>
       </c>
       <c r="H94" s="3">
-        <v>-182100</v>
+        <v>-194700</v>
       </c>
       <c r="I94" s="3">
-        <v>-226800</v>
+        <v>-177900</v>
       </c>
       <c r="J94" s="3">
+        <v>-221600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-204800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-230800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-241700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-264500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-160200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-179400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-291800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-230400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-163400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-215800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-260500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>810400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-294700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-263500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-231200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,79 +6484,83 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-116100</v>
+        <v>-113500</v>
       </c>
       <c r="E96" s="3">
-        <v>-116100</v>
+        <v>-113500</v>
       </c>
       <c r="F96" s="3">
-        <v>-116100</v>
+        <v>-113500</v>
       </c>
       <c r="G96" s="3">
-        <v>-116900</v>
+        <v>-113500</v>
       </c>
       <c r="H96" s="3">
+        <v>-114200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-116500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-119300</v>
       </c>
-      <c r="I96" s="3">
-        <v>-119300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-119300</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-120100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-90400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-80400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-76900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-74700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-75400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-71200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-72300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-70000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-71400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-73700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-70700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-73000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-73800</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,79 +6778,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-137300</v>
+        <v>-131900</v>
       </c>
       <c r="E100" s="3">
-        <v>-372800</v>
+        <v>-134200</v>
       </c>
       <c r="F100" s="3">
-        <v>-154600</v>
+        <v>-364200</v>
       </c>
       <c r="G100" s="3">
-        <v>-315500</v>
+        <v>-151000</v>
       </c>
       <c r="H100" s="3">
-        <v>-204000</v>
+        <v>-308200</v>
       </c>
       <c r="I100" s="3">
-        <v>-181300</v>
+        <v>-199300</v>
       </c>
       <c r="J100" s="3">
+        <v>-177100</v>
+      </c>
+      <c r="K100" s="3">
         <v>217400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-119300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1047100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-80400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-72200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>687400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-59500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-57300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-828300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-362400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>176700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6663,11 +6912,11 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -6677,75 +6926,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-49400</v>
+        <v>45200</v>
       </c>
       <c r="E102" s="3">
-        <v>-106700</v>
+        <v>-48300</v>
       </c>
       <c r="F102" s="3">
-        <v>80800</v>
+        <v>-104300</v>
       </c>
       <c r="G102" s="3">
-        <v>-143600</v>
+        <v>79000</v>
       </c>
       <c r="H102" s="3">
-        <v>-150700</v>
+        <v>-140300</v>
       </c>
       <c r="I102" s="3">
-        <v>87900</v>
+        <v>-147200</v>
       </c>
       <c r="J102" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K102" s="3">
         <v>474000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-66700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1024500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>15800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>110200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>76200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>619700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>65400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>12000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-124300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-46100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>247100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-331200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>254300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-89100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1041900</v>
+        <v>1041500</v>
       </c>
       <c r="E8" s="3">
-        <v>1062600</v>
+        <v>1051500</v>
       </c>
       <c r="F8" s="3">
-        <v>1055700</v>
+        <v>1072400</v>
       </c>
       <c r="G8" s="3">
-        <v>1054100</v>
+        <v>1065500</v>
       </c>
       <c r="H8" s="3">
-        <v>1063300</v>
+        <v>1063900</v>
       </c>
       <c r="I8" s="3">
-        <v>1050300</v>
+        <v>1073200</v>
       </c>
       <c r="J8" s="3">
+        <v>1060000</v>
+      </c>
+      <c r="K8" s="3">
         <v>1034200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1029600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1070000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1078300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1115100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1050000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1012300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1043100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>963600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>970300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1008400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>926500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>925800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>905000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>926500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>934200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>557300</v>
+        <v>543200</v>
       </c>
       <c r="E9" s="3">
-        <v>577300</v>
+        <v>562500</v>
       </c>
       <c r="F9" s="3">
-        <v>584900</v>
+        <v>582600</v>
       </c>
       <c r="G9" s="3">
-        <v>561900</v>
+        <v>590400</v>
       </c>
       <c r="H9" s="3">
-        <v>575000</v>
+        <v>567200</v>
       </c>
       <c r="I9" s="3">
-        <v>584900</v>
+        <v>580300</v>
       </c>
       <c r="J9" s="3">
+        <v>590400</v>
+      </c>
+      <c r="K9" s="3">
         <v>578800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>551700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>599000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>619800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>675700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>629700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1047700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>623600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>559600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>565300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>635600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>569300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1014400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1091000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1127000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1141600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>484500</v>
+        <v>498300</v>
       </c>
       <c r="E10" s="3">
-        <v>485300</v>
+        <v>489000</v>
       </c>
       <c r="F10" s="3">
-        <v>470700</v>
+        <v>489800</v>
       </c>
       <c r="G10" s="3">
-        <v>492200</v>
+        <v>475100</v>
       </c>
       <c r="H10" s="3">
-        <v>488300</v>
+        <v>496700</v>
       </c>
       <c r="I10" s="3">
-        <v>465400</v>
+        <v>492900</v>
       </c>
       <c r="J10" s="3">
+        <v>469700</v>
+      </c>
+      <c r="K10" s="3">
         <v>455400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>477900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>471000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>458400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>439400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>420300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-35400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>419600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>404000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>405000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>372800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>357200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-88600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-186100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-200500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-207400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,156 +1183,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E14" s="3">
         <v>2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>800</v>
       </c>
       <c r="I14" s="3">
+        <v>800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>800</v>
+      </c>
+      <c r="S14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="T14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="U14" s="3">
+        <v>310300</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>32000</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>9200</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="AA14" s="3">
         <v>800</v>
       </c>
-      <c r="R14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="S14" s="3">
-        <v>9800</v>
-      </c>
-      <c r="T14" s="3">
-        <v>310300</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>32000</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>9200</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>229200</v>
+        <v>228300</v>
       </c>
       <c r="E15" s="3">
-        <v>223900</v>
+        <v>231400</v>
       </c>
       <c r="F15" s="3">
-        <v>231500</v>
+        <v>225900</v>
       </c>
       <c r="G15" s="3">
-        <v>223900</v>
+        <v>233700</v>
       </c>
       <c r="H15" s="3">
-        <v>225400</v>
+        <v>225900</v>
       </c>
       <c r="I15" s="3">
-        <v>226200</v>
+        <v>227500</v>
       </c>
       <c r="J15" s="3">
+        <v>228300</v>
+      </c>
+      <c r="K15" s="3">
         <v>230800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>227600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>226100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>225300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>195700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>195900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>190900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>187800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>174400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>174600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>171900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>177900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>168200</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>162200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>163600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>156000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>793500</v>
+        <v>784600</v>
       </c>
       <c r="E17" s="3">
-        <v>808800</v>
+        <v>800800</v>
       </c>
       <c r="F17" s="3">
-        <v>822600</v>
+        <v>816300</v>
       </c>
       <c r="G17" s="3">
-        <v>792700</v>
+        <v>830200</v>
       </c>
       <c r="H17" s="3">
-        <v>808000</v>
+        <v>800100</v>
       </c>
       <c r="I17" s="3">
-        <v>828000</v>
+        <v>815500</v>
       </c>
       <c r="J17" s="3">
+        <v>835700</v>
+      </c>
+      <c r="K17" s="3">
         <v>818000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>799700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>834500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>856100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>874600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>838200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>793700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>826000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>759400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>764800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1132700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>762800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>753100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>734500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>719100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>728300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>248400</v>
+        <v>256900</v>
       </c>
       <c r="E18" s="3">
-        <v>253800</v>
+        <v>250700</v>
       </c>
       <c r="F18" s="3">
-        <v>233100</v>
+        <v>256100</v>
       </c>
       <c r="G18" s="3">
-        <v>261400</v>
+        <v>235200</v>
       </c>
       <c r="H18" s="3">
-        <v>255300</v>
+        <v>263800</v>
       </c>
       <c r="I18" s="3">
-        <v>222300</v>
+        <v>257700</v>
       </c>
       <c r="J18" s="3">
+        <v>224400</v>
+      </c>
+      <c r="K18" s="3">
         <v>216200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>229900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>235500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>222200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>240400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>211700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>218600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>217100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>204200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>205500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-124300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>163700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>172700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>170400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>207400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>205900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-4600</v>
       </c>
-      <c r="G20" s="3">
-        <v>-16100</v>
-      </c>
       <c r="H20" s="3">
-        <v>19900</v>
+        <v>-16200</v>
       </c>
       <c r="I20" s="3">
+        <v>20100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-14900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-28500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>28300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-194200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>27500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>33500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-61500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>480700</v>
+        <v>498300</v>
       </c>
       <c r="E21" s="3">
-        <v>483700</v>
+        <v>485100</v>
       </c>
       <c r="F21" s="3">
-        <v>466100</v>
+        <v>488200</v>
       </c>
       <c r="G21" s="3">
-        <v>476900</v>
+        <v>470400</v>
       </c>
       <c r="H21" s="3">
-        <v>507500</v>
+        <v>481300</v>
       </c>
       <c r="I21" s="3">
+        <v>512200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>459600</v>
+      </c>
+      <c r="K21" s="3">
         <v>455400</v>
       </c>
-      <c r="J21" s="3">
-        <v>455400</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>472400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>456900</v>
       </c>
       <c r="M21" s="3">
         <v>456900</v>
       </c>
       <c r="N21" s="3">
+        <v>456900</v>
+      </c>
+      <c r="O21" s="3">
         <v>450200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>391800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>421100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>437300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>421500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>201000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>70000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>383300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>384800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>382500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>391000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>316500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>49800</v>
+        <v>53400</v>
       </c>
       <c r="E22" s="3">
-        <v>51400</v>
+        <v>50300</v>
       </c>
       <c r="F22" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="G22" s="3">
-        <v>24500</v>
+        <v>51800</v>
       </c>
       <c r="H22" s="3">
-        <v>51400</v>
+        <v>24800</v>
       </c>
       <c r="I22" s="3">
-        <v>51400</v>
+        <v>51800</v>
       </c>
       <c r="J22" s="3">
+        <v>51800</v>
+      </c>
+      <c r="K22" s="3">
         <v>52900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>52600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>55500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>50000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>52300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>47200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>45200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>47600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>46100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>49100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>49900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>53000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>51500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>197000</v>
+        <v>208900</v>
       </c>
       <c r="E23" s="3">
-        <v>201600</v>
+        <v>198900</v>
       </c>
       <c r="F23" s="3">
-        <v>177100</v>
+        <v>203500</v>
       </c>
       <c r="G23" s="3">
-        <v>220800</v>
+        <v>178700</v>
       </c>
       <c r="H23" s="3">
-        <v>223900</v>
+        <v>222800</v>
       </c>
       <c r="I23" s="3">
-        <v>169400</v>
+        <v>225900</v>
       </c>
       <c r="J23" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K23" s="3">
         <v>162500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>182800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>166400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>163700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>186500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>133200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>165500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>186300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>185300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-33900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-161500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>142900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>151100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>154100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>158300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>93000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46800</v>
+        <v>51800</v>
       </c>
       <c r="E24" s="3">
-        <v>51400</v>
+        <v>47200</v>
       </c>
       <c r="F24" s="3">
-        <v>-16100</v>
+        <v>51800</v>
       </c>
       <c r="G24" s="3">
-        <v>-50600</v>
+        <v>-16200</v>
       </c>
       <c r="H24" s="3">
-        <v>57500</v>
+        <v>-51100</v>
       </c>
       <c r="I24" s="3">
-        <v>44500</v>
+        <v>58000</v>
       </c>
       <c r="J24" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K24" s="3">
         <v>28400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>35300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>37400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>52200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-48400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>47000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>42300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>42900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-39400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>32000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>43000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>21500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>150300</v>
+        <v>157100</v>
       </c>
       <c r="E26" s="3">
-        <v>150300</v>
+        <v>151700</v>
       </c>
       <c r="F26" s="3">
-        <v>193200</v>
+        <v>151700</v>
       </c>
       <c r="G26" s="3">
-        <v>271400</v>
+        <v>195000</v>
       </c>
       <c r="H26" s="3">
-        <v>166400</v>
+        <v>273900</v>
       </c>
       <c r="I26" s="3">
-        <v>125000</v>
+        <v>167900</v>
       </c>
       <c r="J26" s="3">
+        <v>126100</v>
+      </c>
+      <c r="K26" s="3">
         <v>134200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>144400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>126300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>134300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>118600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>144000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>142400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-74500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-122100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>87100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>110900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>122100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>115200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>71400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150300</v>
+        <v>157100</v>
       </c>
       <c r="E27" s="3">
-        <v>150300</v>
+        <v>151700</v>
       </c>
       <c r="F27" s="3">
-        <v>192400</v>
+        <v>151700</v>
       </c>
       <c r="G27" s="3">
-        <v>269900</v>
+        <v>194200</v>
       </c>
       <c r="H27" s="3">
-        <v>164800</v>
+        <v>272400</v>
       </c>
       <c r="I27" s="3">
-        <v>123400</v>
+        <v>166400</v>
       </c>
       <c r="J27" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K27" s="3">
         <v>132600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>142000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>129500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>124700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>132600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>177600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>117000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>142400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>141000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-76000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-123500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>85600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>109400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>120600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>114500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>69900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2229,34 +2290,37 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-4400</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-4500</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>247100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-23100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>4600</v>
       </c>
-      <c r="G32" s="3">
-        <v>16100</v>
-      </c>
       <c r="H32" s="3">
-        <v>-19900</v>
+        <v>16200</v>
       </c>
       <c r="I32" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>14900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>28500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-28300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>194200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-27500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-33500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>61500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150300</v>
+        <v>157100</v>
       </c>
       <c r="E33" s="3">
-        <v>150300</v>
+        <v>151700</v>
       </c>
       <c r="F33" s="3">
-        <v>192400</v>
+        <v>151700</v>
       </c>
       <c r="G33" s="3">
-        <v>269900</v>
+        <v>194200</v>
       </c>
       <c r="H33" s="3">
-        <v>164800</v>
+        <v>272400</v>
       </c>
       <c r="I33" s="3">
-        <v>123400</v>
+        <v>166400</v>
       </c>
       <c r="J33" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K33" s="3">
         <v>132600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>142000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>129500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>124700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>132600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>177600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>117000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>142400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>136600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-76000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-123500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>356500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>97500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>112200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>66800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150300</v>
+        <v>157100</v>
       </c>
       <c r="E35" s="3">
-        <v>150300</v>
+        <v>151700</v>
       </c>
       <c r="F35" s="3">
-        <v>192400</v>
+        <v>151700</v>
       </c>
       <c r="G35" s="3">
-        <v>269900</v>
+        <v>194200</v>
       </c>
       <c r="H35" s="3">
-        <v>164800</v>
+        <v>272400</v>
       </c>
       <c r="I35" s="3">
-        <v>123400</v>
+        <v>166400</v>
       </c>
       <c r="J35" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K35" s="3">
         <v>132600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>142000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>129500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>124700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>132600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>177600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>117000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>142400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>136600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-76000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-123500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>356500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>97500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>112200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>66800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>269100</v>
+        <v>379100</v>
       </c>
       <c r="E41" s="3">
-        <v>223900</v>
+        <v>271600</v>
       </c>
       <c r="F41" s="3">
-        <v>376400</v>
+        <v>225900</v>
       </c>
       <c r="G41" s="3">
-        <v>297500</v>
+        <v>274700</v>
       </c>
       <c r="H41" s="3">
-        <v>437800</v>
+        <v>379900</v>
       </c>
       <c r="I41" s="3">
-        <v>584900</v>
+        <v>300200</v>
       </c>
       <c r="J41" s="3">
+        <v>441800</v>
+      </c>
+      <c r="K41" s="3">
         <v>499100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>36900</v>
       </c>
       <c r="L41" s="3">
         <v>36900</v>
       </c>
       <c r="M41" s="3">
+        <v>36900</v>
+      </c>
+      <c r="N41" s="3">
         <v>102900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1198800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1131600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>991500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>915300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>279000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>221300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>206900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>331200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>377300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>130200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>476300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>222000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,526 +3072,550 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>485300</v>
+        <v>449500</v>
       </c>
       <c r="E43" s="3">
-        <v>486000</v>
+        <v>489800</v>
       </c>
       <c r="F43" s="3">
-        <v>533600</v>
+        <v>490600</v>
       </c>
       <c r="G43" s="3">
-        <v>484500</v>
+        <v>505300</v>
       </c>
       <c r="H43" s="3">
-        <v>414800</v>
+        <v>538500</v>
       </c>
       <c r="I43" s="3">
-        <v>404000</v>
+        <v>489000</v>
       </c>
       <c r="J43" s="3">
+        <v>418600</v>
+      </c>
+      <c r="K43" s="3">
         <v>394800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>430800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>431000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>407000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>428600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>337000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>390300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>364100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>226700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>185200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>189000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>175600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>212800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>180800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>203600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>199000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>52900</v>
+        <v>58800</v>
       </c>
       <c r="E44" s="3">
-        <v>41400</v>
+        <v>53400</v>
       </c>
       <c r="F44" s="3">
-        <v>49100</v>
+        <v>41800</v>
       </c>
       <c r="G44" s="3">
-        <v>53700</v>
+        <v>48700</v>
       </c>
       <c r="H44" s="3">
-        <v>49800</v>
+        <v>49500</v>
       </c>
       <c r="I44" s="3">
-        <v>46000</v>
+        <v>54200</v>
       </c>
       <c r="J44" s="3">
+        <v>50300</v>
+      </c>
+      <c r="K44" s="3">
         <v>62900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>54900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>55000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>70900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>71300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>50800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>80100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>44300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>91800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>99000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>92300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>81100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>66200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>61500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>52200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>135700</v>
+        <v>145500</v>
       </c>
       <c r="E45" s="3">
-        <v>135700</v>
+        <v>137000</v>
       </c>
       <c r="F45" s="3">
-        <v>120400</v>
+        <v>137000</v>
       </c>
       <c r="G45" s="3">
-        <v>119600</v>
+        <v>126100</v>
       </c>
       <c r="H45" s="3">
-        <v>128000</v>
+        <v>121500</v>
       </c>
       <c r="I45" s="3">
-        <v>115000</v>
+        <v>120700</v>
       </c>
       <c r="J45" s="3">
+        <v>129200</v>
+      </c>
+      <c r="K45" s="3">
         <v>111900</v>
-      </c>
-      <c r="K45" s="3">
-        <v>115400</v>
       </c>
       <c r="L45" s="3">
         <v>115400</v>
       </c>
       <c r="M45" s="3">
+        <v>115400</v>
+      </c>
+      <c r="N45" s="3">
         <v>120100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>138500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>134700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>144000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>198400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>192700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>171200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>123500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>160700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>164500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>119800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>117500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>943000</v>
+        <v>1033000</v>
       </c>
       <c r="E46" s="3">
-        <v>887000</v>
+        <v>951700</v>
       </c>
       <c r="F46" s="3">
-        <v>1079400</v>
+        <v>895200</v>
       </c>
       <c r="G46" s="3">
-        <v>955200</v>
+        <v>954800</v>
       </c>
       <c r="H46" s="3">
-        <v>1030400</v>
+        <v>1089400</v>
       </c>
       <c r="I46" s="3">
-        <v>1150000</v>
+        <v>964100</v>
       </c>
       <c r="J46" s="3">
+        <v>1039900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1068700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>638000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>638200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>700900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1837200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1659000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1573500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1503500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>748500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>691100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>666100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>722600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>832000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>541800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>861200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>590800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115800</v>
+        <v>114500</v>
       </c>
       <c r="E47" s="3">
-        <v>74400</v>
+        <v>116800</v>
       </c>
       <c r="F47" s="3">
-        <v>76700</v>
+        <v>75100</v>
       </c>
       <c r="G47" s="3">
-        <v>80500</v>
+        <v>75800</v>
       </c>
       <c r="H47" s="3">
-        <v>62100</v>
+        <v>77400</v>
       </c>
       <c r="I47" s="3">
-        <v>62900</v>
+        <v>81200</v>
       </c>
       <c r="J47" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K47" s="3">
         <v>75900</v>
-      </c>
-      <c r="K47" s="3">
-        <v>92600</v>
       </c>
       <c r="L47" s="3">
         <v>92600</v>
       </c>
       <c r="M47" s="3">
+        <v>92600</v>
+      </c>
+      <c r="N47" s="3">
         <v>83400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>73800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>88800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>575100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>585100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>534800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>502100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>704800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>702500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>697300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>686200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>690600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>682200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4517000</v>
+        <v>4543500</v>
       </c>
       <c r="E48" s="3">
-        <v>4550800</v>
+        <v>4558900</v>
       </c>
       <c r="F48" s="3">
-        <v>4630500</v>
+        <v>4593000</v>
       </c>
       <c r="G48" s="3">
-        <v>4669600</v>
+        <v>4657200</v>
       </c>
       <c r="H48" s="3">
-        <v>4700300</v>
+        <v>4673500</v>
       </c>
       <c r="I48" s="3">
-        <v>4708700</v>
+        <v>4712900</v>
       </c>
       <c r="J48" s="3">
+        <v>4743900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4727100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4863000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4865000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4830100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4048300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3820000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3654300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3631200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3416900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3400400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3331100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3304300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3232800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3520900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3593000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3566900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6351600</v>
+        <v>6409000</v>
       </c>
       <c r="E49" s="3">
-        <v>6353100</v>
+        <v>6410500</v>
       </c>
       <c r="F49" s="3">
-        <v>6348500</v>
+        <v>6412100</v>
       </c>
       <c r="G49" s="3">
-        <v>6351600</v>
+        <v>6403600</v>
       </c>
       <c r="H49" s="3">
-        <v>6353900</v>
+        <v>6407400</v>
       </c>
       <c r="I49" s="3">
-        <v>6345500</v>
+        <v>6410500</v>
       </c>
       <c r="J49" s="3">
+        <v>6412800</v>
+      </c>
+      <c r="K49" s="3">
         <v>6329400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6478000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6480600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6433800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6847100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>6528100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5965300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5976100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5640600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5819100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5747500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5740800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>5741600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>6504400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>6745800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>6763500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>98900</v>
+        <v>94400</v>
       </c>
       <c r="E52" s="3">
-        <v>137200</v>
+        <v>99800</v>
       </c>
       <c r="F52" s="3">
-        <v>115800</v>
+        <v>138500</v>
       </c>
       <c r="G52" s="3">
-        <v>123400</v>
+        <v>127700</v>
       </c>
       <c r="H52" s="3">
-        <v>127300</v>
+        <v>116800</v>
       </c>
       <c r="I52" s="3">
-        <v>125700</v>
+        <v>124600</v>
       </c>
       <c r="J52" s="3">
+        <v>128400</v>
+      </c>
+      <c r="K52" s="3">
         <v>135700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>161700</v>
       </c>
       <c r="L52" s="3">
         <v>161700</v>
       </c>
       <c r="M52" s="3">
+        <v>161700</v>
+      </c>
+      <c r="N52" s="3">
         <v>160600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>169700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>136300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>147000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>146100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>226600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>224000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>195000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>192800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>198700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>217400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>220500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12026300</v>
+        <v>12194300</v>
       </c>
       <c r="E54" s="3">
-        <v>12002500</v>
+        <v>12137800</v>
       </c>
       <c r="F54" s="3">
-        <v>12250900</v>
+        <v>12113800</v>
       </c>
       <c r="G54" s="3">
-        <v>12180400</v>
+        <v>12219100</v>
       </c>
       <c r="H54" s="3">
-        <v>12273900</v>
+        <v>12364500</v>
       </c>
       <c r="I54" s="3">
-        <v>12392700</v>
+        <v>12293300</v>
       </c>
       <c r="J54" s="3">
+        <v>12387700</v>
+      </c>
+      <c r="K54" s="3">
         <v>12336800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12233300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12238100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12208900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12971300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12265600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11904500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11842900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10486900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10639200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10673500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10665300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10696500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11451900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12108100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>11823800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,147 +4056,151 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>657000</v>
+        <v>633700</v>
       </c>
       <c r="E57" s="3">
-        <v>653200</v>
+        <v>663100</v>
       </c>
       <c r="F57" s="3">
-        <v>680000</v>
+        <v>659200</v>
       </c>
       <c r="G57" s="3">
-        <v>716800</v>
+        <v>764500</v>
       </c>
       <c r="H57" s="3">
-        <v>683800</v>
+        <v>686300</v>
       </c>
       <c r="I57" s="3">
-        <v>765900</v>
+        <v>723500</v>
       </c>
       <c r="J57" s="3">
+        <v>690200</v>
+      </c>
+      <c r="K57" s="3">
         <v>687700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>678800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>679100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>712600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>841500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>720900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>716700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>659000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>704900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>623300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>636300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>668300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>679500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>651200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>706000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>670700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>240000</v>
+        <v>243000</v>
       </c>
       <c r="E58" s="3">
-        <v>239200</v>
+        <v>242200</v>
       </c>
       <c r="F58" s="3">
-        <v>238400</v>
+        <v>241400</v>
       </c>
       <c r="G58" s="3">
-        <v>236900</v>
+        <v>240600</v>
       </c>
       <c r="H58" s="3">
-        <v>237700</v>
+        <v>240600</v>
       </c>
       <c r="I58" s="3">
-        <v>240700</v>
+        <v>239100</v>
       </c>
       <c r="J58" s="3">
+        <v>239900</v>
+      </c>
+      <c r="K58" s="3">
         <v>278300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>290400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>290500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>182400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1070300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1023800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>993800</v>
       </c>
       <c r="Q58" s="3">
         <v>993800</v>
       </c>
       <c r="R58" s="3">
+        <v>993800</v>
+      </c>
+      <c r="S58" s="3">
         <v>29800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>700</v>
       </c>
       <c r="U58" s="3">
         <v>700</v>
       </c>
       <c r="V58" s="3">
+        <v>700</v>
+      </c>
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>8900</v>
-      </c>
-      <c r="X58" s="3">
-        <v>316500</v>
       </c>
       <c r="Y58" s="3">
         <v>316500</v>
@@ -4074,304 +4208,319 @@
       <c r="Z58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>192400</v>
+        <v>208900</v>
       </c>
       <c r="E59" s="3">
-        <v>198600</v>
+        <v>194200</v>
       </c>
       <c r="F59" s="3">
-        <v>430900</v>
+        <v>200400</v>
       </c>
       <c r="G59" s="3">
-        <v>237700</v>
+        <v>201900</v>
       </c>
       <c r="H59" s="3">
-        <v>252200</v>
+        <v>434800</v>
       </c>
       <c r="I59" s="3">
-        <v>287500</v>
+        <v>239900</v>
       </c>
       <c r="J59" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K59" s="3">
         <v>263000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>284900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>365700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>438600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>437000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>435700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>472700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>599500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>441900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>422000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>280600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>355000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>349000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>334900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>371800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1089400</v>
+        <v>1085600</v>
       </c>
       <c r="E60" s="3">
-        <v>1090900</v>
+        <v>1099500</v>
       </c>
       <c r="F60" s="3">
-        <v>1349300</v>
+        <v>1101000</v>
       </c>
       <c r="G60" s="3">
-        <v>1191400</v>
+        <v>1207100</v>
       </c>
       <c r="H60" s="3">
-        <v>1173700</v>
+        <v>1361800</v>
       </c>
       <c r="I60" s="3">
-        <v>1294100</v>
+        <v>1202400</v>
       </c>
       <c r="J60" s="3">
+        <v>1184600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1228900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1254000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1254500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1260700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2350400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2181600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2146300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2125500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1173600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1066000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1059000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>949600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1035900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1009100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1357500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1359000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4320800</v>
+        <v>4344600</v>
       </c>
       <c r="E61" s="3">
-        <v>4333800</v>
+        <v>4360900</v>
       </c>
       <c r="F61" s="3">
-        <v>4383600</v>
+        <v>4374000</v>
       </c>
       <c r="G61" s="3">
-        <v>4392800</v>
+        <v>4398000</v>
       </c>
       <c r="H61" s="3">
-        <v>4408200</v>
+        <v>4424300</v>
       </c>
       <c r="I61" s="3">
-        <v>4372900</v>
+        <v>4433600</v>
       </c>
       <c r="J61" s="3">
+        <v>4449100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4380600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4112800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4114400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4094000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3363500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3216500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3121600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3120900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3132000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3244500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3207500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3199400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3198600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4134800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4252900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4030900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1879000</v>
+        <v>1890300</v>
       </c>
       <c r="E62" s="3">
-        <v>1893600</v>
+        <v>1896500</v>
       </c>
       <c r="F62" s="3">
-        <v>1979500</v>
+        <v>1911200</v>
       </c>
       <c r="G62" s="3">
-        <v>1968000</v>
+        <v>1938200</v>
       </c>
       <c r="H62" s="3">
-        <v>1965700</v>
+        <v>1997800</v>
       </c>
       <c r="I62" s="3">
-        <v>1947300</v>
+        <v>1986200</v>
       </c>
       <c r="J62" s="3">
+        <v>1983900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1936500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1990900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1991700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1952300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2046900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1923100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1918400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1924600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1842900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1940700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1934200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1913400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1882100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1964700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2037300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2028900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7289200</v>
+        <v>7320400</v>
       </c>
       <c r="E66" s="3">
-        <v>7318300</v>
+        <v>7356800</v>
       </c>
       <c r="F66" s="3">
-        <v>7712400</v>
+        <v>7386200</v>
       </c>
       <c r="G66" s="3">
-        <v>7552200</v>
+        <v>7543300</v>
       </c>
       <c r="H66" s="3">
-        <v>7547600</v>
+        <v>7783900</v>
       </c>
       <c r="I66" s="3">
-        <v>7614300</v>
+        <v>7622200</v>
       </c>
       <c r="J66" s="3">
+        <v>7617600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7546000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7357700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7360600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7307100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7763200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7323500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7187000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7171600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6149300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6251900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6201500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6063100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6117400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7109400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7648500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7419600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4857,46 +5025,46 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>226700</v>
+      </c>
+      <c r="J70" s="3">
+        <v>226700</v>
+      </c>
+      <c r="K70" s="3">
         <v>224600</v>
       </c>
-      <c r="H70" s="3">
-        <v>224600</v>
-      </c>
-      <c r="I70" s="3">
-        <v>224600</v>
-      </c>
-      <c r="J70" s="3">
-        <v>224600</v>
-      </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>229900</v>
       </c>
-      <c r="L70" s="3">
+      <c r="M70" s="3">
         <v>230000</v>
       </c>
-      <c r="M70" s="3">
+      <c r="N70" s="3">
         <v>228400</v>
       </c>
-      <c r="N70" s="3">
+      <c r="O70" s="3">
         <v>242900</v>
       </c>
-      <c r="O70" s="3">
+      <c r="P70" s="3">
         <v>232400</v>
-      </c>
-      <c r="P70" s="3">
-        <v>225600</v>
       </c>
       <c r="Q70" s="3">
         <v>225600</v>
       </c>
       <c r="R70" s="3">
+        <v>225600</v>
+      </c>
+      <c r="S70" s="3">
         <v>212900</v>
       </c>
-      <c r="S70" s="3">
+      <c r="T70" s="3">
         <v>220600</v>
-      </c>
-      <c r="T70" s="3">
-        <v>218100</v>
       </c>
       <c r="U70" s="3">
         <v>218100</v>
@@ -4908,7 +5076,7 @@
         <v>218100</v>
       </c>
       <c r="X70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="Y70" s="3">
         <v>225100</v>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1511800</v>
+        <v>1607100</v>
       </c>
       <c r="E72" s="3">
-        <v>1475000</v>
+        <v>1525800</v>
       </c>
       <c r="F72" s="3">
-        <v>1358500</v>
+        <v>1488700</v>
       </c>
       <c r="G72" s="3">
-        <v>1225900</v>
+        <v>1451600</v>
       </c>
       <c r="H72" s="3">
-        <v>1279500</v>
+        <v>1371100</v>
       </c>
       <c r="I72" s="3">
-        <v>1305600</v>
+        <v>1237200</v>
       </c>
       <c r="J72" s="3">
+        <v>1291400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1289500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1312900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1313400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1335600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1446700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1379100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1282500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1281000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1176500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1181900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1348500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1583700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1610500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1364100</v>
-      </c>
-      <c r="X72" s="3">
-        <v>1420500</v>
       </c>
       <c r="Y72" s="3">
         <v>1420500</v>
       </c>
       <c r="Z72" s="3">
+        <v>1420500</v>
+      </c>
+      <c r="AA72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4737100</v>
+        <v>4873900</v>
       </c>
       <c r="E76" s="3">
-        <v>4684200</v>
+        <v>4781000</v>
       </c>
       <c r="F76" s="3">
-        <v>4538500</v>
+        <v>4727600</v>
       </c>
       <c r="G76" s="3">
-        <v>4403600</v>
+        <v>4675800</v>
       </c>
       <c r="H76" s="3">
-        <v>4501700</v>
+        <v>4580600</v>
       </c>
       <c r="I76" s="3">
-        <v>4553800</v>
+        <v>4444400</v>
       </c>
       <c r="J76" s="3">
+        <v>4543500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4566100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4645700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4647500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4673300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4965200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4709700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4491900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4445700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4124700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4166700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>4253900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>4384100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4361100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>4124400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4234500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4179200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="E80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150300</v>
+        <v>157100</v>
       </c>
       <c r="E81" s="3">
-        <v>150300</v>
+        <v>151700</v>
       </c>
       <c r="F81" s="3">
-        <v>192400</v>
+        <v>151700</v>
       </c>
       <c r="G81" s="3">
-        <v>269900</v>
+        <v>194200</v>
       </c>
       <c r="H81" s="3">
-        <v>164800</v>
+        <v>272400</v>
       </c>
       <c r="I81" s="3">
-        <v>123400</v>
+        <v>166400</v>
       </c>
       <c r="J81" s="3">
+        <v>124600</v>
+      </c>
+      <c r="K81" s="3">
         <v>132600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>142000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>129500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>124700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>132600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>177600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>117000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>142400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>136600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-76000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-123500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>356500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>97500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>112200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>66800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>233800</v>
+        <v>236000</v>
       </c>
       <c r="E83" s="3">
-        <v>230800</v>
+        <v>236000</v>
       </c>
       <c r="F83" s="3">
-        <v>237700</v>
+        <v>232900</v>
       </c>
       <c r="G83" s="3">
-        <v>231500</v>
+        <v>239900</v>
       </c>
       <c r="H83" s="3">
-        <v>232300</v>
+        <v>233700</v>
       </c>
       <c r="I83" s="3">
-        <v>234600</v>
+        <v>234400</v>
       </c>
       <c r="J83" s="3">
+        <v>236800</v>
+      </c>
+      <c r="K83" s="3">
         <v>240000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>237000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>236300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>237000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>208100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>208600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>203200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>202500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>188900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>189700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>183800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>194200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>113100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>202400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>204300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>196700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>373400</v>
+        <v>436400</v>
       </c>
       <c r="E89" s="3">
-        <v>277500</v>
+        <v>376800</v>
       </c>
       <c r="F89" s="3">
-        <v>452300</v>
+        <v>280100</v>
       </c>
       <c r="G89" s="3">
-        <v>429300</v>
+        <v>456500</v>
       </c>
       <c r="H89" s="3">
-        <v>362600</v>
+        <v>433300</v>
       </c>
       <c r="I89" s="3">
-        <v>230000</v>
+        <v>366000</v>
       </c>
       <c r="J89" s="3">
+        <v>232100</v>
+      </c>
+      <c r="K89" s="3">
         <v>484500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>461400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>283400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>264300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>360600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>331500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>292500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>257900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>318300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>259700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>150300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>272400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>265700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>325200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>341900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>202000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3100</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-3100</v>
       </c>
       <c r="F91" s="3">
-        <v>-3800</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3800</v>
-      </c>
       <c r="I91" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-11200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-471700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-434000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196300</v>
+        <v>-196500</v>
       </c>
       <c r="E94" s="3">
-        <v>-191700</v>
+        <v>-198100</v>
       </c>
       <c r="F94" s="3">
-        <v>-192400</v>
+        <v>-193400</v>
       </c>
       <c r="G94" s="3">
-        <v>-199300</v>
+        <v>-194200</v>
       </c>
       <c r="H94" s="3">
-        <v>-194700</v>
+        <v>-201200</v>
       </c>
       <c r="I94" s="3">
-        <v>-177900</v>
+        <v>-196500</v>
       </c>
       <c r="J94" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-221600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-204800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-230800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-241700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-264500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-160200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-179400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-291800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-230400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-163400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-215800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-260500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>810400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-294700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-263500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-231200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,82 +6718,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-113500</v>
+        <v>-114500</v>
       </c>
       <c r="E96" s="3">
-        <v>-113500</v>
+        <v>-114500</v>
       </c>
       <c r="F96" s="3">
-        <v>-113500</v>
+        <v>-114500</v>
       </c>
       <c r="G96" s="3">
-        <v>-113500</v>
+        <v>-114500</v>
       </c>
       <c r="H96" s="3">
-        <v>-114200</v>
+        <v>-114500</v>
       </c>
       <c r="I96" s="3">
+        <v>-115300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-117600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-116500</v>
       </c>
-      <c r="J96" s="3">
-        <v>-116500</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-119300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-120100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-90400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-80400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-74700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-75400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-71200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-72300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-70000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-71400</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-73700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-70700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-73800</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-131900</v>
+        <v>-132300</v>
       </c>
       <c r="E100" s="3">
-        <v>-134200</v>
+        <v>-133100</v>
       </c>
       <c r="F100" s="3">
-        <v>-364200</v>
+        <v>-135400</v>
       </c>
       <c r="G100" s="3">
-        <v>-151000</v>
+        <v>-367500</v>
       </c>
       <c r="H100" s="3">
-        <v>-308200</v>
+        <v>-152400</v>
       </c>
       <c r="I100" s="3">
-        <v>-199300</v>
+        <v>-311000</v>
       </c>
       <c r="J100" s="3">
+        <v>-201200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-177100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>217400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-119300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1047100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-80400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-72200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>687400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-71500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-59500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-57300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-828300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-362400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>176700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6915,11 +7164,11 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -6929,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45200</v>
+        <v>107600</v>
       </c>
       <c r="E102" s="3">
-        <v>-48300</v>
+        <v>45700</v>
       </c>
       <c r="F102" s="3">
-        <v>-104300</v>
+        <v>-48700</v>
       </c>
       <c r="G102" s="3">
-        <v>79000</v>
+        <v>-105200</v>
       </c>
       <c r="H102" s="3">
-        <v>-140300</v>
+        <v>79700</v>
       </c>
       <c r="I102" s="3">
-        <v>-147200</v>
+        <v>-141600</v>
       </c>
       <c r="J102" s="3">
+        <v>-148600</v>
+      </c>
+      <c r="K102" s="3">
         <v>85900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>474000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-66700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1024500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>15800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>110200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>76200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>619700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>65400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>12000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-124300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-46100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>247100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-331200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>254300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-89100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>62200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1041500</v>
+        <v>1010700</v>
       </c>
       <c r="E8" s="3">
-        <v>1051500</v>
+        <v>1020400</v>
       </c>
       <c r="F8" s="3">
-        <v>1072400</v>
+        <v>1040700</v>
       </c>
       <c r="G8" s="3">
-        <v>1065500</v>
+        <v>1033900</v>
       </c>
       <c r="H8" s="3">
-        <v>1063900</v>
+        <v>1032400</v>
       </c>
       <c r="I8" s="3">
-        <v>1073200</v>
+        <v>1041400</v>
       </c>
       <c r="J8" s="3">
-        <v>1060000</v>
+        <v>1028700</v>
       </c>
       <c r="K8" s="3">
         <v>1034200</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>543200</v>
+        <v>527100</v>
       </c>
       <c r="E9" s="3">
-        <v>562500</v>
+        <v>545900</v>
       </c>
       <c r="F9" s="3">
-        <v>582600</v>
+        <v>565400</v>
       </c>
       <c r="G9" s="3">
-        <v>590400</v>
+        <v>572900</v>
       </c>
       <c r="H9" s="3">
-        <v>567200</v>
+        <v>550400</v>
       </c>
       <c r="I9" s="3">
-        <v>580300</v>
+        <v>563100</v>
       </c>
       <c r="J9" s="3">
-        <v>590400</v>
+        <v>572900</v>
       </c>
       <c r="K9" s="3">
         <v>578800</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>498300</v>
+        <v>483600</v>
       </c>
       <c r="E10" s="3">
-        <v>489000</v>
+        <v>474500</v>
       </c>
       <c r="F10" s="3">
-        <v>489800</v>
+        <v>475300</v>
       </c>
       <c r="G10" s="3">
-        <v>475100</v>
+        <v>461000</v>
       </c>
       <c r="H10" s="3">
-        <v>496700</v>
+        <v>482100</v>
       </c>
       <c r="I10" s="3">
-        <v>492900</v>
+        <v>478300</v>
       </c>
       <c r="J10" s="3">
-        <v>469700</v>
+        <v>455800</v>
       </c>
       <c r="K10" s="3">
         <v>455400</v>
@@ -1192,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="E14" s="3">
         <v>2300</v>
@@ -1210,7 +1210,7 @@
         <v>800</v>
       </c>
       <c r="J14" s="3">
-        <v>9300</v>
+        <v>9000</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1269,25 +1269,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>228300</v>
+        <v>221500</v>
       </c>
       <c r="E15" s="3">
-        <v>231400</v>
+        <v>224500</v>
       </c>
       <c r="F15" s="3">
-        <v>225900</v>
+        <v>219300</v>
       </c>
       <c r="G15" s="3">
-        <v>233700</v>
+        <v>226800</v>
       </c>
       <c r="H15" s="3">
-        <v>225900</v>
+        <v>219300</v>
       </c>
       <c r="I15" s="3">
-        <v>227500</v>
+        <v>220800</v>
       </c>
       <c r="J15" s="3">
-        <v>228300</v>
+        <v>221500</v>
       </c>
       <c r="K15" s="3">
         <v>230800</v>
@@ -1372,25 +1372,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>784600</v>
+        <v>761400</v>
       </c>
       <c r="E17" s="3">
-        <v>800800</v>
+        <v>777100</v>
       </c>
       <c r="F17" s="3">
-        <v>816300</v>
+        <v>792200</v>
       </c>
       <c r="G17" s="3">
-        <v>830200</v>
+        <v>805700</v>
       </c>
       <c r="H17" s="3">
-        <v>800100</v>
+        <v>776400</v>
       </c>
       <c r="I17" s="3">
-        <v>815500</v>
+        <v>791400</v>
       </c>
       <c r="J17" s="3">
-        <v>835700</v>
+        <v>810900</v>
       </c>
       <c r="K17" s="3">
         <v>818000</v>
@@ -1449,25 +1449,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>256900</v>
+        <v>249300</v>
       </c>
       <c r="E18" s="3">
-        <v>250700</v>
+        <v>243300</v>
       </c>
       <c r="F18" s="3">
-        <v>256100</v>
+        <v>248500</v>
       </c>
       <c r="G18" s="3">
-        <v>235200</v>
+        <v>228300</v>
       </c>
       <c r="H18" s="3">
-        <v>263800</v>
+        <v>256000</v>
       </c>
       <c r="I18" s="3">
-        <v>257700</v>
+        <v>250000</v>
       </c>
       <c r="J18" s="3">
-        <v>224400</v>
+        <v>217700</v>
       </c>
       <c r="K18" s="3">
         <v>216200</v>
@@ -1555,7 +1555,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E20" s="3">
         <v>-1500</v>
@@ -1564,13 +1564,13 @@
         <v>-800</v>
       </c>
       <c r="G20" s="3">
-        <v>-4600</v>
+        <v>-4500</v>
       </c>
       <c r="H20" s="3">
-        <v>-16200</v>
+        <v>-15800</v>
       </c>
       <c r="I20" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J20" s="3">
         <v>-1500</v>
@@ -1632,25 +1632,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>498300</v>
+        <v>483600</v>
       </c>
       <c r="E21" s="3">
-        <v>485100</v>
+        <v>470800</v>
       </c>
       <c r="F21" s="3">
-        <v>488200</v>
+        <v>473800</v>
       </c>
       <c r="G21" s="3">
-        <v>470400</v>
+        <v>456500</v>
       </c>
       <c r="H21" s="3">
-        <v>481300</v>
+        <v>467000</v>
       </c>
       <c r="I21" s="3">
-        <v>512200</v>
+        <v>497100</v>
       </c>
       <c r="J21" s="3">
-        <v>459600</v>
+        <v>446000</v>
       </c>
       <c r="K21" s="3">
         <v>455400</v>
@@ -1709,25 +1709,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>53400</v>
+        <v>51800</v>
       </c>
       <c r="E22" s="3">
+        <v>48800</v>
+      </c>
+      <c r="F22" s="3">
         <v>50300</v>
       </c>
-      <c r="F22" s="3">
-        <v>51800</v>
-      </c>
       <c r="G22" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="H22" s="3">
-        <v>24800</v>
+        <v>24000</v>
       </c>
       <c r="I22" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="J22" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="K22" s="3">
         <v>52900</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>208900</v>
+        <v>202700</v>
       </c>
       <c r="E23" s="3">
-        <v>198900</v>
+        <v>193000</v>
       </c>
       <c r="F23" s="3">
-        <v>203500</v>
+        <v>197500</v>
       </c>
       <c r="G23" s="3">
-        <v>178700</v>
+        <v>173400</v>
       </c>
       <c r="H23" s="3">
-        <v>222800</v>
+        <v>216200</v>
       </c>
       <c r="I23" s="3">
-        <v>225900</v>
+        <v>219300</v>
       </c>
       <c r="J23" s="3">
-        <v>171000</v>
+        <v>165900</v>
       </c>
       <c r="K23" s="3">
         <v>162500</v>
@@ -1863,25 +1863,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="E24" s="3">
-        <v>47200</v>
+        <v>45800</v>
       </c>
       <c r="F24" s="3">
-        <v>51800</v>
+        <v>50300</v>
       </c>
       <c r="G24" s="3">
-        <v>-16200</v>
+        <v>-15800</v>
       </c>
       <c r="H24" s="3">
-        <v>-51100</v>
+        <v>-49600</v>
       </c>
       <c r="I24" s="3">
-        <v>58000</v>
+        <v>56300</v>
       </c>
       <c r="J24" s="3">
-        <v>44900</v>
+        <v>43500</v>
       </c>
       <c r="K24" s="3">
         <v>28400</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>157100</v>
+        <v>152400</v>
       </c>
       <c r="E26" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="F26" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="G26" s="3">
-        <v>195000</v>
+        <v>189200</v>
       </c>
       <c r="H26" s="3">
-        <v>273900</v>
+        <v>265800</v>
       </c>
       <c r="I26" s="3">
-        <v>167900</v>
+        <v>162900</v>
       </c>
       <c r="J26" s="3">
-        <v>126100</v>
+        <v>122400</v>
       </c>
       <c r="K26" s="3">
         <v>134200</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>157100</v>
+        <v>152400</v>
       </c>
       <c r="E27" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="F27" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="G27" s="3">
-        <v>194200</v>
+        <v>188500</v>
       </c>
       <c r="H27" s="3">
-        <v>272400</v>
+        <v>264300</v>
       </c>
       <c r="I27" s="3">
-        <v>166400</v>
+        <v>161400</v>
       </c>
       <c r="J27" s="3">
-        <v>124600</v>
+        <v>120900</v>
       </c>
       <c r="K27" s="3">
         <v>132600</v>
@@ -2479,7 +2479,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="E32" s="3">
         <v>1500</v>
@@ -2488,13 +2488,13 @@
         <v>800</v>
       </c>
       <c r="G32" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="H32" s="3">
-        <v>16200</v>
+        <v>15800</v>
       </c>
       <c r="I32" s="3">
-        <v>-20100</v>
+        <v>-19500</v>
       </c>
       <c r="J32" s="3">
         <v>1500</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>157100</v>
+        <v>152400</v>
       </c>
       <c r="E33" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="F33" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="G33" s="3">
-        <v>194200</v>
+        <v>188500</v>
       </c>
       <c r="H33" s="3">
-        <v>272400</v>
+        <v>264300</v>
       </c>
       <c r="I33" s="3">
-        <v>166400</v>
+        <v>161400</v>
       </c>
       <c r="J33" s="3">
-        <v>124600</v>
+        <v>120900</v>
       </c>
       <c r="K33" s="3">
         <v>132600</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>157100</v>
+        <v>152400</v>
       </c>
       <c r="E35" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="F35" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="G35" s="3">
-        <v>194200</v>
+        <v>188500</v>
       </c>
       <c r="H35" s="3">
-        <v>272400</v>
+        <v>264300</v>
       </c>
       <c r="I35" s="3">
-        <v>166400</v>
+        <v>161400</v>
       </c>
       <c r="J35" s="3">
-        <v>124600</v>
+        <v>120900</v>
       </c>
       <c r="K35" s="3">
         <v>132600</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>379100</v>
+        <v>367900</v>
       </c>
       <c r="E41" s="3">
-        <v>271600</v>
+        <v>263600</v>
       </c>
       <c r="F41" s="3">
-        <v>225900</v>
+        <v>219300</v>
       </c>
       <c r="G41" s="3">
-        <v>274700</v>
+        <v>266600</v>
       </c>
       <c r="H41" s="3">
-        <v>379900</v>
+        <v>368700</v>
       </c>
       <c r="I41" s="3">
-        <v>300200</v>
+        <v>291300</v>
       </c>
       <c r="J41" s="3">
-        <v>441800</v>
+        <v>428700</v>
       </c>
       <c r="K41" s="3">
         <v>499100</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>449500</v>
+        <v>436200</v>
       </c>
       <c r="E43" s="3">
-        <v>489800</v>
+        <v>475300</v>
       </c>
       <c r="F43" s="3">
-        <v>490600</v>
+        <v>476000</v>
       </c>
       <c r="G43" s="3">
-        <v>505300</v>
+        <v>490300</v>
       </c>
       <c r="H43" s="3">
-        <v>538500</v>
+        <v>522600</v>
       </c>
       <c r="I43" s="3">
-        <v>489000</v>
+        <v>474500</v>
       </c>
       <c r="J43" s="3">
-        <v>418600</v>
+        <v>406200</v>
       </c>
       <c r="K43" s="3">
         <v>394800</v>
@@ -3158,25 +3158,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58800</v>
+        <v>57100</v>
       </c>
       <c r="E44" s="3">
-        <v>53400</v>
+        <v>51800</v>
       </c>
       <c r="F44" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="G44" s="3">
-        <v>48700</v>
+        <v>47300</v>
       </c>
       <c r="H44" s="3">
-        <v>49500</v>
+        <v>48100</v>
       </c>
       <c r="I44" s="3">
-        <v>54200</v>
+        <v>52600</v>
       </c>
       <c r="J44" s="3">
-        <v>50300</v>
+        <v>48800</v>
       </c>
       <c r="K44" s="3">
         <v>62900</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>145500</v>
+        <v>141200</v>
       </c>
       <c r="E45" s="3">
-        <v>137000</v>
+        <v>132900</v>
       </c>
       <c r="F45" s="3">
-        <v>137000</v>
+        <v>132900</v>
       </c>
       <c r="G45" s="3">
-        <v>126100</v>
+        <v>122400</v>
       </c>
       <c r="H45" s="3">
-        <v>121500</v>
+        <v>117900</v>
       </c>
       <c r="I45" s="3">
-        <v>120700</v>
+        <v>117100</v>
       </c>
       <c r="J45" s="3">
-        <v>129200</v>
+        <v>125400</v>
       </c>
       <c r="K45" s="3">
         <v>111900</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1033000</v>
+        <v>1002400</v>
       </c>
       <c r="E46" s="3">
-        <v>951700</v>
+        <v>923600</v>
       </c>
       <c r="F46" s="3">
-        <v>895200</v>
+        <v>868700</v>
       </c>
       <c r="G46" s="3">
-        <v>954800</v>
+        <v>926600</v>
       </c>
       <c r="H46" s="3">
-        <v>1089400</v>
+        <v>1057200</v>
       </c>
       <c r="I46" s="3">
-        <v>964100</v>
+        <v>935600</v>
       </c>
       <c r="J46" s="3">
-        <v>1039900</v>
+        <v>1009200</v>
       </c>
       <c r="K46" s="3">
         <v>1068700</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114500</v>
+        <v>111100</v>
       </c>
       <c r="E47" s="3">
-        <v>116800</v>
+        <v>113400</v>
       </c>
       <c r="F47" s="3">
+        <v>72800</v>
+      </c>
+      <c r="G47" s="3">
+        <v>73600</v>
+      </c>
+      <c r="H47" s="3">
         <v>75100</v>
       </c>
-      <c r="G47" s="3">
-        <v>75800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>77400</v>
-      </c>
       <c r="I47" s="3">
-        <v>81200</v>
+        <v>78800</v>
       </c>
       <c r="J47" s="3">
-        <v>62700</v>
+        <v>60800</v>
       </c>
       <c r="K47" s="3">
         <v>75900</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4543500</v>
+        <v>4409000</v>
       </c>
       <c r="E48" s="3">
-        <v>4558900</v>
+        <v>4424100</v>
       </c>
       <c r="F48" s="3">
-        <v>4593000</v>
+        <v>4457100</v>
       </c>
       <c r="G48" s="3">
-        <v>4657200</v>
+        <v>4519400</v>
       </c>
       <c r="H48" s="3">
-        <v>4673500</v>
+        <v>4535200</v>
       </c>
       <c r="I48" s="3">
-        <v>4712900</v>
+        <v>4573500</v>
       </c>
       <c r="J48" s="3">
-        <v>4743900</v>
+        <v>4603500</v>
       </c>
       <c r="K48" s="3">
         <v>4727100</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6409000</v>
+        <v>6219400</v>
       </c>
       <c r="E49" s="3">
-        <v>6410500</v>
+        <v>6220900</v>
       </c>
       <c r="F49" s="3">
-        <v>6412100</v>
+        <v>6222400</v>
       </c>
       <c r="G49" s="3">
-        <v>6403600</v>
+        <v>6214100</v>
       </c>
       <c r="H49" s="3">
-        <v>6407400</v>
+        <v>6217900</v>
       </c>
       <c r="I49" s="3">
-        <v>6410500</v>
+        <v>6220900</v>
       </c>
       <c r="J49" s="3">
-        <v>6412800</v>
+        <v>6223100</v>
       </c>
       <c r="K49" s="3">
         <v>6329400</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>94400</v>
+        <v>91600</v>
       </c>
       <c r="E52" s="3">
-        <v>99800</v>
+        <v>96900</v>
       </c>
       <c r="F52" s="3">
-        <v>138500</v>
+        <v>134400</v>
       </c>
       <c r="G52" s="3">
-        <v>127700</v>
+        <v>123900</v>
       </c>
       <c r="H52" s="3">
-        <v>116800</v>
+        <v>113400</v>
       </c>
       <c r="I52" s="3">
+        <v>120900</v>
+      </c>
+      <c r="J52" s="3">
         <v>124600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>128400</v>
       </c>
       <c r="K52" s="3">
         <v>135700</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>12194300</v>
+        <v>11833600</v>
       </c>
       <c r="E54" s="3">
-        <v>12137800</v>
+        <v>11778700</v>
       </c>
       <c r="F54" s="3">
-        <v>12113800</v>
+        <v>11755500</v>
       </c>
       <c r="G54" s="3">
-        <v>12219100</v>
+        <v>11857600</v>
       </c>
       <c r="H54" s="3">
-        <v>12364500</v>
+        <v>11998700</v>
       </c>
       <c r="I54" s="3">
-        <v>12293300</v>
+        <v>11929700</v>
       </c>
       <c r="J54" s="3">
-        <v>12387700</v>
+        <v>12021300</v>
       </c>
       <c r="K54" s="3">
         <v>12336800</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>633700</v>
+        <v>615000</v>
       </c>
       <c r="E57" s="3">
-        <v>663100</v>
+        <v>643500</v>
       </c>
       <c r="F57" s="3">
-        <v>659200</v>
+        <v>639700</v>
       </c>
       <c r="G57" s="3">
-        <v>764500</v>
+        <v>741800</v>
       </c>
       <c r="H57" s="3">
-        <v>686300</v>
+        <v>666000</v>
       </c>
       <c r="I57" s="3">
-        <v>723500</v>
+        <v>702100</v>
       </c>
       <c r="J57" s="3">
-        <v>690200</v>
+        <v>669800</v>
       </c>
       <c r="K57" s="3">
         <v>687700</v>
@@ -4140,25 +4140,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>243000</v>
+        <v>235800</v>
       </c>
       <c r="E58" s="3">
-        <v>242200</v>
+        <v>235000</v>
       </c>
       <c r="F58" s="3">
-        <v>241400</v>
+        <v>234300</v>
       </c>
       <c r="G58" s="3">
-        <v>240600</v>
+        <v>233500</v>
       </c>
       <c r="H58" s="3">
-        <v>240600</v>
+        <v>233500</v>
       </c>
       <c r="I58" s="3">
-        <v>239100</v>
+        <v>232000</v>
       </c>
       <c r="J58" s="3">
-        <v>239900</v>
+        <v>232800</v>
       </c>
       <c r="K58" s="3">
         <v>278300</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>208900</v>
+        <v>202700</v>
       </c>
       <c r="E59" s="3">
-        <v>194200</v>
+        <v>188500</v>
       </c>
       <c r="F59" s="3">
-        <v>200400</v>
+        <v>194500</v>
       </c>
       <c r="G59" s="3">
-        <v>201900</v>
+        <v>196000</v>
       </c>
       <c r="H59" s="3">
-        <v>434800</v>
+        <v>422000</v>
       </c>
       <c r="I59" s="3">
-        <v>239900</v>
+        <v>232800</v>
       </c>
       <c r="J59" s="3">
-        <v>254600</v>
+        <v>247000</v>
       </c>
       <c r="K59" s="3">
         <v>263000</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1085600</v>
+        <v>1053500</v>
       </c>
       <c r="E60" s="3">
-        <v>1099500</v>
+        <v>1067000</v>
       </c>
       <c r="F60" s="3">
-        <v>1101000</v>
+        <v>1068500</v>
       </c>
       <c r="G60" s="3">
-        <v>1207100</v>
+        <v>1171300</v>
       </c>
       <c r="H60" s="3">
-        <v>1361800</v>
+        <v>1321500</v>
       </c>
       <c r="I60" s="3">
-        <v>1202400</v>
+        <v>1166800</v>
       </c>
       <c r="J60" s="3">
-        <v>1184600</v>
+        <v>1149600</v>
       </c>
       <c r="K60" s="3">
         <v>1228900</v>
@@ -4371,25 +4371,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4344600</v>
+        <v>4216100</v>
       </c>
       <c r="E61" s="3">
-        <v>4360900</v>
+        <v>4231800</v>
       </c>
       <c r="F61" s="3">
-        <v>4374000</v>
+        <v>4244600</v>
       </c>
       <c r="G61" s="3">
-        <v>4398000</v>
+        <v>4267900</v>
       </c>
       <c r="H61" s="3">
-        <v>4424300</v>
+        <v>4293400</v>
       </c>
       <c r="I61" s="3">
-        <v>4433600</v>
+        <v>4302400</v>
       </c>
       <c r="J61" s="3">
-        <v>4449100</v>
+        <v>4317400</v>
       </c>
       <c r="K61" s="3">
         <v>4380600</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1890300</v>
+        <v>1834400</v>
       </c>
       <c r="E62" s="3">
-        <v>1896500</v>
+        <v>1840400</v>
       </c>
       <c r="F62" s="3">
-        <v>1911200</v>
+        <v>1854600</v>
       </c>
       <c r="G62" s="3">
-        <v>1938200</v>
+        <v>1880900</v>
       </c>
       <c r="H62" s="3">
-        <v>1997800</v>
+        <v>1938700</v>
       </c>
       <c r="I62" s="3">
-        <v>1986200</v>
+        <v>1927500</v>
       </c>
       <c r="J62" s="3">
-        <v>1983900</v>
+        <v>1925200</v>
       </c>
       <c r="K62" s="3">
         <v>1936500</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7320400</v>
+        <v>7103900</v>
       </c>
       <c r="E66" s="3">
-        <v>7356800</v>
+        <v>7139200</v>
       </c>
       <c r="F66" s="3">
-        <v>7386200</v>
+        <v>7167700</v>
       </c>
       <c r="G66" s="3">
-        <v>7543300</v>
+        <v>7320100</v>
       </c>
       <c r="H66" s="3">
-        <v>7783900</v>
+        <v>7553700</v>
       </c>
       <c r="I66" s="3">
-        <v>7622200</v>
+        <v>7396700</v>
       </c>
       <c r="J66" s="3">
-        <v>7617600</v>
+        <v>7392200</v>
       </c>
       <c r="K66" s="3">
         <v>7546000</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>226700</v>
+        <v>220000</v>
       </c>
       <c r="J70" s="3">
-        <v>226700</v>
+        <v>220000</v>
       </c>
       <c r="K70" s="3">
         <v>224600</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1607100</v>
+        <v>1559500</v>
       </c>
       <c r="E72" s="3">
-        <v>1525800</v>
+        <v>1480700</v>
       </c>
       <c r="F72" s="3">
-        <v>1488700</v>
+        <v>1444700</v>
       </c>
       <c r="G72" s="3">
-        <v>1451600</v>
+        <v>1408600</v>
       </c>
       <c r="H72" s="3">
-        <v>1371100</v>
+        <v>1330500</v>
       </c>
       <c r="I72" s="3">
-        <v>1237200</v>
+        <v>1200600</v>
       </c>
       <c r="J72" s="3">
-        <v>1291400</v>
+        <v>1253200</v>
       </c>
       <c r="K72" s="3">
         <v>1289500</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4873900</v>
+        <v>4729700</v>
       </c>
       <c r="E76" s="3">
-        <v>4781000</v>
+        <v>4639600</v>
       </c>
       <c r="F76" s="3">
-        <v>4727600</v>
+        <v>4587800</v>
       </c>
       <c r="G76" s="3">
-        <v>4675800</v>
+        <v>4537400</v>
       </c>
       <c r="H76" s="3">
-        <v>4580600</v>
+        <v>4445100</v>
       </c>
       <c r="I76" s="3">
-        <v>4444400</v>
+        <v>4312900</v>
       </c>
       <c r="J76" s="3">
-        <v>4543500</v>
+        <v>4409000</v>
       </c>
       <c r="K76" s="3">
         <v>4566100</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>157100</v>
+        <v>152400</v>
       </c>
       <c r="E81" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="F81" s="3">
-        <v>151700</v>
+        <v>147200</v>
       </c>
       <c r="G81" s="3">
-        <v>194200</v>
+        <v>188500</v>
       </c>
       <c r="H81" s="3">
-        <v>272400</v>
+        <v>264300</v>
       </c>
       <c r="I81" s="3">
-        <v>166400</v>
+        <v>161400</v>
       </c>
       <c r="J81" s="3">
-        <v>124600</v>
+        <v>120900</v>
       </c>
       <c r="K81" s="3">
         <v>132600</v>
@@ -5820,25 +5820,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>236000</v>
+        <v>229000</v>
       </c>
       <c r="E83" s="3">
-        <v>236000</v>
+        <v>229000</v>
       </c>
       <c r="F83" s="3">
-        <v>232900</v>
+        <v>226000</v>
       </c>
       <c r="G83" s="3">
-        <v>239900</v>
+        <v>232800</v>
       </c>
       <c r="H83" s="3">
-        <v>233700</v>
+        <v>226800</v>
       </c>
       <c r="I83" s="3">
-        <v>234400</v>
+        <v>227500</v>
       </c>
       <c r="J83" s="3">
-        <v>236800</v>
+        <v>229800</v>
       </c>
       <c r="K83" s="3">
         <v>240000</v>
@@ -6282,25 +6282,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>436400</v>
+        <v>423500</v>
       </c>
       <c r="E89" s="3">
-        <v>376800</v>
+        <v>365700</v>
       </c>
       <c r="F89" s="3">
-        <v>280100</v>
+        <v>271800</v>
       </c>
       <c r="G89" s="3">
-        <v>456500</v>
+        <v>443000</v>
       </c>
       <c r="H89" s="3">
-        <v>433300</v>
+        <v>420500</v>
       </c>
       <c r="I89" s="3">
-        <v>366000</v>
+        <v>355200</v>
       </c>
       <c r="J89" s="3">
-        <v>232100</v>
+        <v>225300</v>
       </c>
       <c r="K89" s="3">
         <v>484500</v>
@@ -6391,22 +6391,22 @@
         <v>-800</v>
       </c>
       <c r="E91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="H91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="I91" s="3">
-        <v>-3900</v>
+        <v>-3800</v>
       </c>
       <c r="J91" s="3">
-        <v>-5400</v>
+        <v>-5300</v>
       </c>
       <c r="K91" s="3">
         <v>-6100</v>
@@ -6619,25 +6619,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196500</v>
+        <v>-190700</v>
       </c>
       <c r="E94" s="3">
-        <v>-198100</v>
+        <v>-192200</v>
       </c>
       <c r="F94" s="3">
-        <v>-193400</v>
+        <v>-187700</v>
       </c>
       <c r="G94" s="3">
-        <v>-194200</v>
+        <v>-188500</v>
       </c>
       <c r="H94" s="3">
-        <v>-201200</v>
+        <v>-195200</v>
       </c>
       <c r="I94" s="3">
-        <v>-196500</v>
+        <v>-190700</v>
       </c>
       <c r="J94" s="3">
-        <v>-179500</v>
+        <v>-174200</v>
       </c>
       <c r="K94" s="3">
         <v>-221600</v>
@@ -6725,25 +6725,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-114500</v>
+        <v>-111100</v>
       </c>
       <c r="E96" s="3">
-        <v>-114500</v>
+        <v>-111100</v>
       </c>
       <c r="F96" s="3">
-        <v>-114500</v>
+        <v>-111100</v>
       </c>
       <c r="G96" s="3">
-        <v>-114500</v>
+        <v>-111100</v>
       </c>
       <c r="H96" s="3">
-        <v>-114500</v>
+        <v>-111100</v>
       </c>
       <c r="I96" s="3">
-        <v>-115300</v>
+        <v>-111900</v>
       </c>
       <c r="J96" s="3">
-        <v>-117600</v>
+        <v>-114100</v>
       </c>
       <c r="K96" s="3">
         <v>-116500</v>
@@ -7033,25 +7033,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-132300</v>
+        <v>-128400</v>
       </c>
       <c r="E100" s="3">
-        <v>-133100</v>
+        <v>-129100</v>
       </c>
       <c r="F100" s="3">
-        <v>-135400</v>
+        <v>-131400</v>
       </c>
       <c r="G100" s="3">
-        <v>-367500</v>
+        <v>-356700</v>
       </c>
       <c r="H100" s="3">
-        <v>-152400</v>
+        <v>-147900</v>
       </c>
       <c r="I100" s="3">
-        <v>-311000</v>
+        <v>-301800</v>
       </c>
       <c r="J100" s="3">
-        <v>-201200</v>
+        <v>-195200</v>
       </c>
       <c r="K100" s="3">
         <v>-177100</v>
@@ -7187,25 +7187,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>107600</v>
+        <v>104400</v>
       </c>
       <c r="E102" s="3">
-        <v>45700</v>
+        <v>44300</v>
       </c>
       <c r="F102" s="3">
-        <v>-48700</v>
+        <v>-47300</v>
       </c>
       <c r="G102" s="3">
-        <v>-105200</v>
+        <v>-102100</v>
       </c>
       <c r="H102" s="3">
-        <v>79700</v>
+        <v>77300</v>
       </c>
       <c r="I102" s="3">
-        <v>-141600</v>
+        <v>-137400</v>
       </c>
       <c r="J102" s="3">
-        <v>-148600</v>
+        <v>-144200</v>
       </c>
       <c r="K102" s="3">
         <v>85900</v>

--- a/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SJR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SJR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1010700</v>
+        <v>990800</v>
       </c>
       <c r="E8" s="3">
-        <v>1020400</v>
+        <v>981400</v>
       </c>
       <c r="F8" s="3">
-        <v>1040700</v>
+        <v>973500</v>
       </c>
       <c r="G8" s="3">
-        <v>1033900</v>
+        <v>982900</v>
       </c>
       <c r="H8" s="3">
-        <v>1032400</v>
+        <v>1002400</v>
       </c>
       <c r="I8" s="3">
+        <v>995900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>994400</v>
+      </c>
+      <c r="K8" s="3">
         <v>1041400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1028700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1034200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1029600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1070000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1078300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1115100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1050000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1012300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1043100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>963600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>970300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1008400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>926500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>925800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>905000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>926500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>934200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>741300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>527100</v>
+        <v>544600</v>
       </c>
       <c r="E9" s="3">
-        <v>545900</v>
+        <v>530100</v>
       </c>
       <c r="F9" s="3">
-        <v>565400</v>
+        <v>507700</v>
       </c>
       <c r="G9" s="3">
+        <v>525800</v>
+      </c>
+      <c r="H9" s="3">
+        <v>544600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>551800</v>
+      </c>
+      <c r="J9" s="3">
+        <v>530100</v>
+      </c>
+      <c r="K9" s="3">
+        <v>563100</v>
+      </c>
+      <c r="L9" s="3">
         <v>572900</v>
       </c>
-      <c r="H9" s="3">
-        <v>550400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>563100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>572900</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>578800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>551700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>599000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>619800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>675700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>629700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1047700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>623600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>559600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>565300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>635600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>569300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1014400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1091000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1127000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1141600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>418700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>483600</v>
+        <v>446200</v>
       </c>
       <c r="E10" s="3">
-        <v>474500</v>
+        <v>451300</v>
       </c>
       <c r="F10" s="3">
-        <v>475300</v>
+        <v>465800</v>
       </c>
       <c r="G10" s="3">
-        <v>461000</v>
+        <v>457100</v>
       </c>
       <c r="H10" s="3">
-        <v>482100</v>
+        <v>457800</v>
       </c>
       <c r="I10" s="3">
+        <v>444100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>464300</v>
+      </c>
+      <c r="K10" s="3">
         <v>478300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>455800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>455400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>477900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>471000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>458400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>439400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>420300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>-35400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>419600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>404000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>405000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>372800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>357200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-88600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-186100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-200500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>-207400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>322700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,162 +1219,180 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6000</v>
+        <v>14500</v>
       </c>
       <c r="E14" s="3">
-        <v>2300</v>
+        <v>9400</v>
       </c>
       <c r="F14" s="3">
-        <v>1500</v>
+        <v>5800</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="H14" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>700</v>
+      </c>
+      <c r="K14" s="3">
         <v>800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>11000</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>800</v>
       </c>
-      <c r="J14" s="3">
-        <v>9000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>11000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="U14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="V14" s="3">
+        <v>9800</v>
+      </c>
+      <c r="W14" s="3">
+        <v>310300</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>32000</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>9200</v>
+      </c>
+      <c r="AC14" s="3">
         <v>800</v>
       </c>
-      <c r="S14" s="3">
-        <v>11600</v>
-      </c>
-      <c r="T14" s="3">
-        <v>9800</v>
-      </c>
-      <c r="U14" s="3">
-        <v>310300</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>32000</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>9200</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>225600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>213300</v>
+      </c>
+      <c r="G15" s="3">
+        <v>216200</v>
+      </c>
+      <c r="H15" s="3">
+        <v>211200</v>
+      </c>
+      <c r="I15" s="3">
+        <v>218400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>211200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>220800</v>
+      </c>
+      <c r="L15" s="3">
         <v>221500</v>
       </c>
-      <c r="E15" s="3">
-        <v>224500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>219300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>226800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>219300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>220800</v>
-      </c>
-      <c r="J15" s="3">
-        <v>221500</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>230800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>227600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>226100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>225300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>195700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>195900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>190900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>187800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>174400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>174600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>171900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>177900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>168200</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>162200</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>163600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>156000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>761400</v>
+        <v>784000</v>
       </c>
       <c r="E17" s="3">
-        <v>777100</v>
+        <v>769500</v>
       </c>
       <c r="F17" s="3">
-        <v>792200</v>
+        <v>733300</v>
       </c>
       <c r="G17" s="3">
-        <v>805700</v>
+        <v>748500</v>
       </c>
       <c r="H17" s="3">
-        <v>776400</v>
+        <v>763000</v>
       </c>
       <c r="I17" s="3">
+        <v>776000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>747800</v>
+      </c>
+      <c r="K17" s="3">
         <v>791400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>810900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>818000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>799700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>834500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>856100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>874600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>838200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>793700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>826000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>759400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>764800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1132700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>762800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>753100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>734500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>719100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>728300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>526200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>249300</v>
+        <v>206800</v>
       </c>
       <c r="E18" s="3">
-        <v>243300</v>
+        <v>211900</v>
       </c>
       <c r="F18" s="3">
-        <v>248500</v>
+        <v>240100</v>
       </c>
       <c r="G18" s="3">
-        <v>228300</v>
+        <v>234300</v>
       </c>
       <c r="H18" s="3">
-        <v>256000</v>
+        <v>239400</v>
       </c>
       <c r="I18" s="3">
+        <v>219900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>246600</v>
+      </c>
+      <c r="K18" s="3">
         <v>250000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>217700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>216200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>229900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>235500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>222200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>240400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>211700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>218600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>217100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>204200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>205500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-124300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>163700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>172700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>170400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>207400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>205900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>215100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1614,425 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="E20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>19500</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="M20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-15800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>19500</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
+        <v>5500</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-28500</v>
+      </c>
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
-        <v>5500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-14900</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="O20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-28500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>17700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>28300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-194200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>10400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>25300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>27500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>33500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>3800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-61500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-10000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>483600</v>
+        <v>436800</v>
       </c>
       <c r="E21" s="3">
-        <v>470800</v>
+        <v>445500</v>
       </c>
       <c r="F21" s="3">
-        <v>473800</v>
+        <v>465800</v>
       </c>
       <c r="G21" s="3">
-        <v>456500</v>
+        <v>453500</v>
       </c>
       <c r="H21" s="3">
-        <v>467000</v>
+        <v>456400</v>
       </c>
       <c r="I21" s="3">
+        <v>439700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>449800</v>
+      </c>
+      <c r="K21" s="3">
         <v>497100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>446000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>455400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>472400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>456900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>456900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>450200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>391800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>421100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>437300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>421500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>201000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>70000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>383300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>384800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>382500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>391000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>316500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>400200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>51800</v>
+        <v>47700</v>
       </c>
       <c r="E22" s="3">
-        <v>48800</v>
+        <v>47700</v>
       </c>
       <c r="F22" s="3">
+        <v>49900</v>
+      </c>
+      <c r="G22" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>48500</v>
+      </c>
+      <c r="I22" s="3">
+        <v>48500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>23100</v>
+      </c>
+      <c r="K22" s="3">
         <v>50300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="L22" s="3">
         <v>50300</v>
       </c>
-      <c r="H22" s="3">
-        <v>24000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>50300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>50300</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>52900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>52600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>54200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>56100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>55500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>50000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>52300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>48500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>47200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>45200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>47600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>46100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>49100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>49900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>53000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>51500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>30700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>202700</v>
+        <v>163400</v>
       </c>
       <c r="E23" s="3">
-        <v>193000</v>
+        <v>167100</v>
       </c>
       <c r="F23" s="3">
-        <v>197500</v>
+        <v>195300</v>
       </c>
       <c r="G23" s="3">
-        <v>173400</v>
+        <v>185900</v>
       </c>
       <c r="H23" s="3">
-        <v>216200</v>
+        <v>190200</v>
       </c>
       <c r="I23" s="3">
+        <v>167100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>208300</v>
+      </c>
+      <c r="K23" s="3">
         <v>219300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>165900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>162500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>182800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>166400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>163700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>186500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>133200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>165500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>186300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>185300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-33900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-161500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>142900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>151100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>154100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>158300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>93000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>174400</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50300</v>
+        <v>41900</v>
       </c>
       <c r="E24" s="3">
-        <v>45800</v>
+        <v>44800</v>
       </c>
       <c r="F24" s="3">
-        <v>50300</v>
+        <v>48500</v>
       </c>
       <c r="G24" s="3">
-        <v>-15800</v>
+        <v>44100</v>
       </c>
       <c r="H24" s="3">
-        <v>-49600</v>
+        <v>48500</v>
       </c>
       <c r="I24" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-47700</v>
+      </c>
+      <c r="K24" s="3">
         <v>56300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>43500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>28400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>38500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>35300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>37400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>52200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-48400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>47000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>42300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>42900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>40700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-39400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>55800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>40200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>32000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>43000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>21500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>50700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>152400</v>
+        <v>121500</v>
       </c>
       <c r="E26" s="3">
-        <v>147200</v>
+        <v>122200</v>
       </c>
       <c r="F26" s="3">
-        <v>147200</v>
+        <v>146800</v>
       </c>
       <c r="G26" s="3">
-        <v>189200</v>
+        <v>141800</v>
       </c>
       <c r="H26" s="3">
-        <v>265800</v>
+        <v>141800</v>
       </c>
       <c r="I26" s="3">
+        <v>182300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>256000</v>
+      </c>
+      <c r="K26" s="3">
         <v>162900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>122400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>134200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>144400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>131100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>126300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>134300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>181600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>118600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>144000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>142400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-74500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-122100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>87100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>110900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>122100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>115200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>71400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>123700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>152400</v>
+        <v>121500</v>
       </c>
       <c r="E27" s="3">
-        <v>147200</v>
+        <v>122200</v>
       </c>
       <c r="F27" s="3">
-        <v>147200</v>
+        <v>146800</v>
       </c>
       <c r="G27" s="3">
-        <v>188500</v>
+        <v>141800</v>
       </c>
       <c r="H27" s="3">
-        <v>264300</v>
+        <v>141800</v>
       </c>
       <c r="I27" s="3">
+        <v>181500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K27" s="3">
         <v>161400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>120900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>132600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>142000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>129500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>124700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>132600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>177600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>117000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>142400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>141000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-76000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-123500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>85600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>109400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>120600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>114500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>69900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>122100</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2293,34 +2414,40 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-4400</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-4500</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>247100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>-23100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-5300</v>
+        <v>-4300</v>
       </c>
       <c r="E32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="L32" s="3">
         <v>1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="M32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>4500</v>
-      </c>
-      <c r="H32" s="3">
-        <v>15800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="O32" s="3">
+        <v>14900</v>
+      </c>
+      <c r="P32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R32" s="3">
+        <v>28500</v>
+      </c>
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>14900</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>28500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>800</v>
-      </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-17700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-28300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>194200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-10400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-25300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-27500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-33500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-3800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>61500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>152400</v>
+        <v>121500</v>
       </c>
       <c r="E33" s="3">
-        <v>147200</v>
+        <v>122200</v>
       </c>
       <c r="F33" s="3">
-        <v>147200</v>
+        <v>146800</v>
       </c>
       <c r="G33" s="3">
-        <v>188500</v>
+        <v>141800</v>
       </c>
       <c r="H33" s="3">
-        <v>264300</v>
+        <v>141800</v>
       </c>
       <c r="I33" s="3">
+        <v>181500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K33" s="3">
         <v>161400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>120900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>132600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>142000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>129500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>124700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>132600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>177600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>117000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>142400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>136600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-76000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-123500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>81100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>356500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>97500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>112200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>66800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>152400</v>
+        <v>121500</v>
       </c>
       <c r="E35" s="3">
-        <v>147200</v>
+        <v>122200</v>
       </c>
       <c r="F35" s="3">
-        <v>147200</v>
+        <v>146800</v>
       </c>
       <c r="G35" s="3">
-        <v>188500</v>
+        <v>141800</v>
       </c>
       <c r="H35" s="3">
-        <v>264300</v>
+        <v>141800</v>
       </c>
       <c r="I35" s="3">
+        <v>181500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K35" s="3">
         <v>161400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>120900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>132600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>142000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>129500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>124700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>132600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>177600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>117000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>142400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>136600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-76000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-123500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>81100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>356500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>97500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>112200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>66800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>367900</v>
+        <v>207600</v>
       </c>
       <c r="E41" s="3">
-        <v>263600</v>
+        <v>304500</v>
       </c>
       <c r="F41" s="3">
-        <v>219300</v>
+        <v>354400</v>
       </c>
       <c r="G41" s="3">
-        <v>266600</v>
+        <v>253900</v>
       </c>
       <c r="H41" s="3">
-        <v>368700</v>
+        <v>211200</v>
       </c>
       <c r="I41" s="3">
+        <v>256700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>355100</v>
+      </c>
+      <c r="K41" s="3">
         <v>291300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>428700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>499100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>36900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>36900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>102900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1198800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1131600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>991500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>915300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>279000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>221300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>206900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>331200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>377300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>130200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>476300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>222000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>311100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,547 +3254,595 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>436200</v>
+        <v>487500</v>
       </c>
       <c r="E43" s="3">
-        <v>475300</v>
+        <v>438300</v>
       </c>
       <c r="F43" s="3">
-        <v>476000</v>
+        <v>420200</v>
       </c>
       <c r="G43" s="3">
-        <v>490300</v>
+        <v>457800</v>
       </c>
       <c r="H43" s="3">
-        <v>522600</v>
+        <v>458500</v>
       </c>
       <c r="I43" s="3">
+        <v>472300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>503400</v>
+      </c>
+      <c r="K43" s="3">
         <v>474500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>406200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>394800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>430800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>431000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>407000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>428600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>337000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>390300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>364100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>226700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>185200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>189000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>175600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>212800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>180800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>203600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>199000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57100</v>
+        <v>65800</v>
       </c>
       <c r="E44" s="3">
-        <v>51800</v>
+        <v>66500</v>
       </c>
       <c r="F44" s="3">
-        <v>40500</v>
+        <v>55000</v>
       </c>
       <c r="G44" s="3">
-        <v>47300</v>
+        <v>49900</v>
       </c>
       <c r="H44" s="3">
-        <v>48100</v>
+        <v>39100</v>
       </c>
       <c r="I44" s="3">
+        <v>45600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>46300</v>
+      </c>
+      <c r="K44" s="3">
         <v>52600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>48800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>62900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>54900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>55000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>70900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>71300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>50800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>57000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>80100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>44300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>91800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>99000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>92300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>81100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>66200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>61500</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>52200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>49900</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>141200</v>
+        <v>137400</v>
       </c>
       <c r="E45" s="3">
-        <v>132900</v>
+        <v>133100</v>
       </c>
       <c r="F45" s="3">
-        <v>132900</v>
+        <v>136000</v>
       </c>
       <c r="G45" s="3">
-        <v>122400</v>
+        <v>128000</v>
       </c>
       <c r="H45" s="3">
+        <v>128000</v>
+      </c>
+      <c r="I45" s="3">
         <v>117900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
+        <v>113500</v>
+      </c>
+      <c r="K45" s="3">
         <v>117100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>125400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>111900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>115400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>115400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>120100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>138500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>139600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>134700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>144000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>198400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>192700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>171200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>123500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>160700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>164500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>119800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>117500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1002400</v>
+        <v>898200</v>
       </c>
       <c r="E46" s="3">
-        <v>923600</v>
+        <v>942400</v>
       </c>
       <c r="F46" s="3">
-        <v>868700</v>
+        <v>965500</v>
       </c>
       <c r="G46" s="3">
-        <v>926600</v>
+        <v>889600</v>
       </c>
       <c r="H46" s="3">
-        <v>1057200</v>
+        <v>836800</v>
       </c>
       <c r="I46" s="3">
+        <v>892500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1018300</v>
+      </c>
+      <c r="K46" s="3">
         <v>935600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1009200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1068700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>638000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>638200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>700900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1837200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1659000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1573500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1503500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>748500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>691100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>666100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>722600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>832000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>541800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>861200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>590800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>673000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>111100</v>
+        <v>68700</v>
       </c>
       <c r="E47" s="3">
-        <v>113400</v>
+        <v>122900</v>
       </c>
       <c r="F47" s="3">
-        <v>72800</v>
+        <v>107000</v>
       </c>
       <c r="G47" s="3">
-        <v>73600</v>
+        <v>109200</v>
       </c>
       <c r="H47" s="3">
-        <v>75100</v>
+        <v>70200</v>
       </c>
       <c r="I47" s="3">
+        <v>70900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>72300</v>
+      </c>
+      <c r="K47" s="3">
         <v>78800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>60800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>75900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>92600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>92600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>83400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>73800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>88800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>575100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>585100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>534800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>502100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>704800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>702500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>697300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>686200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>690600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>682200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>655300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4409000</v>
+        <v>4251100</v>
       </c>
       <c r="E48" s="3">
-        <v>4424100</v>
+        <v>4254700</v>
       </c>
       <c r="F48" s="3">
-        <v>4457100</v>
+        <v>4246700</v>
       </c>
       <c r="G48" s="3">
-        <v>4519400</v>
+        <v>4261200</v>
       </c>
       <c r="H48" s="3">
-        <v>4535200</v>
+        <v>4293000</v>
       </c>
       <c r="I48" s="3">
+        <v>4353100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4368200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4573500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>4603500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>4727100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>4863000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>4865000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>4830100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>4048300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3820000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3654300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3631200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3416900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3400400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3331100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3304300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3232800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3520900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3593000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3566900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>7078500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6219400</v>
+        <v>5986800</v>
       </c>
       <c r="E49" s="3">
+        <v>5986800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>5990400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>5991900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5993300</v>
+      </c>
+      <c r="I49" s="3">
+        <v>5985400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>5989000</v>
+      </c>
+      <c r="K49" s="3">
         <v>6220900</v>
       </c>
-      <c r="F49" s="3">
-        <v>6222400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>6214100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>6217900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6220900</v>
-      </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>6223100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6329400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>6478000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>6480600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>6433800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>6847100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>6528100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>5965300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5976100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>5640600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>5819100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5747500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>5740800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>5741600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>6504400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>6745800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>6763500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>6733500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>91600</v>
+        <v>173600</v>
       </c>
       <c r="E52" s="3">
         <v>96900</v>
       </c>
       <c r="F52" s="3">
-        <v>134400</v>
+        <v>88200</v>
       </c>
       <c r="G52" s="3">
-        <v>123900</v>
+        <v>93300</v>
       </c>
       <c r="H52" s="3">
-        <v>113400</v>
+        <v>129500</v>
       </c>
       <c r="I52" s="3">
+        <v>119300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>109200</v>
+      </c>
+      <c r="K52" s="3">
         <v>120900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>124600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>135700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>161700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>161700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>160600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>165000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>169700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>136300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>147000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>146100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>226600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>224000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>195000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>192800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>198700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>217400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>220500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>215900</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11833600</v>
+        <v>11378400</v>
       </c>
       <c r="E54" s="3">
-        <v>11778700</v>
+        <v>11403700</v>
       </c>
       <c r="F54" s="3">
-        <v>11755500</v>
+        <v>11397900</v>
       </c>
       <c r="G54" s="3">
-        <v>11857600</v>
+        <v>11345200</v>
       </c>
       <c r="H54" s="3">
-        <v>11998700</v>
+        <v>11322700</v>
       </c>
       <c r="I54" s="3">
+        <v>11421100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>11557100</v>
+      </c>
+      <c r="K54" s="3">
         <v>11929700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12021300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12336800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12233300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12238100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12208900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12971300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12265600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>11904500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11842900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>10486900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>10639200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>10673500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>10665300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>10696500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>11451900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>12108100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>11823800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>11816900</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>615000</v>
+        <v>552500</v>
       </c>
       <c r="E57" s="3">
-        <v>643500</v>
+        <v>693600</v>
       </c>
       <c r="F57" s="3">
-        <v>639700</v>
+        <v>592300</v>
       </c>
       <c r="G57" s="3">
-        <v>741800</v>
+        <v>619800</v>
       </c>
       <c r="H57" s="3">
-        <v>666000</v>
+        <v>616200</v>
       </c>
       <c r="I57" s="3">
+        <v>714500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>641500</v>
+      </c>
+      <c r="K57" s="3">
         <v>702100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>669800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>687700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>678800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>679100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>712600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>841500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>720900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>716700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>659000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>704900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>623300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>636300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>668300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>679500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>651200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>706000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>670700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>725200</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>235800</v>
+        <v>588700</v>
       </c>
       <c r="E58" s="3">
-        <v>235000</v>
+        <v>227100</v>
       </c>
       <c r="F58" s="3">
-        <v>234300</v>
+        <v>227100</v>
       </c>
       <c r="G58" s="3">
-        <v>233500</v>
+        <v>226400</v>
       </c>
       <c r="H58" s="3">
-        <v>233500</v>
+        <v>225600</v>
       </c>
       <c r="I58" s="3">
+        <v>224900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>224900</v>
+      </c>
+      <c r="K58" s="3">
         <v>232000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>232800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>278300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>290400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>290500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>182400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1070300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1023800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>993800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>993800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>29800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>8900</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>316500</v>
-      </c>
-      <c r="Z58" s="3">
-        <v>316500</v>
       </c>
       <c r="AA58" s="3">
         <v>316500</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>316500</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>316500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>202700</v>
+        <v>179400</v>
       </c>
       <c r="E59" s="3">
-        <v>188500</v>
+        <v>177200</v>
       </c>
       <c r="F59" s="3">
-        <v>194500</v>
+        <v>195300</v>
       </c>
       <c r="G59" s="3">
-        <v>196000</v>
+        <v>181500</v>
       </c>
       <c r="H59" s="3">
+        <v>187300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>188800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>406400</v>
+      </c>
+      <c r="K59" s="3">
+        <v>232800</v>
+      </c>
+      <c r="L59" s="3">
+        <v>247000</v>
+      </c>
+      <c r="M59" s="3">
+        <v>263000</v>
+      </c>
+      <c r="N59" s="3">
+        <v>284900</v>
+      </c>
+      <c r="O59" s="3">
+        <v>285000</v>
+      </c>
+      <c r="P59" s="3">
+        <v>365700</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>438600</v>
+      </c>
+      <c r="R59" s="3">
+        <v>437000</v>
+      </c>
+      <c r="S59" s="3">
+        <v>435700</v>
+      </c>
+      <c r="T59" s="3">
+        <v>472700</v>
+      </c>
+      <c r="U59" s="3">
+        <v>599500</v>
+      </c>
+      <c r="V59" s="3">
+        <v>441900</v>
+      </c>
+      <c r="W59" s="3">
         <v>422000</v>
       </c>
-      <c r="I59" s="3">
-        <v>232800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>247000</v>
-      </c>
-      <c r="K59" s="3">
-        <v>263000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>284900</v>
-      </c>
-      <c r="M59" s="3">
-        <v>285000</v>
-      </c>
-      <c r="N59" s="3">
-        <v>365700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>438600</v>
-      </c>
-      <c r="P59" s="3">
-        <v>437000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>435700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>472700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>599500</v>
-      </c>
-      <c r="T59" s="3">
-        <v>441900</v>
-      </c>
-      <c r="U59" s="3">
-        <v>422000</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>280600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>355000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>349000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>334900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>371800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>355700</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1053500</v>
+        <v>1320600</v>
       </c>
       <c r="E60" s="3">
-        <v>1067000</v>
+        <v>1097800</v>
       </c>
       <c r="F60" s="3">
-        <v>1068500</v>
+        <v>1014700</v>
       </c>
       <c r="G60" s="3">
-        <v>1171300</v>
+        <v>1027700</v>
       </c>
       <c r="H60" s="3">
-        <v>1321500</v>
+        <v>1029100</v>
       </c>
       <c r="I60" s="3">
+        <v>1128200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1272900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1166800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1149600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1228900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1254000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1254500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1260700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2350400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2181600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2146300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2125500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1173600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1066000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1059000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>949600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1035900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1009100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1357500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1359000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1397400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4216100</v>
+        <v>3646500</v>
       </c>
       <c r="E61" s="3">
-        <v>4231800</v>
+        <v>4027600</v>
       </c>
       <c r="F61" s="3">
-        <v>4244600</v>
+        <v>4060900</v>
       </c>
       <c r="G61" s="3">
-        <v>4267900</v>
+        <v>4076100</v>
       </c>
       <c r="H61" s="3">
-        <v>4293400</v>
+        <v>4088400</v>
       </c>
       <c r="I61" s="3">
+        <v>4110800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4135400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4302400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4317400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4380600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4112800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4114400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4094000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3363500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3216500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>3121600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3120900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3132000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3244500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>3207500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3199400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3198600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>4134800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>4252900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>4030900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>3994800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1834400</v>
+        <v>1774800</v>
       </c>
       <c r="E62" s="3">
-        <v>1840400</v>
+        <v>1767500</v>
       </c>
       <c r="F62" s="3">
-        <v>1854600</v>
+        <v>1766800</v>
       </c>
       <c r="G62" s="3">
-        <v>1880900</v>
+        <v>1772600</v>
       </c>
       <c r="H62" s="3">
-        <v>1938700</v>
+        <v>1786400</v>
       </c>
       <c r="I62" s="3">
+        <v>1811700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1867400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1927500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1925200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>1936500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1990900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1991700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1952300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2046900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1923100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1918400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1924600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1842900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1940700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1934200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>1913400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>1882100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>1964700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>2037300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>2028900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>2047300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7103900</v>
+        <v>6741900</v>
       </c>
       <c r="E66" s="3">
-        <v>7139200</v>
+        <v>6893000</v>
       </c>
       <c r="F66" s="3">
-        <v>7167700</v>
+        <v>6842400</v>
       </c>
       <c r="G66" s="3">
-        <v>7320100</v>
+        <v>6876400</v>
       </c>
       <c r="H66" s="3">
-        <v>7553700</v>
+        <v>6903900</v>
       </c>
       <c r="I66" s="3">
+        <v>7050700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>7275600</v>
+      </c>
+      <c r="K66" s="3">
         <v>7396700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>7392200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>7546000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7357700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>7360600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7307100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7763200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7323500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>7187000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>7171600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6149300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6251900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6201500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>6063100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6117400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>7109400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>7648500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>7419600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>7440300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5031,46 +5366,46 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
         <v>220000</v>
       </c>
-      <c r="J70" s="3">
+      <c r="L70" s="3">
         <v>220000</v>
       </c>
-      <c r="K70" s="3">
+      <c r="M70" s="3">
         <v>224600</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>229900</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>230000</v>
       </c>
-      <c r="N70" s="3">
+      <c r="P70" s="3">
         <v>228400</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>242900</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>232400</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="S70" s="3">
         <v>225600</v>
       </c>
-      <c r="R70" s="3">
+      <c r="T70" s="3">
         <v>225600</v>
       </c>
-      <c r="S70" s="3">
+      <c r="U70" s="3">
         <v>212900</v>
       </c>
-      <c r="T70" s="3">
+      <c r="V70" s="3">
         <v>220600</v>
-      </c>
-      <c r="U70" s="3">
-        <v>218100</v>
-      </c>
-      <c r="V70" s="3">
-        <v>218100</v>
       </c>
       <c r="W70" s="3">
         <v>218100</v>
@@ -5079,16 +5414,22 @@
         <v>218100</v>
       </c>
       <c r="Y70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="Z70" s="3">
-        <v>225100</v>
+        <v>218100</v>
       </c>
       <c r="AA70" s="3">
         <v>225100</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>225100</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>225100</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1559500</v>
+        <v>1567900</v>
       </c>
       <c r="E72" s="3">
-        <v>1480700</v>
+        <v>1446400</v>
       </c>
       <c r="F72" s="3">
-        <v>1444700</v>
+        <v>1502100</v>
       </c>
       <c r="G72" s="3">
-        <v>1408600</v>
+        <v>1426200</v>
       </c>
       <c r="H72" s="3">
-        <v>1330500</v>
+        <v>1391500</v>
       </c>
       <c r="I72" s="3">
+        <v>1356800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>1281500</v>
+      </c>
+      <c r="K72" s="3">
         <v>1200600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1253200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1289500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1312900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1313400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1335600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1446700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1379100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>1282500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>1281000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>1176500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>1181900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>1348500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>1583700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>1610500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>1364100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>1420500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>1420500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>1465800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4729700</v>
+        <v>4636600</v>
       </c>
       <c r="E76" s="3">
-        <v>4639600</v>
+        <v>4510700</v>
       </c>
       <c r="F76" s="3">
-        <v>4587800</v>
+        <v>4555600</v>
       </c>
       <c r="G76" s="3">
-        <v>4537400</v>
+        <v>4468800</v>
       </c>
       <c r="H76" s="3">
-        <v>4445100</v>
+        <v>4418900</v>
       </c>
       <c r="I76" s="3">
+        <v>4370400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4281500</v>
+      </c>
+      <c r="K76" s="3">
         <v>4312900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4409000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4566100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4645700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4647500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4673300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4965200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4709700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4491900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4445700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4124700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4166700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4253900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4384100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4361100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>4124400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>4234500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>4179200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4151500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>152400</v>
+        <v>121500</v>
       </c>
       <c r="E81" s="3">
-        <v>147200</v>
+        <v>122200</v>
       </c>
       <c r="F81" s="3">
-        <v>147200</v>
+        <v>146800</v>
       </c>
       <c r="G81" s="3">
-        <v>188500</v>
+        <v>141800</v>
       </c>
       <c r="H81" s="3">
-        <v>264300</v>
+        <v>141800</v>
       </c>
       <c r="I81" s="3">
+        <v>181500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>254600</v>
+      </c>
+      <c r="K81" s="3">
         <v>161400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>120900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>132600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>142000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>129500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>124700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>132600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>177600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>117000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>142400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>136600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-76000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-123500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>81100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>356500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>97500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>112200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>66800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>116800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>229000</v>
+        <v>225600</v>
       </c>
       <c r="E83" s="3">
-        <v>229000</v>
+        <v>230700</v>
       </c>
       <c r="F83" s="3">
-        <v>226000</v>
+        <v>220600</v>
       </c>
       <c r="G83" s="3">
-        <v>232800</v>
+        <v>220600</v>
       </c>
       <c r="H83" s="3">
-        <v>226800</v>
+        <v>217700</v>
       </c>
       <c r="I83" s="3">
+        <v>224200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>218400</v>
+      </c>
+      <c r="K83" s="3">
         <v>227500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>229800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>240000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>237000</v>
-      </c>
-      <c r="M83" s="3">
-        <v>236300</v>
       </c>
       <c r="N83" s="3">
         <v>237000</v>
       </c>
       <c r="O83" s="3">
+        <v>236300</v>
+      </c>
+      <c r="P83" s="3">
+        <v>237000</v>
+      </c>
+      <c r="Q83" s="3">
         <v>208100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>208600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>203200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>202500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>188900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>189700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>183800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>194200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>113100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>202400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>204300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>196700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>195100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>423500</v>
+        <v>245900</v>
       </c>
       <c r="E89" s="3">
-        <v>365700</v>
+        <v>302300</v>
       </c>
       <c r="F89" s="3">
-        <v>271800</v>
+        <v>407900</v>
       </c>
       <c r="G89" s="3">
-        <v>443000</v>
+        <v>352200</v>
       </c>
       <c r="H89" s="3">
-        <v>420500</v>
+        <v>261800</v>
       </c>
       <c r="I89" s="3">
+        <v>426700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>405000</v>
+      </c>
+      <c r="K89" s="3">
         <v>355200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>225300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>484500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>461400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>283400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>264300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>360600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>331500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>292500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>257900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>318300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>259700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>150300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>272400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>265700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>325200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>341900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>202000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>360300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-800</v>
+        <v>-3600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3000</v>
+        <v>-2200</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-3800</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-5300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-5500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-9900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-7700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-6900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-8300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-7400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-11200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-471700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-434000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-245100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-216200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-227800</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-183700</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-185100</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-180800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-181500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-188000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-190700</v>
       </c>
-      <c r="E94" s="3">
-        <v>-192200</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-187700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-188500</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-195200</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-190700</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-174200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-221600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-204800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-230800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-241700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-264500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-160200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-179400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-291800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-230400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-163400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-215800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-260500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>810400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-294700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-263500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-231200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-243500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +7184,93 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-111100</v>
+        <v>-107000</v>
       </c>
       <c r="E96" s="3">
-        <v>-111100</v>
+        <v>-107000</v>
       </c>
       <c r="F96" s="3">
-        <v>-111100</v>
+        <v>-107000</v>
       </c>
       <c r="G96" s="3">
-        <v>-111100</v>
+        <v>-107000</v>
       </c>
       <c r="H96" s="3">
-        <v>-111100</v>
+        <v>-107000</v>
       </c>
       <c r="I96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-107000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-111900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-114100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-116500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-119300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-120100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-90400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-80400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-76900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-74700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-75400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-71200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-72300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-70000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-71400</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-73700</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Z96" s="3">
         <v>-70700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="AA96" s="3">
         <v>-73000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AB96" s="3">
         <v>-73800</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AC96" s="3">
         <v>-72200</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7512,97 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-128400</v>
+        <v>-126600</v>
       </c>
       <c r="E100" s="3">
-        <v>-129100</v>
+        <v>-124400</v>
       </c>
       <c r="F100" s="3">
-        <v>-131400</v>
+        <v>-123700</v>
       </c>
       <c r="G100" s="3">
-        <v>-356700</v>
+        <v>-124400</v>
       </c>
       <c r="H100" s="3">
-        <v>-147900</v>
+        <v>-126600</v>
       </c>
       <c r="I100" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-142500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-301800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-195200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-177100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>217400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-119300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1047100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-80400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-72200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>687400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-34900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-71500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-59500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-57300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-828300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-362400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>176700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-54500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7167,95 +7664,107 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>104400</v>
+        <v>-96900</v>
       </c>
       <c r="E102" s="3">
-        <v>44300</v>
+        <v>-49900</v>
       </c>
       <c r="F102" s="3">
-        <v>-47300</v>
+        <v>100500</v>
       </c>
       <c r="G102" s="3">
-        <v>-102100</v>
+        <v>42700</v>
       </c>
       <c r="H102" s="3">
-        <v>77300</v>
+        <v>-45600</v>
       </c>
       <c r="I102" s="3">
+        <v>-98400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-137400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-144200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>85900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>474000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-66700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1024500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>15800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>110200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>76200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>619700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>65400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>12000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-124300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-46100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>247100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-331200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>254300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-89100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>62200</v>
       </c>
     </row>
